--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00607D24-DBDE-4F45-B8A4-5013E9BC81E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA0753-D7C0-48A5-B30B-6D0B469DCD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>システム名</t>
   </si>
@@ -351,17 +351,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>申請区分名取得</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>詳細設計書_コードマスタマッパー</t>
-    <rPh sb="0" eb="5">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>コードマスタマッパー</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -413,23 +402,6 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コードマスタ検索条件ParamObj</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コード分類</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -513,30 +485,9 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>申請区分</t>
-    <rPh sb="0" eb="4">
-      <t>シンセイクブン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>申請区分のコード分類</t>
     <rPh sb="0" eb="4">
       <t>シンセイクブン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>利用区分</t>
-    <rPh sb="0" eb="4">
-      <t>リヨウクブン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>利用区分のコード分類</t>
-    <rPh sb="0" eb="4">
-      <t>リヨウクブン</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -592,10 +543,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>承認ステータスコード、コード名リスト</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>List</t>
     <phoneticPr fontId="12"/>
   </si>
@@ -627,10 +574,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>申請区分コード、コード名リスト</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>コードマスタから取得した申請区分のコードとコード名</t>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
@@ -648,23 +591,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>利用区分コード、コード名リスト</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>コードマスタから取得した利用区分のコードとコード名</t>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>リヨウクブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>コードマスタテーブル a</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -676,7 +602,18 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>a.コード分類=引数.コード分類</t>
+    <t>コード分類検索</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コード分類Param</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>a.コード分類=引数.コード分類Param</t>
     <rPh sb="5" eb="7">
       <t>ブンルイ</t>
     </rPh>
@@ -685,6 +622,56 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コードマスタから取得した利用サービスのコードとコード名</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>利用サービスのコード分類</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>承認ステータスリスト</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>申請区分リスト</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>利用サービスリスト</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>利用サービス分類</t>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>申請区分分類</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイクブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>マッパー設計書_コードマスタ</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1167,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1282,13 +1269,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,78 +1329,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,6 +1339,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,6 +1354,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1621,243 +1605,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="59" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
-        <v>59</v>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
+        <v>101</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="62" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62" t="s">
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="68" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="69">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="66">
         <v>45511</v>
       </c>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="68" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="68"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="70"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="67">
+        <v>45548</v>
+      </c>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1924,143 +1912,143 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="71"/>
-      <c r="BH6" s="71"/>
-      <c r="BI6" s="71"/>
-      <c r="BJ6" s="71"/>
-      <c r="BK6" s="71"/>
-      <c r="BL6" s="71"/>
-      <c r="BM6" s="71"/>
-      <c r="BN6" s="71"/>
-      <c r="BO6" s="71"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
@@ -2183,787 +2171,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="62" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="65" t="s">
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="66" t="s">
-        <v>60</v>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="60" t="s">
+        <v>58</v>
       </c>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
-      <c r="BA11" s="66"/>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="66"/>
-      <c r="BJ11" s="66"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="66"/>
-      <c r="BM11" s="66"/>
-      <c r="BN11" s="66"/>
-      <c r="BO11" s="66"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="67"/>
-      <c r="BI12" s="67"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="67"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="67"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="67"/>
-      <c r="BK13" s="67"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="67"/>
-      <c r="BN13" s="67"/>
-      <c r="BO13" s="67"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="72" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="72"/>
-      <c r="BD14" s="72"/>
-      <c r="BE14" s="72"/>
-      <c r="BF14" s="72"/>
-      <c r="BG14" s="72"/>
-      <c r="BH14" s="72"/>
-      <c r="BI14" s="72"/>
-      <c r="BJ14" s="72"/>
-      <c r="BK14" s="72"/>
-      <c r="BL14" s="72"/>
-      <c r="BM14" s="72"/>
-      <c r="BN14" s="72"/>
-      <c r="BO14" s="72"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="73"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="73"/>
-      <c r="BG15" s="73"/>
-      <c r="BH15" s="73"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="73"/>
-      <c r="BL15" s="73"/>
-      <c r="BM15" s="73"/>
-      <c r="BN15" s="73"/>
-      <c r="BO15" s="73"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="63"/>
+      <c r="BI15" s="63"/>
+      <c r="BJ15" s="63"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="63"/>
+      <c r="BM15" s="63"/>
+      <c r="BN15" s="63"/>
+      <c r="BO15" s="63"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="73"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="63"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="63"/>
+      <c r="BO16" s="63"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-      <c r="BO17" s="73"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
+      <c r="BO17" s="63"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="73"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
+      <c r="BG18" s="63"/>
+      <c r="BH18" s="63"/>
+      <c r="BI18" s="63"/>
+      <c r="BJ18" s="63"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="63"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-      <c r="BO19" s="73"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="73"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="73"/>
-      <c r="BJ20" s="73"/>
-      <c r="BK20" s="73"/>
-      <c r="BL20" s="73"/>
-      <c r="BM20" s="73"/>
-      <c r="BN20" s="73"/>
-      <c r="BO20" s="73"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="75"/>
-      <c r="AO21" s="75"/>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="75"/>
-      <c r="AR21" s="75"/>
-      <c r="AS21" s="75"/>
-      <c r="AT21" s="75"/>
-      <c r="AU21" s="75"/>
-      <c r="AV21" s="75"/>
-      <c r="AW21" s="75"/>
-      <c r="AX21" s="75"/>
-      <c r="AY21" s="75"/>
-      <c r="AZ21" s="75"/>
-      <c r="BA21" s="75"/>
-      <c r="BB21" s="75"/>
-      <c r="BC21" s="75"/>
-      <c r="BD21" s="75"/>
-      <c r="BE21" s="75"/>
-      <c r="BF21" s="75"/>
-      <c r="BG21" s="75"/>
-      <c r="BH21" s="75"/>
-      <c r="BI21" s="75"/>
-      <c r="BJ21" s="75"/>
-      <c r="BK21" s="75"/>
-      <c r="BL21" s="75"/>
-      <c r="BM21" s="75"/>
-      <c r="BN21" s="75"/>
-      <c r="BO21" s="75"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2993,85 +2981,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="67" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="65" t="s">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="65"/>
-      <c r="AY25" s="65"/>
-      <c r="AZ25" s="65"/>
-      <c r="BA25" s="65"/>
-      <c r="BB25" s="65"/>
-      <c r="BC25" s="65"/>
-      <c r="BD25" s="65" t="s">
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="65"/>
-      <c r="BF25" s="65"/>
-      <c r="BG25" s="65"/>
-      <c r="BH25" s="65"/>
-      <c r="BI25" s="65"/>
-      <c r="BJ25" s="65"/>
-      <c r="BK25" s="65" t="s">
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="65"/>
-      <c r="BM25" s="65"/>
-      <c r="BN25" s="65"/>
-      <c r="BO25" s="65"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3088,81 +3076,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="62">
+      <c r="C26" s="57">
         <v>1</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="65" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="66" t="s">
-        <v>65</v>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60" t="s">
+        <v>63</v>
       </c>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="65" t="s">
-        <v>68</v>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="56" t="s">
+        <v>92</v>
       </c>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="65"/>
-      <c r="AZ26" s="65"/>
-      <c r="BA26" s="65"/>
-      <c r="BB26" s="65"/>
-      <c r="BC26" s="65"/>
-      <c r="BD26" s="65" t="s">
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="65"/>
-      <c r="BF26" s="65"/>
-      <c r="BG26" s="65"/>
-      <c r="BH26" s="65"/>
-      <c r="BI26" s="65"/>
-      <c r="BJ26" s="65"/>
-      <c r="BK26" s="65"/>
-      <c r="BL26" s="65"/>
-      <c r="BM26" s="65"/>
-      <c r="BN26" s="65"/>
-      <c r="BO26" s="65"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3178,73 +3166,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="62">
+      <c r="C27" s="57">
         <v>2</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="65"/>
-      <c r="AY27" s="65"/>
-      <c r="AZ27" s="65"/>
-      <c r="BA27" s="65"/>
-      <c r="BB27" s="65"/>
-      <c r="BC27" s="65"/>
-      <c r="BD27" s="65"/>
-      <c r="BE27" s="65"/>
-      <c r="BF27" s="65"/>
-      <c r="BG27" s="65"/>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="65"/>
-      <c r="BL27" s="65"/>
-      <c r="BM27" s="65"/>
-      <c r="BN27" s="65"/>
-      <c r="BO27" s="65"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="56"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3260,73 +3248,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="62">
+      <c r="C28" s="57">
         <v>3</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="65"/>
-      <c r="BA28" s="65"/>
-      <c r="BB28" s="65"/>
-      <c r="BC28" s="65"/>
-      <c r="BD28" s="65"/>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="65"/>
-      <c r="BK28" s="65"/>
-      <c r="BL28" s="65"/>
-      <c r="BM28" s="65"/>
-      <c r="BN28" s="65"/>
-      <c r="BO28" s="65"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3343,73 +3331,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="62">
+      <c r="C29" s="57">
         <v>4</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="65"/>
-      <c r="AT29" s="65"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="65"/>
-      <c r="AW29" s="65"/>
-      <c r="AX29" s="65"/>
-      <c r="AY29" s="65"/>
-      <c r="AZ29" s="65"/>
-      <c r="BA29" s="65"/>
-      <c r="BB29" s="65"/>
-      <c r="BC29" s="65"/>
-      <c r="BD29" s="65"/>
-      <c r="BE29" s="65"/>
-      <c r="BF29" s="65"/>
-      <c r="BG29" s="65"/>
-      <c r="BH29" s="65"/>
-      <c r="BI29" s="65"/>
-      <c r="BJ29" s="65"/>
-      <c r="BK29" s="65"/>
-      <c r="BL29" s="65"/>
-      <c r="BM29" s="65"/>
-      <c r="BN29" s="65"/>
-      <c r="BO29" s="65"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3426,73 +3414,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="62">
+      <c r="C30" s="57">
         <v>5</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="65"/>
-      <c r="AW30" s="65"/>
-      <c r="AX30" s="65"/>
-      <c r="AY30" s="65"/>
-      <c r="AZ30" s="65"/>
-      <c r="BA30" s="65"/>
-      <c r="BB30" s="65"/>
-      <c r="BC30" s="65"/>
-      <c r="BD30" s="65"/>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="65"/>
-      <c r="BK30" s="65"/>
-      <c r="BL30" s="65"/>
-      <c r="BM30" s="65"/>
-      <c r="BN30" s="65"/>
-      <c r="BO30" s="65"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3509,73 +3497,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="62">
+      <c r="C31" s="57">
         <v>6</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="65"/>
-      <c r="AY31" s="65"/>
-      <c r="AZ31" s="65"/>
-      <c r="BA31" s="65"/>
-      <c r="BB31" s="65"/>
-      <c r="BC31" s="65"/>
-      <c r="BD31" s="65"/>
-      <c r="BE31" s="65"/>
-      <c r="BF31" s="65"/>
-      <c r="BG31" s="65"/>
-      <c r="BH31" s="65"/>
-      <c r="BI31" s="65"/>
-      <c r="BJ31" s="65"/>
-      <c r="BK31" s="65"/>
-      <c r="BL31" s="65"/>
-      <c r="BM31" s="65"/>
-      <c r="BN31" s="65"/>
-      <c r="BO31" s="65"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="56"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3592,73 +3580,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="62">
+      <c r="C32" s="57">
         <v>7</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="65"/>
-      <c r="AY32" s="65"/>
-      <c r="AZ32" s="65"/>
-      <c r="BA32" s="65"/>
-      <c r="BB32" s="65"/>
-      <c r="BC32" s="65"/>
-      <c r="BD32" s="65"/>
-      <c r="BE32" s="65"/>
-      <c r="BF32" s="65"/>
-      <c r="BG32" s="65"/>
-      <c r="BH32" s="65"/>
-      <c r="BI32" s="65"/>
-      <c r="BJ32" s="65"/>
-      <c r="BK32" s="65"/>
-      <c r="BL32" s="65"/>
-      <c r="BM32" s="65"/>
-      <c r="BN32" s="65"/>
-      <c r="BO32" s="65"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="56"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3675,73 +3663,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="62">
+      <c r="C33" s="57">
         <v>8</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="65"/>
-      <c r="AZ33" s="65"/>
-      <c r="BA33" s="65"/>
-      <c r="BB33" s="65"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="65"/>
-      <c r="BE33" s="65"/>
-      <c r="BF33" s="65"/>
-      <c r="BG33" s="65"/>
-      <c r="BH33" s="65"/>
-      <c r="BI33" s="65"/>
-      <c r="BJ33" s="65"/>
-      <c r="BK33" s="65"/>
-      <c r="BL33" s="65"/>
-      <c r="BM33" s="65"/>
-      <c r="BN33" s="65"/>
-      <c r="BO33" s="65"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3758,73 +3746,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="62">
+      <c r="C34" s="57">
         <v>9</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-      <c r="AZ34" s="65"/>
-      <c r="BA34" s="65"/>
-      <c r="BB34" s="65"/>
-      <c r="BC34" s="65"/>
-      <c r="BD34" s="65"/>
-      <c r="BE34" s="65"/>
-      <c r="BF34" s="65"/>
-      <c r="BG34" s="65"/>
-      <c r="BH34" s="65"/>
-      <c r="BI34" s="65"/>
-      <c r="BJ34" s="65"/>
-      <c r="BK34" s="65"/>
-      <c r="BL34" s="65"/>
-      <c r="BM34" s="65"/>
-      <c r="BN34" s="65"/>
-      <c r="BO34" s="65"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3842,73 +3830,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="62">
+      <c r="C35" s="57">
         <v>10</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="65"/>
-      <c r="AT35" s="65"/>
-      <c r="AU35" s="65"/>
-      <c r="AV35" s="65"/>
-      <c r="AW35" s="65"/>
-      <c r="AX35" s="65"/>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="65"/>
-      <c r="BA35" s="65"/>
-      <c r="BB35" s="65"/>
-      <c r="BC35" s="65"/>
-      <c r="BD35" s="65"/>
-      <c r="BE35" s="65"/>
-      <c r="BF35" s="65"/>
-      <c r="BG35" s="65"/>
-      <c r="BH35" s="65"/>
-      <c r="BI35" s="65"/>
-      <c r="BJ35" s="65"/>
-      <c r="BK35" s="65"/>
-      <c r="BL35" s="65"/>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="65"/>
-      <c r="BO35" s="65"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4517,48 +4505,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4583,51 +4574,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4698,243 +4686,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="89" t="s">
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="89"/>
-      <c r="BN1" s="89"/>
-      <c r="BO1" s="89"/>
-      <c r="BP1" s="89"/>
-      <c r="BQ1" s="89"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="68" t="s">
-        <v>58</v>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="65" t="s">
+        <v>91</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="77" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77" t="s">
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77" t="s">
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="90"/>
-      <c r="BK2" s="90"/>
-      <c r="BL2" s="90"/>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="90"/>
-      <c r="BQ2" s="90"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="91" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="92">
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="81">
         <v>45510</v>
       </c>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="91" t="s">
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="91"/>
-      <c r="BD3" s="91"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4959,98 +4947,98 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="86" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="65" t="s">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="65"/>
-      <c r="BF6" s="65"/>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65"/>
-      <c r="BI6" s="65"/>
-      <c r="BJ6" s="65"/>
-      <c r="BK6" s="65"/>
-      <c r="BL6" s="65"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -5079,38 +5067,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="65" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="65"/>
-      <c r="BK7" s="65"/>
-      <c r="BL7" s="65"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
-      <c r="BP7" s="65"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5124,91 +5112,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="77" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77" t="s">
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="83" t="s">
-        <v>67</v>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="85" t="s">
+        <v>65</v>
       </c>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="85"/>
-      <c r="BJ10" s="62" t="s">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="62"/>
-      <c r="BL10" s="62"/>
-      <c r="BM10" s="62"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="62"/>
-      <c r="BP10" s="62"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="17" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5222,13 +5210,13 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="90"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="38" t="s">
         <v>66</v>
-      </c>
-      <c r="U11" s="81"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="38" t="s">
-        <v>70</v>
       </c>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -5269,7 +5257,7 @@
       <c r="BH11" s="18"/>
       <c r="BI11" s="20"/>
       <c r="BJ11" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="BK11" s="23"/>
       <c r="BL11" s="23"/>
@@ -5280,10 +5268,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5296,9 +5284,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5347,10 +5335,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5364,9 +5352,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5415,10 +5403,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5432,9 +5420,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5483,10 +5471,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5500,9 +5488,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5562,90 +5550,90 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="77" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="62" t="s">
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="62"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
-      <c r="BJ18" s="62" t="s">
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="57"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="62"/>
-      <c r="BL18" s="62"/>
-      <c r="BM18" s="62"/>
-      <c r="BN18" s="62"/>
-      <c r="BO18" s="62"/>
-      <c r="BP18" s="62"/>
+      <c r="BK18" s="57"/>
+      <c r="BL18" s="57"/>
+      <c r="BM18" s="57"/>
+      <c r="BN18" s="57"/>
+      <c r="BO18" s="57"/>
+      <c r="BP18" s="57"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -5659,11 +5647,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
       <c r="W19" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -5948,7 +5936,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5975,7 +5963,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -6009,7 +5997,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -6036,7 +6024,7 @@
       <c r="A36" s="12"/>
       <c r="C36" s="29"/>
       <c r="I36" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG36" s="16"/>
       <c r="BP36" s="30"/>
@@ -15331,6 +15319,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15345,37 +15364,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -15430,9 +15418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15441,12 +15427,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -15457,15 +15443,15 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
-      <c r="L3" s="94" t="s">
-        <v>74</v>
+      <c r="L3" s="93" t="s">
+        <v>70</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -15502,10 +15488,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15516,14 +15502,14 @@
       <c r="J4" s="46"/>
       <c r="K4" s="47"/>
       <c r="L4" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
@@ -15610,10 +15596,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>80</v>
+      <c r="C6" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -15624,14 +15610,14 @@
       <c r="J6" s="46"/>
       <c r="K6" s="47"/>
       <c r="L6" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
@@ -15718,10 +15704,10 @@
     </row>
     <row r="8" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>82</v>
+      <c r="C8" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -15732,14 +15718,14 @@
       <c r="J8" s="46"/>
       <c r="K8" s="47"/>
       <c r="L8" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="46" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
@@ -15861,71 +15847,71 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="94" t="s">
-        <v>73</v>
+      <c r="B3" s="93" t="s">
+        <v>69</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="94" t="s">
-        <v>74</v>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="93" t="s">
+        <v>70</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="94" t="s">
-        <v>75</v>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="93" t="s">
+        <v>71</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="95"/>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="95"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="96"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="95"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15936,14 +15922,14 @@
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
       <c r="L4" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
@@ -16030,10 +16016,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16044,14 +16030,14 @@
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="46" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
@@ -16152,7 +16138,7 @@
   <dimension ref="B2:BM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16162,12 +16148,12 @@
   <sheetData>
     <row r="2" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -16184,15 +16170,15 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="94" t="s">
-        <v>74</v>
+      <c r="R3" s="93" t="s">
+        <v>70</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="96"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
       <c r="W3" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
@@ -16229,10 +16215,10 @@
     </row>
     <row r="4" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -16249,14 +16235,14 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
       <c r="U4" s="46"/>
       <c r="V4" s="47"/>
       <c r="W4" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
@@ -16293,8 +16279,8 @@
     </row>
     <row r="5" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
-      <c r="C5" s="56" t="s">
-        <v>93</v>
+      <c r="C5" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -16311,7 +16297,7 @@
       <c r="P5" s="50"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
@@ -16353,10 +16339,10 @@
     </row>
     <row r="6" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>95</v>
+      <c r="C6" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16373,14 +16359,14 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="S6" s="46"/>
       <c r="T6" s="46"/>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
       <c r="W6" s="46" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
@@ -16418,7 +16404,7 @@
     <row r="7" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="41" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -16435,7 +16421,7 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -16477,7 +16463,7 @@
     </row>
     <row r="8" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>98</v>
@@ -16497,14 +16483,14 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="46"/>
       <c r="V8" s="47"/>
       <c r="W8" s="46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -16542,7 +16528,7 @@
     <row r="9" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="50" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -16559,7 +16545,7 @@
       <c r="P9" s="50"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA0753-D7C0-48A5-B30B-6D0B469DCD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B3808-F1B1-4F22-8CAF-ABDAEDECB552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7490" yWindow="170" windowWidth="11460" windowHeight="9910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -591,36 +591,12 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>コードマスタテーブル a</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>a.全項目</t>
-    <rPh sb="2" eb="5">
-      <t>ゼンコウモク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>コード分類検索</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コード分類Param</t>
     <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>a.コード分類=引数.コード分類Param</t>
-    <rPh sb="5" eb="7">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
@@ -672,6 +648,30 @@
     <t>マッパー設計書_コードマスタ</t>
     <rPh sb="4" eb="7">
       <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コードマスタテーブル AS CodeMTable</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CodeMTable.全項目</t>
+    <rPh sb="11" eb="14">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CodeMTable.コード分類=引数.コード分類Param</t>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1275,45 +1275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,8 +1290,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1339,9 +1370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,34 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1605,247 +1605,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="71" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="71"/>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="71"/>
-      <c r="BQ1" s="71"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73" t="s">
-        <v>101</v>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
+        <v>98</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="57" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57" t="s">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57" t="s">
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="74" t="s">
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="65" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="66">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="68">
         <v>45511</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="65" t="s">
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="67">
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="69">
         <v>45548</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1912,213 +1912,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="70"/>
+      <c r="BF6" s="70"/>
+      <c r="BG6" s="70"/>
+      <c r="BH6" s="70"/>
+      <c r="BI6" s="70"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
+      <c r="BN6" s="70"/>
+      <c r="BO6" s="70"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="70"/>
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="70"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
+      <c r="BN7" s="70"/>
+      <c r="BO7" s="70"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="64"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="64"/>
-      <c r="BO8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2171,787 +2171,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="56" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="60" t="s">
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="65"/>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="65"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="65"/>
+      <c r="BO11" s="65"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="66"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="66"/>
+      <c r="BJ12" s="66"/>
+      <c r="BK12" s="66"/>
+      <c r="BL12" s="66"/>
+      <c r="BM12" s="66"/>
+      <c r="BN12" s="66"/>
+      <c r="BO12" s="66"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="66"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="66"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="66"/>
+      <c r="BF13" s="66"/>
+      <c r="BG13" s="66"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="66"/>
+      <c r="BJ13" s="66"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="66"/>
+      <c r="BM13" s="66"/>
+      <c r="BN13" s="66"/>
+      <c r="BO13" s="66"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="71"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="71"/>
+      <c r="BG14" s="71"/>
+      <c r="BH14" s="71"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="71"/>
+      <c r="BK14" s="71"/>
+      <c r="BL14" s="71"/>
+      <c r="BM14" s="71"/>
+      <c r="BN14" s="71"/>
+      <c r="BO14" s="71"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="63"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="63"/>
-      <c r="BN15" s="63"/>
-      <c r="BO15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="72"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="72"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="72"/>
+      <c r="BJ15" s="72"/>
+      <c r="BK15" s="72"/>
+      <c r="BL15" s="72"/>
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="72"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
-      <c r="BO17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="72"/>
+      <c r="BF17" s="72"/>
+      <c r="BG17" s="72"/>
+      <c r="BH17" s="72"/>
+      <c r="BI17" s="72"/>
+      <c r="BJ17" s="72"/>
+      <c r="BK17" s="72"/>
+      <c r="BL17" s="72"/>
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="63"/>
-      <c r="BH18" s="63"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="72"/>
+      <c r="BL18" s="72"/>
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="63"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="63"/>
-      <c r="BO19" s="63"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="72"/>
+      <c r="BH19" s="72"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="72"/>
+      <c r="BK19" s="72"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="72"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="63"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="63"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="63"/>
-      <c r="BO20" s="63"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="72"/>
+      <c r="BF20" s="72"/>
+      <c r="BG20" s="72"/>
+      <c r="BH20" s="72"/>
+      <c r="BI20" s="72"/>
+      <c r="BJ20" s="72"/>
+      <c r="BK20" s="72"/>
+      <c r="BL20" s="72"/>
+      <c r="BM20" s="72"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="72"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="61"/>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="61"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
-      <c r="BO21" s="61"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
+      <c r="BO21" s="74"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2981,85 +2981,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="56" t="s">
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56" t="s">
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="56"/>
-      <c r="BF25" s="56"/>
-      <c r="BG25" s="56"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
-      <c r="BK25" s="56" t="s">
+      <c r="BE25" s="64"/>
+      <c r="BF25" s="64"/>
+      <c r="BG25" s="64"/>
+      <c r="BH25" s="64"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="56"/>
-      <c r="BM25" s="56"/>
-      <c r="BN25" s="56"/>
-      <c r="BO25" s="56"/>
+      <c r="BL25" s="64"/>
+      <c r="BM25" s="64"/>
+      <c r="BN25" s="64"/>
+      <c r="BO25" s="64"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3076,81 +3076,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="57">
+      <c r="C26" s="61">
         <v>1</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60" t="s">
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="56" t="s">
-        <v>92</v>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="64" t="s">
+        <v>90</v>
       </c>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56" t="s">
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="64"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
+      <c r="BE26" s="64"/>
+      <c r="BF26" s="64"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
+      <c r="BL26" s="64"/>
+      <c r="BM26" s="64"/>
+      <c r="BN26" s="64"/>
+      <c r="BO26" s="64"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3166,73 +3166,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="57">
+      <c r="C27" s="61">
         <v>2</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
-      <c r="BO27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="64"/>
+      <c r="BM27" s="64"/>
+      <c r="BN27" s="64"/>
+      <c r="BO27" s="64"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3248,73 +3248,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="57">
+      <c r="C28" s="61">
         <v>3</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="64"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3331,73 +3331,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="57">
+      <c r="C29" s="61">
         <v>4</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="64"/>
+      <c r="BN29" s="64"/>
+      <c r="BO29" s="64"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3414,73 +3414,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="57">
+      <c r="C30" s="61">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="56"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="56"/>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="56"/>
-      <c r="BJ30" s="56"/>
-      <c r="BK30" s="56"/>
-      <c r="BL30" s="56"/>
-      <c r="BM30" s="56"/>
-      <c r="BN30" s="56"/>
-      <c r="BO30" s="56"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64"/>
+      <c r="AY30" s="64"/>
+      <c r="AZ30" s="64"/>
+      <c r="BA30" s="64"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="64"/>
+      <c r="BD30" s="64"/>
+      <c r="BE30" s="64"/>
+      <c r="BF30" s="64"/>
+      <c r="BG30" s="64"/>
+      <c r="BH30" s="64"/>
+      <c r="BI30" s="64"/>
+      <c r="BJ30" s="64"/>
+      <c r="BK30" s="64"/>
+      <c r="BL30" s="64"/>
+      <c r="BM30" s="64"/>
+      <c r="BN30" s="64"/>
+      <c r="BO30" s="64"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3497,73 +3497,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="57">
+      <c r="C31" s="61">
         <v>6</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
-      <c r="BF31" s="56"/>
-      <c r="BG31" s="56"/>
-      <c r="BH31" s="56"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="56"/>
-      <c r="BK31" s="56"/>
-      <c r="BL31" s="56"/>
-      <c r="BM31" s="56"/>
-      <c r="BN31" s="56"/>
-      <c r="BO31" s="56"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="64"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="64"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3580,73 +3580,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="57">
+      <c r="C32" s="61">
         <v>7</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-      <c r="BK32" s="56"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="64"/>
+      <c r="BO32" s="64"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3663,73 +3663,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="57">
+      <c r="C33" s="61">
         <v>8</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="64"/>
+      <c r="BJ33" s="64"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="64"/>
+      <c r="BO33" s="64"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3746,73 +3746,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="57">
+      <c r="C34" s="61">
         <v>9</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="64"/>
+      <c r="BO34" s="64"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3830,73 +3830,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="57">
+      <c r="C35" s="61">
         <v>10</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="64"/>
+      <c r="BO35" s="64"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4505,51 +4505,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4574,48 +4571,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4686,243 +4686,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="88"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="88"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="65" t="s">
-        <v>91</v>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="67" t="s">
+        <v>89</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="78" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78" t="s">
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78" t="s">
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="80" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="81">
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="91">
         <v>45510</v>
       </c>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="80" t="s">
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4947,96 +4947,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="56" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5067,38 +5067,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="64"/>
+      <c r="BO7" s="64"/>
+      <c r="BP7" s="64"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5112,91 +5112,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="78" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78" t="s">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="85" t="s">
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
-      <c r="BE10" s="86"/>
-      <c r="BF10" s="86"/>
-      <c r="BG10" s="86"/>
-      <c r="BH10" s="86"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="57" t="s">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5210,11 +5210,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5268,10 +5268,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5284,9 +5284,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5335,10 +5335,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5352,9 +5352,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5403,10 +5403,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5420,9 +5420,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5471,10 +5471,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5488,9 +5488,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5550,88 +5550,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="78" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="57" t="s">
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57" t="s">
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="57"/>
-      <c r="BL18" s="57"/>
-      <c r="BM18" s="57"/>
-      <c r="BN18" s="57"/>
-      <c r="BO18" s="57"/>
-      <c r="BP18" s="57"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -5936,7 +5936,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5963,7 +5963,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -5997,7 +5997,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -15319,37 +15319,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15364,6 +15333,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -15599,7 +15599,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -15707,7 +15707,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -15725,7 +15725,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
@@ -16218,7 +16218,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -16342,7 +16342,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16466,7 +16466,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -16490,7 +16490,7 @@
       <c r="U8" s="46"/>
       <c r="V8" s="47"/>
       <c r="W8" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B3808-F1B1-4F22-8CAF-ABDAEDECB552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483436F9-6002-417C-8383-B40A85BA2E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7490" yWindow="170" windowWidth="11460" windowHeight="9910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="40" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_コードマスターマッパー!$A$1:$BQ$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">コード分類検索!$A$1:$BQ$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">コード分類検索!$A$1:$BQ$32</definedName>
     <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１" localSheetId="3">#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>システム名</t>
   </si>
@@ -675,6 +675,13 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>AND CodeMTable.削除フラグ = "0"</t>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -1275,6 +1282,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,78 +1336,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1370,6 +1346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,6 +1361,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1605,247 +1612,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61" t="s">
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="62" t="s">
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="67" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="68">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="66">
         <v>45511</v>
       </c>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="67" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="69">
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="67">
         <v>45548</v>
       </c>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1912,213 +1919,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="70"/>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
-      <c r="BN6" s="70"/>
-      <c r="BO6" s="70"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2171,787 +2178,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="61" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="64" t="s">
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="65" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="65"/>
-      <c r="BE11" s="65"/>
-      <c r="BF11" s="65"/>
-      <c r="BG11" s="65"/>
-      <c r="BH11" s="65"/>
-      <c r="BI11" s="65"/>
-      <c r="BJ11" s="65"/>
-      <c r="BK11" s="65"/>
-      <c r="BL11" s="65"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="65"/>
-      <c r="BO11" s="65"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="66"/>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="66"/>
-      <c r="BN12" s="66"/>
-      <c r="BO12" s="66"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="66"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="66"/>
-      <c r="BJ13" s="66"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="66"/>
-      <c r="BM13" s="66"/>
-      <c r="BN13" s="66"/>
-      <c r="BO13" s="66"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="71" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="71"/>
-      <c r="BG14" s="71"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="71"/>
-      <c r="BN14" s="71"/>
-      <c r="BO14" s="71"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="72"/>
-      <c r="BE15" s="72"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="72"/>
-      <c r="BK15" s="72"/>
-      <c r="BL15" s="72"/>
-      <c r="BM15" s="72"/>
-      <c r="BN15" s="72"/>
-      <c r="BO15" s="72"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="63"/>
+      <c r="BI15" s="63"/>
+      <c r="BJ15" s="63"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="63"/>
+      <c r="BM15" s="63"/>
+      <c r="BN15" s="63"/>
+      <c r="BO15" s="63"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="72"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="72"/>
-      <c r="BN16" s="72"/>
-      <c r="BO16" s="72"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="63"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="63"/>
+      <c r="BO16" s="63"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="72"/>
-      <c r="BA17" s="72"/>
-      <c r="BB17" s="72"/>
-      <c r="BC17" s="72"/>
-      <c r="BD17" s="72"/>
-      <c r="BE17" s="72"/>
-      <c r="BF17" s="72"/>
-      <c r="BG17" s="72"/>
-      <c r="BH17" s="72"/>
-      <c r="BI17" s="72"/>
-      <c r="BJ17" s="72"/>
-      <c r="BK17" s="72"/>
-      <c r="BL17" s="72"/>
-      <c r="BM17" s="72"/>
-      <c r="BN17" s="72"/>
-      <c r="BO17" s="72"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
+      <c r="BO17" s="63"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="72"/>
-      <c r="BG18" s="72"/>
-      <c r="BH18" s="72"/>
-      <c r="BI18" s="72"/>
-      <c r="BJ18" s="72"/>
-      <c r="BK18" s="72"/>
-      <c r="BL18" s="72"/>
-      <c r="BM18" s="72"/>
-      <c r="BN18" s="72"/>
-      <c r="BO18" s="72"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
+      <c r="BG18" s="63"/>
+      <c r="BH18" s="63"/>
+      <c r="BI18" s="63"/>
+      <c r="BJ18" s="63"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="63"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="72"/>
-      <c r="BA19" s="72"/>
-      <c r="BB19" s="72"/>
-      <c r="BC19" s="72"/>
-      <c r="BD19" s="72"/>
-      <c r="BE19" s="72"/>
-      <c r="BF19" s="72"/>
-      <c r="BG19" s="72"/>
-      <c r="BH19" s="72"/>
-      <c r="BI19" s="72"/>
-      <c r="BJ19" s="72"/>
-      <c r="BK19" s="72"/>
-      <c r="BL19" s="72"/>
-      <c r="BM19" s="72"/>
-      <c r="BN19" s="72"/>
-      <c r="BO19" s="72"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="72"/>
-      <c r="BA20" s="72"/>
-      <c r="BB20" s="72"/>
-      <c r="BC20" s="72"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="72"/>
-      <c r="BF20" s="72"/>
-      <c r="BG20" s="72"/>
-      <c r="BH20" s="72"/>
-      <c r="BI20" s="72"/>
-      <c r="BJ20" s="72"/>
-      <c r="BK20" s="72"/>
-      <c r="BL20" s="72"/>
-      <c r="BM20" s="72"/>
-      <c r="BN20" s="72"/>
-      <c r="BO20" s="72"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="74"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="74"/>
-      <c r="AY21" s="74"/>
-      <c r="AZ21" s="74"/>
-      <c r="BA21" s="74"/>
-      <c r="BB21" s="74"/>
-      <c r="BC21" s="74"/>
-      <c r="BD21" s="74"/>
-      <c r="BE21" s="74"/>
-      <c r="BF21" s="74"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="74"/>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="74"/>
-      <c r="BM21" s="74"/>
-      <c r="BN21" s="74"/>
-      <c r="BO21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2981,85 +2988,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="66" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="64" t="s">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="64"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="64"/>
-      <c r="AU25" s="64"/>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64"/>
-      <c r="AY25" s="64"/>
-      <c r="AZ25" s="64"/>
-      <c r="BA25" s="64"/>
-      <c r="BB25" s="64"/>
-      <c r="BC25" s="64"/>
-      <c r="BD25" s="64" t="s">
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="64"/>
-      <c r="BF25" s="64"/>
-      <c r="BG25" s="64"/>
-      <c r="BH25" s="64"/>
-      <c r="BI25" s="64"/>
-      <c r="BJ25" s="64"/>
-      <c r="BK25" s="64" t="s">
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="64"/>
-      <c r="BM25" s="64"/>
-      <c r="BN25" s="64"/>
-      <c r="BO25" s="64"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3076,81 +3083,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="61">
+      <c r="C26" s="57">
         <v>1</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="64" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="65" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="64" t="s">
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-      <c r="AY26" s="64"/>
-      <c r="AZ26" s="64"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="64"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="64" t="s">
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="64"/>
-      <c r="BF26" s="64"/>
-      <c r="BG26" s="64"/>
-      <c r="BH26" s="64"/>
-      <c r="BI26" s="64"/>
-      <c r="BJ26" s="64"/>
-      <c r="BK26" s="64"/>
-      <c r="BL26" s="64"/>
-      <c r="BM26" s="64"/>
-      <c r="BN26" s="64"/>
-      <c r="BO26" s="64"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3166,73 +3173,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="61">
+      <c r="C27" s="57">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="64"/>
-      <c r="BE27" s="64"/>
-      <c r="BF27" s="64"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
-      <c r="BL27" s="64"/>
-      <c r="BM27" s="64"/>
-      <c r="BN27" s="64"/>
-      <c r="BO27" s="64"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="56"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3248,73 +3255,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="61">
+      <c r="C28" s="57">
         <v>3</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
-      <c r="BL28" s="64"/>
-      <c r="BM28" s="64"/>
-      <c r="BN28" s="64"/>
-      <c r="BO28" s="64"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3331,73 +3338,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="61">
+      <c r="C29" s="57">
         <v>4</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="64"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="64"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="64"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3414,73 +3421,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="61">
+      <c r="C30" s="57">
         <v>5</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64"/>
-      <c r="AY30" s="64"/>
-      <c r="AZ30" s="64"/>
-      <c r="BA30" s="64"/>
-      <c r="BB30" s="64"/>
-      <c r="BC30" s="64"/>
-      <c r="BD30" s="64"/>
-      <c r="BE30" s="64"/>
-      <c r="BF30" s="64"/>
-      <c r="BG30" s="64"/>
-      <c r="BH30" s="64"/>
-      <c r="BI30" s="64"/>
-      <c r="BJ30" s="64"/>
-      <c r="BK30" s="64"/>
-      <c r="BL30" s="64"/>
-      <c r="BM30" s="64"/>
-      <c r="BN30" s="64"/>
-      <c r="BO30" s="64"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3497,73 +3504,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="61">
+      <c r="C31" s="57">
         <v>6</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="64"/>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
-      <c r="AX31" s="64"/>
-      <c r="AY31" s="64"/>
-      <c r="AZ31" s="64"/>
-      <c r="BA31" s="64"/>
-      <c r="BB31" s="64"/>
-      <c r="BC31" s="64"/>
-      <c r="BD31" s="64"/>
-      <c r="BE31" s="64"/>
-      <c r="BF31" s="64"/>
-      <c r="BG31" s="64"/>
-      <c r="BH31" s="64"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="64"/>
-      <c r="BK31" s="64"/>
-      <c r="BL31" s="64"/>
-      <c r="BM31" s="64"/>
-      <c r="BN31" s="64"/>
-      <c r="BO31" s="64"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="56"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3580,73 +3587,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="61">
+      <c r="C32" s="57">
         <v>7</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="64"/>
-      <c r="AV32" s="64"/>
-      <c r="AW32" s="64"/>
-      <c r="AX32" s="64"/>
-      <c r="AY32" s="64"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="64"/>
-      <c r="BC32" s="64"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="64"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="64"/>
-      <c r="BO32" s="64"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="56"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3663,73 +3670,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="61">
+      <c r="C33" s="57">
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
-      <c r="BB33" s="64"/>
-      <c r="BC33" s="64"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="64"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="64"/>
-      <c r="BO33" s="64"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3746,73 +3753,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="61">
+      <c r="C34" s="57">
         <v>9</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="64"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="64"/>
-      <c r="BO34" s="64"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3830,73 +3837,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="61">
+      <c r="C35" s="57">
         <v>10</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="64"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="64"/>
-      <c r="BJ35" s="64"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="64"/>
-      <c r="BO35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4505,48 +4512,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4571,51 +4581,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4668,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C419942-AAEF-47BC-8F8D-550D23926994}">
-  <dimension ref="A1:AMM50"/>
+  <dimension ref="A1:AMM49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4686,243 +4693,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="88" t="s">
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88"/>
-      <c r="AX1" s="88"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="88"/>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="88"/>
-      <c r="BC1" s="88"/>
-      <c r="BD1" s="88"/>
-      <c r="BE1" s="88"/>
-      <c r="BF1" s="88"/>
-      <c r="BG1" s="88"/>
-      <c r="BH1" s="88"/>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
-      <c r="BK1" s="88"/>
-      <c r="BL1" s="88"/>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="88"/>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
-      <c r="BQ1" s="88"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="76" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76" t="s">
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="76" t="s">
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="89"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="90" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="91">
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="81">
         <v>45510</v>
       </c>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="90" t="s">
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="92"/>
-      <c r="BN3" s="92"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4947,96 +4954,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="85" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="64" t="s">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5067,38 +5074,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="64" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="64"/>
-      <c r="BE7" s="64"/>
-      <c r="BF7" s="64"/>
-      <c r="BG7" s="64"/>
-      <c r="BH7" s="64"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="64"/>
-      <c r="BO7" s="64"/>
-      <c r="BP7" s="64"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5112,89 +5119,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="76" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76" t="s">
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="82" t="s">
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="61" t="s">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="17" t="s">
         <v>90</v>
       </c>
@@ -5210,11 +5217,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="79" t="s">
+      <c r="T11" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5268,10 +5275,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5284,9 +5291,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5335,10 +5342,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5352,9 +5359,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5403,10 +5410,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5420,9 +5427,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5471,10 +5478,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5488,9 +5495,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5550,88 +5557,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="61" t="s">
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61" t="s">
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="57"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
-      <c r="BP18" s="61"/>
+      <c r="BK18" s="57"/>
+      <c r="BL18" s="57"/>
+      <c r="BM18" s="57"/>
+      <c r="BN18" s="57"/>
+      <c r="BO18" s="57"/>
+      <c r="BP18" s="57"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5647,9 +5654,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -5989,6 +5996,9 @@
     <row r="32" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
+      <c r="I32" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
       <c r="BQ32" s="15"/>
@@ -5997,7 +6007,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -6006,6 +6016,9 @@
     <row r="34" spans="1:1027" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="C34" s="29"/>
+      <c r="D34" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="AG34" s="16"/>
       <c r="BP34" s="30"/>
       <c r="BQ34" s="15"/>
@@ -6013,8 +6026,8 @@
     <row r="35" spans="1:1027" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="13" t="s">
-        <v>47</v>
+      <c r="I35" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AG35" s="16"/>
       <c r="BP35" s="30"/>
@@ -6023,9 +6036,6 @@
     <row r="36" spans="1:1027" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="C36" s="29"/>
-      <c r="I36" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="AG36" s="16"/>
       <c r="BP36" s="30"/>
       <c r="BQ36" s="15"/>
@@ -6058,12 +6068,1033 @@
       <c r="BP40" s="30"/>
       <c r="BQ40" s="15"/>
     </row>
-    <row r="41" spans="1:1027" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="29"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
       <c r="AG41" s="16"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="13"/>
+      <c r="AQ41" s="13"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="13"/>
+      <c r="AT41" s="13"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="13"/>
+      <c r="BD41" s="13"/>
+      <c r="BE41" s="13"/>
+      <c r="BF41" s="13"/>
+      <c r="BG41" s="13"/>
+      <c r="BH41" s="13"/>
+      <c r="BI41" s="13"/>
+      <c r="BJ41" s="13"/>
+      <c r="BK41" s="13"/>
+      <c r="BL41" s="13"/>
+      <c r="BM41" s="13"/>
+      <c r="BN41" s="13"/>
+      <c r="BO41" s="13"/>
       <c r="BP41" s="30"/>
-      <c r="BQ41" s="15"/>
+      <c r="BR41" s="13"/>
+      <c r="BS41" s="13"/>
+      <c r="BT41" s="13"/>
+      <c r="BU41" s="13"/>
+      <c r="BV41" s="13"/>
+      <c r="BW41" s="13"/>
+      <c r="BX41" s="13"/>
+      <c r="BY41" s="13"/>
+      <c r="BZ41" s="13"/>
+      <c r="CA41" s="13"/>
+      <c r="CB41" s="13"/>
+      <c r="CC41" s="13"/>
+      <c r="CD41" s="13"/>
+      <c r="CE41" s="13"/>
+      <c r="CF41" s="13"/>
+      <c r="CG41" s="13"/>
+      <c r="CH41" s="13"/>
+      <c r="CI41" s="13"/>
+      <c r="CJ41" s="13"/>
+      <c r="CK41" s="13"/>
+      <c r="CL41" s="13"/>
+      <c r="CM41" s="13"/>
+      <c r="CN41" s="13"/>
+      <c r="CO41" s="13"/>
+      <c r="CP41" s="13"/>
+      <c r="CQ41" s="13"/>
+      <c r="CR41" s="13"/>
+      <c r="CS41" s="13"/>
+      <c r="CT41" s="13"/>
+      <c r="CU41" s="13"/>
+      <c r="CV41" s="13"/>
+      <c r="CW41" s="13"/>
+      <c r="CX41" s="13"/>
+      <c r="CY41" s="13"/>
+      <c r="CZ41" s="13"/>
+      <c r="DA41" s="13"/>
+      <c r="DB41" s="13"/>
+      <c r="DC41" s="13"/>
+      <c r="DD41" s="13"/>
+      <c r="DE41" s="13"/>
+      <c r="DF41" s="13"/>
+      <c r="DG41" s="13"/>
+      <c r="DH41" s="13"/>
+      <c r="DI41" s="13"/>
+      <c r="DJ41" s="13"/>
+      <c r="DK41" s="13"/>
+      <c r="DL41" s="13"/>
+      <c r="DM41" s="13"/>
+      <c r="DN41" s="13"/>
+      <c r="DO41" s="13"/>
+      <c r="DP41" s="13"/>
+      <c r="DQ41" s="13"/>
+      <c r="DR41" s="13"/>
+      <c r="DS41" s="13"/>
+      <c r="DT41" s="13"/>
+      <c r="DU41" s="13"/>
+      <c r="DV41" s="13"/>
+      <c r="DW41" s="13"/>
+      <c r="DX41" s="13"/>
+      <c r="DY41" s="13"/>
+      <c r="DZ41" s="13"/>
+      <c r="EA41" s="13"/>
+      <c r="EB41" s="13"/>
+      <c r="EC41" s="13"/>
+      <c r="ED41" s="13"/>
+      <c r="EE41" s="13"/>
+      <c r="EF41" s="13"/>
+      <c r="EG41" s="13"/>
+      <c r="EH41" s="13"/>
+      <c r="EI41" s="13"/>
+      <c r="EJ41" s="13"/>
+      <c r="EK41" s="13"/>
+      <c r="EL41" s="13"/>
+      <c r="EM41" s="13"/>
+      <c r="EN41" s="13"/>
+      <c r="EO41" s="13"/>
+      <c r="EP41" s="13"/>
+      <c r="EQ41" s="13"/>
+      <c r="ER41" s="13"/>
+      <c r="ES41" s="13"/>
+      <c r="ET41" s="13"/>
+      <c r="EU41" s="13"/>
+      <c r="EV41" s="13"/>
+      <c r="EW41" s="13"/>
+      <c r="EX41" s="13"/>
+      <c r="EY41" s="13"/>
+      <c r="EZ41" s="13"/>
+      <c r="FA41" s="13"/>
+      <c r="FB41" s="13"/>
+      <c r="FC41" s="13"/>
+      <c r="FD41" s="13"/>
+      <c r="FE41" s="13"/>
+      <c r="FF41" s="13"/>
+      <c r="FG41" s="13"/>
+      <c r="FH41" s="13"/>
+      <c r="FI41" s="13"/>
+      <c r="FJ41" s="13"/>
+      <c r="FK41" s="13"/>
+      <c r="FL41" s="13"/>
+      <c r="FM41" s="13"/>
+      <c r="FN41" s="13"/>
+      <c r="FO41" s="13"/>
+      <c r="FP41" s="13"/>
+      <c r="FQ41" s="13"/>
+      <c r="FR41" s="13"/>
+      <c r="FS41" s="13"/>
+      <c r="FT41" s="13"/>
+      <c r="FU41" s="13"/>
+      <c r="FV41" s="13"/>
+      <c r="FW41" s="13"/>
+      <c r="FX41" s="13"/>
+      <c r="FY41" s="13"/>
+      <c r="FZ41" s="13"/>
+      <c r="GA41" s="13"/>
+      <c r="GB41" s="13"/>
+      <c r="GC41" s="13"/>
+      <c r="GD41" s="13"/>
+      <c r="GE41" s="13"/>
+      <c r="GF41" s="13"/>
+      <c r="GG41" s="13"/>
+      <c r="GH41" s="13"/>
+      <c r="GI41" s="13"/>
+      <c r="GJ41" s="13"/>
+      <c r="GK41" s="13"/>
+      <c r="GL41" s="13"/>
+      <c r="GM41" s="13"/>
+      <c r="GN41" s="13"/>
+      <c r="GO41" s="13"/>
+      <c r="GP41" s="13"/>
+      <c r="GQ41" s="13"/>
+      <c r="GR41" s="13"/>
+      <c r="GS41" s="13"/>
+      <c r="GT41" s="13"/>
+      <c r="GU41" s="13"/>
+      <c r="GV41" s="13"/>
+      <c r="GW41" s="13"/>
+      <c r="GX41" s="13"/>
+      <c r="GY41" s="13"/>
+      <c r="GZ41" s="13"/>
+      <c r="HA41" s="13"/>
+      <c r="HB41" s="13"/>
+      <c r="HC41" s="13"/>
+      <c r="HD41" s="13"/>
+      <c r="HE41" s="13"/>
+      <c r="HF41" s="13"/>
+      <c r="HG41" s="13"/>
+      <c r="HH41" s="13"/>
+      <c r="HI41" s="13"/>
+      <c r="HJ41" s="13"/>
+      <c r="HK41" s="13"/>
+      <c r="HL41" s="13"/>
+      <c r="HM41" s="13"/>
+      <c r="HN41" s="13"/>
+      <c r="HO41" s="13"/>
+      <c r="HP41" s="13"/>
+      <c r="HQ41" s="13"/>
+      <c r="HR41" s="13"/>
+      <c r="HS41" s="13"/>
+      <c r="HT41" s="13"/>
+      <c r="HU41" s="13"/>
+      <c r="HV41" s="13"/>
+      <c r="HW41" s="13"/>
+      <c r="HX41" s="13"/>
+      <c r="HY41" s="13"/>
+      <c r="HZ41" s="13"/>
+      <c r="IA41" s="13"/>
+      <c r="IB41" s="13"/>
+      <c r="IC41" s="13"/>
+      <c r="ID41" s="13"/>
+      <c r="IE41" s="13"/>
+      <c r="IF41" s="13"/>
+      <c r="IG41" s="13"/>
+      <c r="IH41" s="13"/>
+      <c r="II41" s="13"/>
+      <c r="IJ41" s="13"/>
+      <c r="IK41" s="13"/>
+      <c r="IL41" s="13"/>
+      <c r="IM41" s="13"/>
+      <c r="IN41" s="13"/>
+      <c r="IO41" s="13"/>
+      <c r="IP41" s="13"/>
+      <c r="IQ41" s="13"/>
+      <c r="IR41" s="13"/>
+      <c r="IS41" s="13"/>
+      <c r="IT41" s="13"/>
+      <c r="IU41" s="13"/>
+      <c r="IV41" s="13"/>
+      <c r="IW41" s="13"/>
+      <c r="IX41" s="13"/>
+      <c r="IY41" s="13"/>
+      <c r="IZ41" s="13"/>
+      <c r="JA41" s="13"/>
+      <c r="JB41" s="13"/>
+      <c r="JC41" s="13"/>
+      <c r="JD41" s="13"/>
+      <c r="JE41" s="13"/>
+      <c r="JF41" s="13"/>
+      <c r="JG41" s="13"/>
+      <c r="JH41" s="13"/>
+      <c r="JI41" s="13"/>
+      <c r="JJ41" s="13"/>
+      <c r="JK41" s="13"/>
+      <c r="JL41" s="13"/>
+      <c r="JM41" s="13"/>
+      <c r="JN41" s="13"/>
+      <c r="JO41" s="13"/>
+      <c r="JP41" s="13"/>
+      <c r="JQ41" s="13"/>
+      <c r="JR41" s="13"/>
+      <c r="JS41" s="13"/>
+      <c r="JT41" s="13"/>
+      <c r="JU41" s="13"/>
+      <c r="JV41" s="13"/>
+      <c r="JW41" s="13"/>
+      <c r="JX41" s="13"/>
+      <c r="JY41" s="13"/>
+      <c r="JZ41" s="13"/>
+      <c r="KA41" s="13"/>
+      <c r="KB41" s="13"/>
+      <c r="KC41" s="13"/>
+      <c r="KD41" s="13"/>
+      <c r="KE41" s="13"/>
+      <c r="KF41" s="13"/>
+      <c r="KG41" s="13"/>
+      <c r="KH41" s="13"/>
+      <c r="KI41" s="13"/>
+      <c r="KJ41" s="13"/>
+      <c r="KK41" s="13"/>
+      <c r="KL41" s="13"/>
+      <c r="KM41" s="13"/>
+      <c r="KN41" s="13"/>
+      <c r="KO41" s="13"/>
+      <c r="KP41" s="13"/>
+      <c r="KQ41" s="13"/>
+      <c r="KR41" s="13"/>
+      <c r="KS41" s="13"/>
+      <c r="KT41" s="13"/>
+      <c r="KU41" s="13"/>
+      <c r="KV41" s="13"/>
+      <c r="KW41" s="13"/>
+      <c r="KX41" s="13"/>
+      <c r="KY41" s="13"/>
+      <c r="KZ41" s="13"/>
+      <c r="LA41" s="13"/>
+      <c r="LB41" s="13"/>
+      <c r="LC41" s="13"/>
+      <c r="LD41" s="13"/>
+      <c r="LE41" s="13"/>
+      <c r="LF41" s="13"/>
+      <c r="LG41" s="13"/>
+      <c r="LH41" s="13"/>
+      <c r="LI41" s="13"/>
+      <c r="LJ41" s="13"/>
+      <c r="LK41" s="13"/>
+      <c r="LL41" s="13"/>
+      <c r="LM41" s="13"/>
+      <c r="LN41" s="13"/>
+      <c r="LO41" s="13"/>
+      <c r="LP41" s="13"/>
+      <c r="LQ41" s="13"/>
+      <c r="LR41" s="13"/>
+      <c r="LS41" s="13"/>
+      <c r="LT41" s="13"/>
+      <c r="LU41" s="13"/>
+      <c r="LV41" s="13"/>
+      <c r="LW41" s="13"/>
+      <c r="LX41" s="13"/>
+      <c r="LY41" s="13"/>
+      <c r="LZ41" s="13"/>
+      <c r="MA41" s="13"/>
+      <c r="MB41" s="13"/>
+      <c r="MC41" s="13"/>
+      <c r="MD41" s="13"/>
+      <c r="ME41" s="13"/>
+      <c r="MF41" s="13"/>
+      <c r="MG41" s="13"/>
+      <c r="MH41" s="13"/>
+      <c r="MI41" s="13"/>
+      <c r="MJ41" s="13"/>
+      <c r="MK41" s="13"/>
+      <c r="ML41" s="13"/>
+      <c r="MM41" s="13"/>
+      <c r="MN41" s="13"/>
+      <c r="MO41" s="13"/>
+      <c r="MP41" s="13"/>
+      <c r="MQ41" s="13"/>
+      <c r="MR41" s="13"/>
+      <c r="MS41" s="13"/>
+      <c r="MT41" s="13"/>
+      <c r="MU41" s="13"/>
+      <c r="MV41" s="13"/>
+      <c r="MW41" s="13"/>
+      <c r="MX41" s="13"/>
+      <c r="MY41" s="13"/>
+      <c r="MZ41" s="13"/>
+      <c r="NA41" s="13"/>
+      <c r="NB41" s="13"/>
+      <c r="NC41" s="13"/>
+      <c r="ND41" s="13"/>
+      <c r="NE41" s="13"/>
+      <c r="NF41" s="13"/>
+      <c r="NG41" s="13"/>
+      <c r="NH41" s="13"/>
+      <c r="NI41" s="13"/>
+      <c r="NJ41" s="13"/>
+      <c r="NK41" s="13"/>
+      <c r="NL41" s="13"/>
+      <c r="NM41" s="13"/>
+      <c r="NN41" s="13"/>
+      <c r="NO41" s="13"/>
+      <c r="NP41" s="13"/>
+      <c r="NQ41" s="13"/>
+      <c r="NR41" s="13"/>
+      <c r="NS41" s="13"/>
+      <c r="NT41" s="13"/>
+      <c r="NU41" s="13"/>
+      <c r="NV41" s="13"/>
+      <c r="NW41" s="13"/>
+      <c r="NX41" s="13"/>
+      <c r="NY41" s="13"/>
+      <c r="NZ41" s="13"/>
+      <c r="OA41" s="13"/>
+      <c r="OB41" s="13"/>
+      <c r="OC41" s="13"/>
+      <c r="OD41" s="13"/>
+      <c r="OE41" s="13"/>
+      <c r="OF41" s="13"/>
+      <c r="OG41" s="13"/>
+      <c r="OH41" s="13"/>
+      <c r="OI41" s="13"/>
+      <c r="OJ41" s="13"/>
+      <c r="OK41" s="13"/>
+      <c r="OL41" s="13"/>
+      <c r="OM41" s="13"/>
+      <c r="ON41" s="13"/>
+      <c r="OO41" s="13"/>
+      <c r="OP41" s="13"/>
+      <c r="OQ41" s="13"/>
+      <c r="OR41" s="13"/>
+      <c r="OS41" s="13"/>
+      <c r="OT41" s="13"/>
+      <c r="OU41" s="13"/>
+      <c r="OV41" s="13"/>
+      <c r="OW41" s="13"/>
+      <c r="OX41" s="13"/>
+      <c r="OY41" s="13"/>
+      <c r="OZ41" s="13"/>
+      <c r="PA41" s="13"/>
+      <c r="PB41" s="13"/>
+      <c r="PC41" s="13"/>
+      <c r="PD41" s="13"/>
+      <c r="PE41" s="13"/>
+      <c r="PF41" s="13"/>
+      <c r="PG41" s="13"/>
+      <c r="PH41" s="13"/>
+      <c r="PI41" s="13"/>
+      <c r="PJ41" s="13"/>
+      <c r="PK41" s="13"/>
+      <c r="PL41" s="13"/>
+      <c r="PM41" s="13"/>
+      <c r="PN41" s="13"/>
+      <c r="PO41" s="13"/>
+      <c r="PP41" s="13"/>
+      <c r="PQ41" s="13"/>
+      <c r="PR41" s="13"/>
+      <c r="PS41" s="13"/>
+      <c r="PT41" s="13"/>
+      <c r="PU41" s="13"/>
+      <c r="PV41" s="13"/>
+      <c r="PW41" s="13"/>
+      <c r="PX41" s="13"/>
+      <c r="PY41" s="13"/>
+      <c r="PZ41" s="13"/>
+      <c r="QA41" s="13"/>
+      <c r="QB41" s="13"/>
+      <c r="QC41" s="13"/>
+      <c r="QD41" s="13"/>
+      <c r="QE41" s="13"/>
+      <c r="QF41" s="13"/>
+      <c r="QG41" s="13"/>
+      <c r="QH41" s="13"/>
+      <c r="QI41" s="13"/>
+      <c r="QJ41" s="13"/>
+      <c r="QK41" s="13"/>
+      <c r="QL41" s="13"/>
+      <c r="QM41" s="13"/>
+      <c r="QN41" s="13"/>
+      <c r="QO41" s="13"/>
+      <c r="QP41" s="13"/>
+      <c r="QQ41" s="13"/>
+      <c r="QR41" s="13"/>
+      <c r="QS41" s="13"/>
+      <c r="QT41" s="13"/>
+      <c r="QU41" s="13"/>
+      <c r="QV41" s="13"/>
+      <c r="QW41" s="13"/>
+      <c r="QX41" s="13"/>
+      <c r="QY41" s="13"/>
+      <c r="QZ41" s="13"/>
+      <c r="RA41" s="13"/>
+      <c r="RB41" s="13"/>
+      <c r="RC41" s="13"/>
+      <c r="RD41" s="13"/>
+      <c r="RE41" s="13"/>
+      <c r="RF41" s="13"/>
+      <c r="RG41" s="13"/>
+      <c r="RH41" s="13"/>
+      <c r="RI41" s="13"/>
+      <c r="RJ41" s="13"/>
+      <c r="RK41" s="13"/>
+      <c r="RL41" s="13"/>
+      <c r="RM41" s="13"/>
+      <c r="RN41" s="13"/>
+      <c r="RO41" s="13"/>
+      <c r="RP41" s="13"/>
+      <c r="RQ41" s="13"/>
+      <c r="RR41" s="13"/>
+      <c r="RS41" s="13"/>
+      <c r="RT41" s="13"/>
+      <c r="RU41" s="13"/>
+      <c r="RV41" s="13"/>
+      <c r="RW41" s="13"/>
+      <c r="RX41" s="13"/>
+      <c r="RY41" s="13"/>
+      <c r="RZ41" s="13"/>
+      <c r="SA41" s="13"/>
+      <c r="SB41" s="13"/>
+      <c r="SC41" s="13"/>
+      <c r="SD41" s="13"/>
+      <c r="SE41" s="13"/>
+      <c r="SF41" s="13"/>
+      <c r="SG41" s="13"/>
+      <c r="SH41" s="13"/>
+      <c r="SI41" s="13"/>
+      <c r="SJ41" s="13"/>
+      <c r="SK41" s="13"/>
+      <c r="SL41" s="13"/>
+      <c r="SM41" s="13"/>
+      <c r="SN41" s="13"/>
+      <c r="SO41" s="13"/>
+      <c r="SP41" s="13"/>
+      <c r="SQ41" s="13"/>
+      <c r="SR41" s="13"/>
+      <c r="SS41" s="13"/>
+      <c r="ST41" s="13"/>
+      <c r="SU41" s="13"/>
+      <c r="SV41" s="13"/>
+      <c r="SW41" s="13"/>
+      <c r="SX41" s="13"/>
+      <c r="SY41" s="13"/>
+      <c r="SZ41" s="13"/>
+      <c r="TA41" s="13"/>
+      <c r="TB41" s="13"/>
+      <c r="TC41" s="13"/>
+      <c r="TD41" s="13"/>
+      <c r="TE41" s="13"/>
+      <c r="TF41" s="13"/>
+      <c r="TG41" s="13"/>
+      <c r="TH41" s="13"/>
+      <c r="TI41" s="13"/>
+      <c r="TJ41" s="13"/>
+      <c r="TK41" s="13"/>
+      <c r="TL41" s="13"/>
+      <c r="TM41" s="13"/>
+      <c r="TN41" s="13"/>
+      <c r="TO41" s="13"/>
+      <c r="TP41" s="13"/>
+      <c r="TQ41" s="13"/>
+      <c r="TR41" s="13"/>
+      <c r="TS41" s="13"/>
+      <c r="TT41" s="13"/>
+      <c r="TU41" s="13"/>
+      <c r="TV41" s="13"/>
+      <c r="TW41" s="13"/>
+      <c r="TX41" s="13"/>
+      <c r="TY41" s="13"/>
+      <c r="TZ41" s="13"/>
+      <c r="UA41" s="13"/>
+      <c r="UB41" s="13"/>
+      <c r="UC41" s="13"/>
+      <c r="UD41" s="13"/>
+      <c r="UE41" s="13"/>
+      <c r="UF41" s="13"/>
+      <c r="UG41" s="13"/>
+      <c r="UH41" s="13"/>
+      <c r="UI41" s="13"/>
+      <c r="UJ41" s="13"/>
+      <c r="UK41" s="13"/>
+      <c r="UL41" s="13"/>
+      <c r="UM41" s="13"/>
+      <c r="UN41" s="13"/>
+      <c r="UO41" s="13"/>
+      <c r="UP41" s="13"/>
+      <c r="UQ41" s="13"/>
+      <c r="UR41" s="13"/>
+      <c r="US41" s="13"/>
+      <c r="UT41" s="13"/>
+      <c r="UU41" s="13"/>
+      <c r="UV41" s="13"/>
+      <c r="UW41" s="13"/>
+      <c r="UX41" s="13"/>
+      <c r="UY41" s="13"/>
+      <c r="UZ41" s="13"/>
+      <c r="VA41" s="13"/>
+      <c r="VB41" s="13"/>
+      <c r="VC41" s="13"/>
+      <c r="VD41" s="13"/>
+      <c r="VE41" s="13"/>
+      <c r="VF41" s="13"/>
+      <c r="VG41" s="13"/>
+      <c r="VH41" s="13"/>
+      <c r="VI41" s="13"/>
+      <c r="VJ41" s="13"/>
+      <c r="VK41" s="13"/>
+      <c r="VL41" s="13"/>
+      <c r="VM41" s="13"/>
+      <c r="VN41" s="13"/>
+      <c r="VO41" s="13"/>
+      <c r="VP41" s="13"/>
+      <c r="VQ41" s="13"/>
+      <c r="VR41" s="13"/>
+      <c r="VS41" s="13"/>
+      <c r="VT41" s="13"/>
+      <c r="VU41" s="13"/>
+      <c r="VV41" s="13"/>
+      <c r="VW41" s="13"/>
+      <c r="VX41" s="13"/>
+      <c r="VY41" s="13"/>
+      <c r="VZ41" s="13"/>
+      <c r="WA41" s="13"/>
+      <c r="WB41" s="13"/>
+      <c r="WC41" s="13"/>
+      <c r="WD41" s="13"/>
+      <c r="WE41" s="13"/>
+      <c r="WF41" s="13"/>
+      <c r="WG41" s="13"/>
+      <c r="WH41" s="13"/>
+      <c r="WI41" s="13"/>
+      <c r="WJ41" s="13"/>
+      <c r="WK41" s="13"/>
+      <c r="WL41" s="13"/>
+      <c r="WM41" s="13"/>
+      <c r="WN41" s="13"/>
+      <c r="WO41" s="13"/>
+      <c r="WP41" s="13"/>
+      <c r="WQ41" s="13"/>
+      <c r="WR41" s="13"/>
+      <c r="WS41" s="13"/>
+      <c r="WT41" s="13"/>
+      <c r="WU41" s="13"/>
+      <c r="WV41" s="13"/>
+      <c r="WW41" s="13"/>
+      <c r="WX41" s="13"/>
+      <c r="WY41" s="13"/>
+      <c r="WZ41" s="13"/>
+      <c r="XA41" s="13"/>
+      <c r="XB41" s="13"/>
+      <c r="XC41" s="13"/>
+      <c r="XD41" s="13"/>
+      <c r="XE41" s="13"/>
+      <c r="XF41" s="13"/>
+      <c r="XG41" s="13"/>
+      <c r="XH41" s="13"/>
+      <c r="XI41" s="13"/>
+      <c r="XJ41" s="13"/>
+      <c r="XK41" s="13"/>
+      <c r="XL41" s="13"/>
+      <c r="XM41" s="13"/>
+      <c r="XN41" s="13"/>
+      <c r="XO41" s="13"/>
+      <c r="XP41" s="13"/>
+      <c r="XQ41" s="13"/>
+      <c r="XR41" s="13"/>
+      <c r="XS41" s="13"/>
+      <c r="XT41" s="13"/>
+      <c r="XU41" s="13"/>
+      <c r="XV41" s="13"/>
+      <c r="XW41" s="13"/>
+      <c r="XX41" s="13"/>
+      <c r="XY41" s="13"/>
+      <c r="XZ41" s="13"/>
+      <c r="YA41" s="13"/>
+      <c r="YB41" s="13"/>
+      <c r="YC41" s="13"/>
+      <c r="YD41" s="13"/>
+      <c r="YE41" s="13"/>
+      <c r="YF41" s="13"/>
+      <c r="YG41" s="13"/>
+      <c r="YH41" s="13"/>
+      <c r="YI41" s="13"/>
+      <c r="YJ41" s="13"/>
+      <c r="YK41" s="13"/>
+      <c r="YL41" s="13"/>
+      <c r="YM41" s="13"/>
+      <c r="YN41" s="13"/>
+      <c r="YO41" s="13"/>
+      <c r="YP41" s="13"/>
+      <c r="YQ41" s="13"/>
+      <c r="YR41" s="13"/>
+      <c r="YS41" s="13"/>
+      <c r="YT41" s="13"/>
+      <c r="YU41" s="13"/>
+      <c r="YV41" s="13"/>
+      <c r="YW41" s="13"/>
+      <c r="YX41" s="13"/>
+      <c r="YY41" s="13"/>
+      <c r="YZ41" s="13"/>
+      <c r="ZA41" s="13"/>
+      <c r="ZB41" s="13"/>
+      <c r="ZC41" s="13"/>
+      <c r="ZD41" s="13"/>
+      <c r="ZE41" s="13"/>
+      <c r="ZF41" s="13"/>
+      <c r="ZG41" s="13"/>
+      <c r="ZH41" s="13"/>
+      <c r="ZI41" s="13"/>
+      <c r="ZJ41" s="13"/>
+      <c r="ZK41" s="13"/>
+      <c r="ZL41" s="13"/>
+      <c r="ZM41" s="13"/>
+      <c r="ZN41" s="13"/>
+      <c r="ZO41" s="13"/>
+      <c r="ZP41" s="13"/>
+      <c r="ZQ41" s="13"/>
+      <c r="ZR41" s="13"/>
+      <c r="ZS41" s="13"/>
+      <c r="ZT41" s="13"/>
+      <c r="ZU41" s="13"/>
+      <c r="ZV41" s="13"/>
+      <c r="ZW41" s="13"/>
+      <c r="ZX41" s="13"/>
+      <c r="ZY41" s="13"/>
+      <c r="ZZ41" s="13"/>
+      <c r="AAA41" s="13"/>
+      <c r="AAB41" s="13"/>
+      <c r="AAC41" s="13"/>
+      <c r="AAD41" s="13"/>
+      <c r="AAE41" s="13"/>
+      <c r="AAF41" s="13"/>
+      <c r="AAG41" s="13"/>
+      <c r="AAH41" s="13"/>
+      <c r="AAI41" s="13"/>
+      <c r="AAJ41" s="13"/>
+      <c r="AAK41" s="13"/>
+      <c r="AAL41" s="13"/>
+      <c r="AAM41" s="13"/>
+      <c r="AAN41" s="13"/>
+      <c r="AAO41" s="13"/>
+      <c r="AAP41" s="13"/>
+      <c r="AAQ41" s="13"/>
+      <c r="AAR41" s="13"/>
+      <c r="AAS41" s="13"/>
+      <c r="AAT41" s="13"/>
+      <c r="AAU41" s="13"/>
+      <c r="AAV41" s="13"/>
+      <c r="AAW41" s="13"/>
+      <c r="AAX41" s="13"/>
+      <c r="AAY41" s="13"/>
+      <c r="AAZ41" s="13"/>
+      <c r="ABA41" s="13"/>
+      <c r="ABB41" s="13"/>
+      <c r="ABC41" s="13"/>
+      <c r="ABD41" s="13"/>
+      <c r="ABE41" s="13"/>
+      <c r="ABF41" s="13"/>
+      <c r="ABG41" s="13"/>
+      <c r="ABH41" s="13"/>
+      <c r="ABI41" s="13"/>
+      <c r="ABJ41" s="13"/>
+      <c r="ABK41" s="13"/>
+      <c r="ABL41" s="13"/>
+      <c r="ABM41" s="13"/>
+      <c r="ABN41" s="13"/>
+      <c r="ABO41" s="13"/>
+      <c r="ABP41" s="13"/>
+      <c r="ABQ41" s="13"/>
+      <c r="ABR41" s="13"/>
+      <c r="ABS41" s="13"/>
+      <c r="ABT41" s="13"/>
+      <c r="ABU41" s="13"/>
+      <c r="ABV41" s="13"/>
+      <c r="ABW41" s="13"/>
+      <c r="ABX41" s="13"/>
+      <c r="ABY41" s="13"/>
+      <c r="ABZ41" s="13"/>
+      <c r="ACA41" s="13"/>
+      <c r="ACB41" s="13"/>
+      <c r="ACC41" s="13"/>
+      <c r="ACD41" s="13"/>
+      <c r="ACE41" s="13"/>
+      <c r="ACF41" s="13"/>
+      <c r="ACG41" s="13"/>
+      <c r="ACH41" s="13"/>
+      <c r="ACI41" s="13"/>
+      <c r="ACJ41" s="13"/>
+      <c r="ACK41" s="13"/>
+      <c r="ACL41" s="13"/>
+      <c r="ACM41" s="13"/>
+      <c r="ACN41" s="13"/>
+      <c r="ACO41" s="13"/>
+      <c r="ACP41" s="13"/>
+      <c r="ACQ41" s="13"/>
+      <c r="ACR41" s="13"/>
+      <c r="ACS41" s="13"/>
+      <c r="ACT41" s="13"/>
+      <c r="ACU41" s="13"/>
+      <c r="ACV41" s="13"/>
+      <c r="ACW41" s="13"/>
+      <c r="ACX41" s="13"/>
+      <c r="ACY41" s="13"/>
+      <c r="ACZ41" s="13"/>
+      <c r="ADA41" s="13"/>
+      <c r="ADB41" s="13"/>
+      <c r="ADC41" s="13"/>
+      <c r="ADD41" s="13"/>
+      <c r="ADE41" s="13"/>
+      <c r="ADF41" s="13"/>
+      <c r="ADG41" s="13"/>
+      <c r="ADH41" s="13"/>
+      <c r="ADI41" s="13"/>
+      <c r="ADJ41" s="13"/>
+      <c r="ADK41" s="13"/>
+      <c r="ADL41" s="13"/>
+      <c r="ADM41" s="13"/>
+      <c r="ADN41" s="13"/>
+      <c r="ADO41" s="13"/>
+      <c r="ADP41" s="13"/>
+      <c r="ADQ41" s="13"/>
+      <c r="ADR41" s="13"/>
+      <c r="ADS41" s="13"/>
+      <c r="ADT41" s="13"/>
+      <c r="ADU41" s="13"/>
+      <c r="ADV41" s="13"/>
+      <c r="ADW41" s="13"/>
+      <c r="ADX41" s="13"/>
+      <c r="ADY41" s="13"/>
+      <c r="ADZ41" s="13"/>
+      <c r="AEA41" s="13"/>
+      <c r="AEB41" s="13"/>
+      <c r="AEC41" s="13"/>
+      <c r="AED41" s="13"/>
+      <c r="AEE41" s="13"/>
+      <c r="AEF41" s="13"/>
+      <c r="AEG41" s="13"/>
+      <c r="AEH41" s="13"/>
+      <c r="AEI41" s="13"/>
+      <c r="AEJ41" s="13"/>
+      <c r="AEK41" s="13"/>
+      <c r="AEL41" s="13"/>
+      <c r="AEM41" s="13"/>
+      <c r="AEN41" s="13"/>
+      <c r="AEO41" s="13"/>
+      <c r="AEP41" s="13"/>
+      <c r="AEQ41" s="13"/>
+      <c r="AER41" s="13"/>
+      <c r="AES41" s="13"/>
+      <c r="AET41" s="13"/>
+      <c r="AEU41" s="13"/>
+      <c r="AEV41" s="13"/>
+      <c r="AEW41" s="13"/>
+      <c r="AEX41" s="13"/>
+      <c r="AEY41" s="13"/>
+      <c r="AEZ41" s="13"/>
+      <c r="AFA41" s="13"/>
+      <c r="AFB41" s="13"/>
+      <c r="AFC41" s="13"/>
+      <c r="AFD41" s="13"/>
+      <c r="AFE41" s="13"/>
+      <c r="AFF41" s="13"/>
+      <c r="AFG41" s="13"/>
+      <c r="AFH41" s="13"/>
+      <c r="AFI41" s="13"/>
+      <c r="AFJ41" s="13"/>
+      <c r="AFK41" s="13"/>
+      <c r="AFL41" s="13"/>
+      <c r="AFM41" s="13"/>
+      <c r="AFN41" s="13"/>
+      <c r="AFO41" s="13"/>
+      <c r="AFP41" s="13"/>
+      <c r="AFQ41" s="13"/>
+      <c r="AFR41" s="13"/>
+      <c r="AFS41" s="13"/>
+      <c r="AFT41" s="13"/>
+      <c r="AFU41" s="13"/>
+      <c r="AFV41" s="13"/>
+      <c r="AFW41" s="13"/>
+      <c r="AFX41" s="13"/>
+      <c r="AFY41" s="13"/>
+      <c r="AFZ41" s="13"/>
+      <c r="AGA41" s="13"/>
+      <c r="AGB41" s="13"/>
+      <c r="AGC41" s="13"/>
+      <c r="AGD41" s="13"/>
+      <c r="AGE41" s="13"/>
+      <c r="AGF41" s="13"/>
+      <c r="AGG41" s="13"/>
+      <c r="AGH41" s="13"/>
+      <c r="AGI41" s="13"/>
+      <c r="AGJ41" s="13"/>
+      <c r="AGK41" s="13"/>
+      <c r="AGL41" s="13"/>
+      <c r="AGM41" s="13"/>
+      <c r="AGN41" s="13"/>
+      <c r="AGO41" s="13"/>
+      <c r="AGP41" s="13"/>
+      <c r="AGQ41" s="13"/>
+      <c r="AGR41" s="13"/>
+      <c r="AGS41" s="13"/>
+      <c r="AGT41" s="13"/>
+      <c r="AGU41" s="13"/>
+      <c r="AGV41" s="13"/>
+      <c r="AGW41" s="13"/>
+      <c r="AGX41" s="13"/>
+      <c r="AGY41" s="13"/>
+      <c r="AGZ41" s="13"/>
+      <c r="AHA41" s="13"/>
+      <c r="AHB41" s="13"/>
+      <c r="AHC41" s="13"/>
+      <c r="AHD41" s="13"/>
+      <c r="AHE41" s="13"/>
+      <c r="AHF41" s="13"/>
+      <c r="AHG41" s="13"/>
+      <c r="AHH41" s="13"/>
+      <c r="AHI41" s="13"/>
+      <c r="AHJ41" s="13"/>
+      <c r="AHK41" s="13"/>
+      <c r="AHL41" s="13"/>
+      <c r="AHM41" s="13"/>
+      <c r="AHN41" s="13"/>
+      <c r="AHO41" s="13"/>
+      <c r="AHP41" s="13"/>
+      <c r="AHQ41" s="13"/>
+      <c r="AHR41" s="13"/>
+      <c r="AHS41" s="13"/>
+      <c r="AHT41" s="13"/>
+      <c r="AHU41" s="13"/>
+      <c r="AHV41" s="13"/>
+      <c r="AHW41" s="13"/>
+      <c r="AHX41" s="13"/>
+      <c r="AHY41" s="13"/>
+      <c r="AHZ41" s="13"/>
+      <c r="AIA41" s="13"/>
+      <c r="AIB41" s="13"/>
+      <c r="AIC41" s="13"/>
+      <c r="AID41" s="13"/>
+      <c r="AIE41" s="13"/>
+      <c r="AIF41" s="13"/>
+      <c r="AIG41" s="13"/>
+      <c r="AIH41" s="13"/>
+      <c r="AII41" s="13"/>
+      <c r="AIJ41" s="13"/>
+      <c r="AIK41" s="13"/>
+      <c r="AIL41" s="13"/>
+      <c r="AIM41" s="13"/>
+      <c r="AIN41" s="13"/>
+      <c r="AIO41" s="13"/>
+      <c r="AIP41" s="13"/>
+      <c r="AIQ41" s="13"/>
+      <c r="AIR41" s="13"/>
+      <c r="AIS41" s="13"/>
+      <c r="AIT41" s="13"/>
+      <c r="AIU41" s="13"/>
+      <c r="AIV41" s="13"/>
+      <c r="AIW41" s="13"/>
+      <c r="AIX41" s="13"/>
+      <c r="AIY41" s="13"/>
+      <c r="AIZ41" s="13"/>
+      <c r="AJA41" s="13"/>
+      <c r="AJB41" s="13"/>
+      <c r="AJC41" s="13"/>
+      <c r="AJD41" s="13"/>
+      <c r="AJE41" s="13"/>
+      <c r="AJF41" s="13"/>
+      <c r="AJG41" s="13"/>
+      <c r="AJH41" s="13"/>
+      <c r="AJI41" s="13"/>
+      <c r="AJJ41" s="13"/>
+      <c r="AJK41" s="13"/>
+      <c r="AJL41" s="13"/>
+      <c r="AJM41" s="13"/>
+      <c r="AJN41" s="13"/>
+      <c r="AJO41" s="13"/>
+      <c r="AJP41" s="13"/>
+      <c r="AJQ41" s="13"/>
+      <c r="AJR41" s="13"/>
+      <c r="AJS41" s="13"/>
+      <c r="AJT41" s="13"/>
+      <c r="AJU41" s="13"/>
+      <c r="AJV41" s="13"/>
+      <c r="AJW41" s="13"/>
+      <c r="AJX41" s="13"/>
+      <c r="AJY41" s="13"/>
+      <c r="AJZ41" s="13"/>
+      <c r="AKA41" s="13"/>
+      <c r="AKB41" s="13"/>
+      <c r="AKC41" s="13"/>
+      <c r="AKD41" s="13"/>
+      <c r="AKE41" s="13"/>
+      <c r="AKF41" s="13"/>
+      <c r="AKG41" s="13"/>
+      <c r="AKH41" s="13"/>
+      <c r="AKI41" s="13"/>
+      <c r="AKJ41" s="13"/>
+      <c r="AKK41" s="13"/>
+      <c r="AKL41" s="13"/>
+      <c r="AKM41" s="13"/>
+      <c r="AKN41" s="13"/>
+      <c r="AKO41" s="13"/>
+      <c r="AKP41" s="13"/>
+      <c r="AKQ41" s="13"/>
+      <c r="AKR41" s="13"/>
+      <c r="AKS41" s="13"/>
+      <c r="AKT41" s="13"/>
+      <c r="AKU41" s="13"/>
+      <c r="AKV41" s="13"/>
+      <c r="AKW41" s="13"/>
+      <c r="AKX41" s="13"/>
+      <c r="AKY41" s="13"/>
+      <c r="AKZ41" s="13"/>
+      <c r="ALA41" s="13"/>
+      <c r="ALB41" s="13"/>
+      <c r="ALC41" s="13"/>
+      <c r="ALD41" s="13"/>
+      <c r="ALE41" s="13"/>
+      <c r="ALF41" s="13"/>
+      <c r="ALG41" s="13"/>
+      <c r="ALH41" s="13"/>
+      <c r="ALI41" s="13"/>
+      <c r="ALJ41" s="13"/>
+      <c r="ALK41" s="13"/>
+      <c r="ALL41" s="13"/>
+      <c r="ALM41" s="13"/>
+      <c r="ALN41" s="13"/>
+      <c r="ALO41" s="13"/>
+      <c r="ALP41" s="13"/>
+      <c r="ALQ41" s="13"/>
+      <c r="ALR41" s="13"/>
+      <c r="ALS41" s="13"/>
+      <c r="ALT41" s="13"/>
+      <c r="ALU41" s="13"/>
+      <c r="ALV41" s="13"/>
+      <c r="ALW41" s="13"/>
+      <c r="ALX41" s="13"/>
+      <c r="ALY41" s="13"/>
+      <c r="ALZ41" s="13"/>
+      <c r="AMA41" s="13"/>
+      <c r="AMB41" s="13"/>
+      <c r="AMC41" s="13"/>
+      <c r="AMD41" s="13"/>
+      <c r="AME41" s="13"/>
+      <c r="AMF41" s="13"/>
+      <c r="AMG41" s="13"/>
+      <c r="AMH41" s="13"/>
+      <c r="AMI41" s="13"/>
+      <c r="AMJ41" s="13"/>
+      <c r="AMK41" s="13"/>
+      <c r="AML41"/>
+      <c r="AMM41"/>
     </row>
     <row r="42" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
@@ -13264,72 +14295,72 @@
     <row r="49" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
-      <c r="AR49" s="13"/>
-      <c r="AS49" s="13"/>
-      <c r="AT49" s="13"/>
-      <c r="AU49" s="13"/>
-      <c r="AV49" s="13"/>
-      <c r="AW49" s="13"/>
-      <c r="AX49" s="13"/>
-      <c r="AY49" s="13"/>
-      <c r="AZ49" s="13"/>
-      <c r="BA49" s="13"/>
-      <c r="BB49" s="13"/>
-      <c r="BC49" s="13"/>
-      <c r="BD49" s="13"/>
-      <c r="BE49" s="13"/>
-      <c r="BF49" s="13"/>
-      <c r="BG49" s="13"/>
-      <c r="BH49" s="13"/>
-      <c r="BI49" s="13"/>
-      <c r="BJ49" s="13"/>
-      <c r="BK49" s="13"/>
-      <c r="BL49" s="13"/>
-      <c r="BM49" s="13"/>
-      <c r="BN49" s="13"/>
-      <c r="BO49" s="13"/>
-      <c r="BP49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="32"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="32"/>
+      <c r="AP49" s="32"/>
+      <c r="AQ49" s="32"/>
+      <c r="AR49" s="32"/>
+      <c r="AS49" s="32"/>
+      <c r="AT49" s="32"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="32"/>
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="32"/>
+      <c r="BA49" s="32"/>
+      <c r="BB49" s="32"/>
+      <c r="BC49" s="32"/>
+      <c r="BD49" s="32"/>
+      <c r="BE49" s="32"/>
+      <c r="BF49" s="32"/>
+      <c r="BG49" s="32"/>
+      <c r="BH49" s="32"/>
+      <c r="BI49" s="32"/>
+      <c r="BJ49" s="32"/>
+      <c r="BK49" s="32"/>
+      <c r="BL49" s="32"/>
+      <c r="BM49" s="32"/>
+      <c r="BN49" s="32"/>
+      <c r="BO49" s="32"/>
+      <c r="BP49" s="34"/>
       <c r="BR49" s="13"/>
       <c r="BS49" s="13"/>
       <c r="BT49" s="13"/>
@@ -14289,1036 +15320,39 @@
       <c r="AML49"/>
       <c r="AMM49"/>
     </row>
-    <row r="50" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="32"/>
-      <c r="AL50" s="32"/>
-      <c r="AM50" s="32"/>
-      <c r="AN50" s="32"/>
-      <c r="AO50" s="32"/>
-      <c r="AP50" s="32"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="32"/>
-      <c r="AS50" s="32"/>
-      <c r="AT50" s="32"/>
-      <c r="AU50" s="32"/>
-      <c r="AV50" s="32"/>
-      <c r="AW50" s="32"/>
-      <c r="AX50" s="32"/>
-      <c r="AY50" s="32"/>
-      <c r="AZ50" s="32"/>
-      <c r="BA50" s="32"/>
-      <c r="BB50" s="32"/>
-      <c r="BC50" s="32"/>
-      <c r="BD50" s="32"/>
-      <c r="BE50" s="32"/>
-      <c r="BF50" s="32"/>
-      <c r="BG50" s="32"/>
-      <c r="BH50" s="32"/>
-      <c r="BI50" s="32"/>
-      <c r="BJ50" s="32"/>
-      <c r="BK50" s="32"/>
-      <c r="BL50" s="32"/>
-      <c r="BM50" s="32"/>
-      <c r="BN50" s="32"/>
-      <c r="BO50" s="32"/>
-      <c r="BP50" s="34"/>
-      <c r="BR50" s="13"/>
-      <c r="BS50" s="13"/>
-      <c r="BT50" s="13"/>
-      <c r="BU50" s="13"/>
-      <c r="BV50" s="13"/>
-      <c r="BW50" s="13"/>
-      <c r="BX50" s="13"/>
-      <c r="BY50" s="13"/>
-      <c r="BZ50" s="13"/>
-      <c r="CA50" s="13"/>
-      <c r="CB50" s="13"/>
-      <c r="CC50" s="13"/>
-      <c r="CD50" s="13"/>
-      <c r="CE50" s="13"/>
-      <c r="CF50" s="13"/>
-      <c r="CG50" s="13"/>
-      <c r="CH50" s="13"/>
-      <c r="CI50" s="13"/>
-      <c r="CJ50" s="13"/>
-      <c r="CK50" s="13"/>
-      <c r="CL50" s="13"/>
-      <c r="CM50" s="13"/>
-      <c r="CN50" s="13"/>
-      <c r="CO50" s="13"/>
-      <c r="CP50" s="13"/>
-      <c r="CQ50" s="13"/>
-      <c r="CR50" s="13"/>
-      <c r="CS50" s="13"/>
-      <c r="CT50" s="13"/>
-      <c r="CU50" s="13"/>
-      <c r="CV50" s="13"/>
-      <c r="CW50" s="13"/>
-      <c r="CX50" s="13"/>
-      <c r="CY50" s="13"/>
-      <c r="CZ50" s="13"/>
-      <c r="DA50" s="13"/>
-      <c r="DB50" s="13"/>
-      <c r="DC50" s="13"/>
-      <c r="DD50" s="13"/>
-      <c r="DE50" s="13"/>
-      <c r="DF50" s="13"/>
-      <c r="DG50" s="13"/>
-      <c r="DH50" s="13"/>
-      <c r="DI50" s="13"/>
-      <c r="DJ50" s="13"/>
-      <c r="DK50" s="13"/>
-      <c r="DL50" s="13"/>
-      <c r="DM50" s="13"/>
-      <c r="DN50" s="13"/>
-      <c r="DO50" s="13"/>
-      <c r="DP50" s="13"/>
-      <c r="DQ50" s="13"/>
-      <c r="DR50" s="13"/>
-      <c r="DS50" s="13"/>
-      <c r="DT50" s="13"/>
-      <c r="DU50" s="13"/>
-      <c r="DV50" s="13"/>
-      <c r="DW50" s="13"/>
-      <c r="DX50" s="13"/>
-      <c r="DY50" s="13"/>
-      <c r="DZ50" s="13"/>
-      <c r="EA50" s="13"/>
-      <c r="EB50" s="13"/>
-      <c r="EC50" s="13"/>
-      <c r="ED50" s="13"/>
-      <c r="EE50" s="13"/>
-      <c r="EF50" s="13"/>
-      <c r="EG50" s="13"/>
-      <c r="EH50" s="13"/>
-      <c r="EI50" s="13"/>
-      <c r="EJ50" s="13"/>
-      <c r="EK50" s="13"/>
-      <c r="EL50" s="13"/>
-      <c r="EM50" s="13"/>
-      <c r="EN50" s="13"/>
-      <c r="EO50" s="13"/>
-      <c r="EP50" s="13"/>
-      <c r="EQ50" s="13"/>
-      <c r="ER50" s="13"/>
-      <c r="ES50" s="13"/>
-      <c r="ET50" s="13"/>
-      <c r="EU50" s="13"/>
-      <c r="EV50" s="13"/>
-      <c r="EW50" s="13"/>
-      <c r="EX50" s="13"/>
-      <c r="EY50" s="13"/>
-      <c r="EZ50" s="13"/>
-      <c r="FA50" s="13"/>
-      <c r="FB50" s="13"/>
-      <c r="FC50" s="13"/>
-      <c r="FD50" s="13"/>
-      <c r="FE50" s="13"/>
-      <c r="FF50" s="13"/>
-      <c r="FG50" s="13"/>
-      <c r="FH50" s="13"/>
-      <c r="FI50" s="13"/>
-      <c r="FJ50" s="13"/>
-      <c r="FK50" s="13"/>
-      <c r="FL50" s="13"/>
-      <c r="FM50" s="13"/>
-      <c r="FN50" s="13"/>
-      <c r="FO50" s="13"/>
-      <c r="FP50" s="13"/>
-      <c r="FQ50" s="13"/>
-      <c r="FR50" s="13"/>
-      <c r="FS50" s="13"/>
-      <c r="FT50" s="13"/>
-      <c r="FU50" s="13"/>
-      <c r="FV50" s="13"/>
-      <c r="FW50" s="13"/>
-      <c r="FX50" s="13"/>
-      <c r="FY50" s="13"/>
-      <c r="FZ50" s="13"/>
-      <c r="GA50" s="13"/>
-      <c r="GB50" s="13"/>
-      <c r="GC50" s="13"/>
-      <c r="GD50" s="13"/>
-      <c r="GE50" s="13"/>
-      <c r="GF50" s="13"/>
-      <c r="GG50" s="13"/>
-      <c r="GH50" s="13"/>
-      <c r="GI50" s="13"/>
-      <c r="GJ50" s="13"/>
-      <c r="GK50" s="13"/>
-      <c r="GL50" s="13"/>
-      <c r="GM50" s="13"/>
-      <c r="GN50" s="13"/>
-      <c r="GO50" s="13"/>
-      <c r="GP50" s="13"/>
-      <c r="GQ50" s="13"/>
-      <c r="GR50" s="13"/>
-      <c r="GS50" s="13"/>
-      <c r="GT50" s="13"/>
-      <c r="GU50" s="13"/>
-      <c r="GV50" s="13"/>
-      <c r="GW50" s="13"/>
-      <c r="GX50" s="13"/>
-      <c r="GY50" s="13"/>
-      <c r="GZ50" s="13"/>
-      <c r="HA50" s="13"/>
-      <c r="HB50" s="13"/>
-      <c r="HC50" s="13"/>
-      <c r="HD50" s="13"/>
-      <c r="HE50" s="13"/>
-      <c r="HF50" s="13"/>
-      <c r="HG50" s="13"/>
-      <c r="HH50" s="13"/>
-      <c r="HI50" s="13"/>
-      <c r="HJ50" s="13"/>
-      <c r="HK50" s="13"/>
-      <c r="HL50" s="13"/>
-      <c r="HM50" s="13"/>
-      <c r="HN50" s="13"/>
-      <c r="HO50" s="13"/>
-      <c r="HP50" s="13"/>
-      <c r="HQ50" s="13"/>
-      <c r="HR50" s="13"/>
-      <c r="HS50" s="13"/>
-      <c r="HT50" s="13"/>
-      <c r="HU50" s="13"/>
-      <c r="HV50" s="13"/>
-      <c r="HW50" s="13"/>
-      <c r="HX50" s="13"/>
-      <c r="HY50" s="13"/>
-      <c r="HZ50" s="13"/>
-      <c r="IA50" s="13"/>
-      <c r="IB50" s="13"/>
-      <c r="IC50" s="13"/>
-      <c r="ID50" s="13"/>
-      <c r="IE50" s="13"/>
-      <c r="IF50" s="13"/>
-      <c r="IG50" s="13"/>
-      <c r="IH50" s="13"/>
-      <c r="II50" s="13"/>
-      <c r="IJ50" s="13"/>
-      <c r="IK50" s="13"/>
-      <c r="IL50" s="13"/>
-      <c r="IM50" s="13"/>
-      <c r="IN50" s="13"/>
-      <c r="IO50" s="13"/>
-      <c r="IP50" s="13"/>
-      <c r="IQ50" s="13"/>
-      <c r="IR50" s="13"/>
-      <c r="IS50" s="13"/>
-      <c r="IT50" s="13"/>
-      <c r="IU50" s="13"/>
-      <c r="IV50" s="13"/>
-      <c r="IW50" s="13"/>
-      <c r="IX50" s="13"/>
-      <c r="IY50" s="13"/>
-      <c r="IZ50" s="13"/>
-      <c r="JA50" s="13"/>
-      <c r="JB50" s="13"/>
-      <c r="JC50" s="13"/>
-      <c r="JD50" s="13"/>
-      <c r="JE50" s="13"/>
-      <c r="JF50" s="13"/>
-      <c r="JG50" s="13"/>
-      <c r="JH50" s="13"/>
-      <c r="JI50" s="13"/>
-      <c r="JJ50" s="13"/>
-      <c r="JK50" s="13"/>
-      <c r="JL50" s="13"/>
-      <c r="JM50" s="13"/>
-      <c r="JN50" s="13"/>
-      <c r="JO50" s="13"/>
-      <c r="JP50" s="13"/>
-      <c r="JQ50" s="13"/>
-      <c r="JR50" s="13"/>
-      <c r="JS50" s="13"/>
-      <c r="JT50" s="13"/>
-      <c r="JU50" s="13"/>
-      <c r="JV50" s="13"/>
-      <c r="JW50" s="13"/>
-      <c r="JX50" s="13"/>
-      <c r="JY50" s="13"/>
-      <c r="JZ50" s="13"/>
-      <c r="KA50" s="13"/>
-      <c r="KB50" s="13"/>
-      <c r="KC50" s="13"/>
-      <c r="KD50" s="13"/>
-      <c r="KE50" s="13"/>
-      <c r="KF50" s="13"/>
-      <c r="KG50" s="13"/>
-      <c r="KH50" s="13"/>
-      <c r="KI50" s="13"/>
-      <c r="KJ50" s="13"/>
-      <c r="KK50" s="13"/>
-      <c r="KL50" s="13"/>
-      <c r="KM50" s="13"/>
-      <c r="KN50" s="13"/>
-      <c r="KO50" s="13"/>
-      <c r="KP50" s="13"/>
-      <c r="KQ50" s="13"/>
-      <c r="KR50" s="13"/>
-      <c r="KS50" s="13"/>
-      <c r="KT50" s="13"/>
-      <c r="KU50" s="13"/>
-      <c r="KV50" s="13"/>
-      <c r="KW50" s="13"/>
-      <c r="KX50" s="13"/>
-      <c r="KY50" s="13"/>
-      <c r="KZ50" s="13"/>
-      <c r="LA50" s="13"/>
-      <c r="LB50" s="13"/>
-      <c r="LC50" s="13"/>
-      <c r="LD50" s="13"/>
-      <c r="LE50" s="13"/>
-      <c r="LF50" s="13"/>
-      <c r="LG50" s="13"/>
-      <c r="LH50" s="13"/>
-      <c r="LI50" s="13"/>
-      <c r="LJ50" s="13"/>
-      <c r="LK50" s="13"/>
-      <c r="LL50" s="13"/>
-      <c r="LM50" s="13"/>
-      <c r="LN50" s="13"/>
-      <c r="LO50" s="13"/>
-      <c r="LP50" s="13"/>
-      <c r="LQ50" s="13"/>
-      <c r="LR50" s="13"/>
-      <c r="LS50" s="13"/>
-      <c r="LT50" s="13"/>
-      <c r="LU50" s="13"/>
-      <c r="LV50" s="13"/>
-      <c r="LW50" s="13"/>
-      <c r="LX50" s="13"/>
-      <c r="LY50" s="13"/>
-      <c r="LZ50" s="13"/>
-      <c r="MA50" s="13"/>
-      <c r="MB50" s="13"/>
-      <c r="MC50" s="13"/>
-      <c r="MD50" s="13"/>
-      <c r="ME50" s="13"/>
-      <c r="MF50" s="13"/>
-      <c r="MG50" s="13"/>
-      <c r="MH50" s="13"/>
-      <c r="MI50" s="13"/>
-      <c r="MJ50" s="13"/>
-      <c r="MK50" s="13"/>
-      <c r="ML50" s="13"/>
-      <c r="MM50" s="13"/>
-      <c r="MN50" s="13"/>
-      <c r="MO50" s="13"/>
-      <c r="MP50" s="13"/>
-      <c r="MQ50" s="13"/>
-      <c r="MR50" s="13"/>
-      <c r="MS50" s="13"/>
-      <c r="MT50" s="13"/>
-      <c r="MU50" s="13"/>
-      <c r="MV50" s="13"/>
-      <c r="MW50" s="13"/>
-      <c r="MX50" s="13"/>
-      <c r="MY50" s="13"/>
-      <c r="MZ50" s="13"/>
-      <c r="NA50" s="13"/>
-      <c r="NB50" s="13"/>
-      <c r="NC50" s="13"/>
-      <c r="ND50" s="13"/>
-      <c r="NE50" s="13"/>
-      <c r="NF50" s="13"/>
-      <c r="NG50" s="13"/>
-      <c r="NH50" s="13"/>
-      <c r="NI50" s="13"/>
-      <c r="NJ50" s="13"/>
-      <c r="NK50" s="13"/>
-      <c r="NL50" s="13"/>
-      <c r="NM50" s="13"/>
-      <c r="NN50" s="13"/>
-      <c r="NO50" s="13"/>
-      <c r="NP50" s="13"/>
-      <c r="NQ50" s="13"/>
-      <c r="NR50" s="13"/>
-      <c r="NS50" s="13"/>
-      <c r="NT50" s="13"/>
-      <c r="NU50" s="13"/>
-      <c r="NV50" s="13"/>
-      <c r="NW50" s="13"/>
-      <c r="NX50" s="13"/>
-      <c r="NY50" s="13"/>
-      <c r="NZ50" s="13"/>
-      <c r="OA50" s="13"/>
-      <c r="OB50" s="13"/>
-      <c r="OC50" s="13"/>
-      <c r="OD50" s="13"/>
-      <c r="OE50" s="13"/>
-      <c r="OF50" s="13"/>
-      <c r="OG50" s="13"/>
-      <c r="OH50" s="13"/>
-      <c r="OI50" s="13"/>
-      <c r="OJ50" s="13"/>
-      <c r="OK50" s="13"/>
-      <c r="OL50" s="13"/>
-      <c r="OM50" s="13"/>
-      <c r="ON50" s="13"/>
-      <c r="OO50" s="13"/>
-      <c r="OP50" s="13"/>
-      <c r="OQ50" s="13"/>
-      <c r="OR50" s="13"/>
-      <c r="OS50" s="13"/>
-      <c r="OT50" s="13"/>
-      <c r="OU50" s="13"/>
-      <c r="OV50" s="13"/>
-      <c r="OW50" s="13"/>
-      <c r="OX50" s="13"/>
-      <c r="OY50" s="13"/>
-      <c r="OZ50" s="13"/>
-      <c r="PA50" s="13"/>
-      <c r="PB50" s="13"/>
-      <c r="PC50" s="13"/>
-      <c r="PD50" s="13"/>
-      <c r="PE50" s="13"/>
-      <c r="PF50" s="13"/>
-      <c r="PG50" s="13"/>
-      <c r="PH50" s="13"/>
-      <c r="PI50" s="13"/>
-      <c r="PJ50" s="13"/>
-      <c r="PK50" s="13"/>
-      <c r="PL50" s="13"/>
-      <c r="PM50" s="13"/>
-      <c r="PN50" s="13"/>
-      <c r="PO50" s="13"/>
-      <c r="PP50" s="13"/>
-      <c r="PQ50" s="13"/>
-      <c r="PR50" s="13"/>
-      <c r="PS50" s="13"/>
-      <c r="PT50" s="13"/>
-      <c r="PU50" s="13"/>
-      <c r="PV50" s="13"/>
-      <c r="PW50" s="13"/>
-      <c r="PX50" s="13"/>
-      <c r="PY50" s="13"/>
-      <c r="PZ50" s="13"/>
-      <c r="QA50" s="13"/>
-      <c r="QB50" s="13"/>
-      <c r="QC50" s="13"/>
-      <c r="QD50" s="13"/>
-      <c r="QE50" s="13"/>
-      <c r="QF50" s="13"/>
-      <c r="QG50" s="13"/>
-      <c r="QH50" s="13"/>
-      <c r="QI50" s="13"/>
-      <c r="QJ50" s="13"/>
-      <c r="QK50" s="13"/>
-      <c r="QL50" s="13"/>
-      <c r="QM50" s="13"/>
-      <c r="QN50" s="13"/>
-      <c r="QO50" s="13"/>
-      <c r="QP50" s="13"/>
-      <c r="QQ50" s="13"/>
-      <c r="QR50" s="13"/>
-      <c r="QS50" s="13"/>
-      <c r="QT50" s="13"/>
-      <c r="QU50" s="13"/>
-      <c r="QV50" s="13"/>
-      <c r="QW50" s="13"/>
-      <c r="QX50" s="13"/>
-      <c r="QY50" s="13"/>
-      <c r="QZ50" s="13"/>
-      <c r="RA50" s="13"/>
-      <c r="RB50" s="13"/>
-      <c r="RC50" s="13"/>
-      <c r="RD50" s="13"/>
-      <c r="RE50" s="13"/>
-      <c r="RF50" s="13"/>
-      <c r="RG50" s="13"/>
-      <c r="RH50" s="13"/>
-      <c r="RI50" s="13"/>
-      <c r="RJ50" s="13"/>
-      <c r="RK50" s="13"/>
-      <c r="RL50" s="13"/>
-      <c r="RM50" s="13"/>
-      <c r="RN50" s="13"/>
-      <c r="RO50" s="13"/>
-      <c r="RP50" s="13"/>
-      <c r="RQ50" s="13"/>
-      <c r="RR50" s="13"/>
-      <c r="RS50" s="13"/>
-      <c r="RT50" s="13"/>
-      <c r="RU50" s="13"/>
-      <c r="RV50" s="13"/>
-      <c r="RW50" s="13"/>
-      <c r="RX50" s="13"/>
-      <c r="RY50" s="13"/>
-      <c r="RZ50" s="13"/>
-      <c r="SA50" s="13"/>
-      <c r="SB50" s="13"/>
-      <c r="SC50" s="13"/>
-      <c r="SD50" s="13"/>
-      <c r="SE50" s="13"/>
-      <c r="SF50" s="13"/>
-      <c r="SG50" s="13"/>
-      <c r="SH50" s="13"/>
-      <c r="SI50" s="13"/>
-      <c r="SJ50" s="13"/>
-      <c r="SK50" s="13"/>
-      <c r="SL50" s="13"/>
-      <c r="SM50" s="13"/>
-      <c r="SN50" s="13"/>
-      <c r="SO50" s="13"/>
-      <c r="SP50" s="13"/>
-      <c r="SQ50" s="13"/>
-      <c r="SR50" s="13"/>
-      <c r="SS50" s="13"/>
-      <c r="ST50" s="13"/>
-      <c r="SU50" s="13"/>
-      <c r="SV50" s="13"/>
-      <c r="SW50" s="13"/>
-      <c r="SX50" s="13"/>
-      <c r="SY50" s="13"/>
-      <c r="SZ50" s="13"/>
-      <c r="TA50" s="13"/>
-      <c r="TB50" s="13"/>
-      <c r="TC50" s="13"/>
-      <c r="TD50" s="13"/>
-      <c r="TE50" s="13"/>
-      <c r="TF50" s="13"/>
-      <c r="TG50" s="13"/>
-      <c r="TH50" s="13"/>
-      <c r="TI50" s="13"/>
-      <c r="TJ50" s="13"/>
-      <c r="TK50" s="13"/>
-      <c r="TL50" s="13"/>
-      <c r="TM50" s="13"/>
-      <c r="TN50" s="13"/>
-      <c r="TO50" s="13"/>
-      <c r="TP50" s="13"/>
-      <c r="TQ50" s="13"/>
-      <c r="TR50" s="13"/>
-      <c r="TS50" s="13"/>
-      <c r="TT50" s="13"/>
-      <c r="TU50" s="13"/>
-      <c r="TV50" s="13"/>
-      <c r="TW50" s="13"/>
-      <c r="TX50" s="13"/>
-      <c r="TY50" s="13"/>
-      <c r="TZ50" s="13"/>
-      <c r="UA50" s="13"/>
-      <c r="UB50" s="13"/>
-      <c r="UC50" s="13"/>
-      <c r="UD50" s="13"/>
-      <c r="UE50" s="13"/>
-      <c r="UF50" s="13"/>
-      <c r="UG50" s="13"/>
-      <c r="UH50" s="13"/>
-      <c r="UI50" s="13"/>
-      <c r="UJ50" s="13"/>
-      <c r="UK50" s="13"/>
-      <c r="UL50" s="13"/>
-      <c r="UM50" s="13"/>
-      <c r="UN50" s="13"/>
-      <c r="UO50" s="13"/>
-      <c r="UP50" s="13"/>
-      <c r="UQ50" s="13"/>
-      <c r="UR50" s="13"/>
-      <c r="US50" s="13"/>
-      <c r="UT50" s="13"/>
-      <c r="UU50" s="13"/>
-      <c r="UV50" s="13"/>
-      <c r="UW50" s="13"/>
-      <c r="UX50" s="13"/>
-      <c r="UY50" s="13"/>
-      <c r="UZ50" s="13"/>
-      <c r="VA50" s="13"/>
-      <c r="VB50" s="13"/>
-      <c r="VC50" s="13"/>
-      <c r="VD50" s="13"/>
-      <c r="VE50" s="13"/>
-      <c r="VF50" s="13"/>
-      <c r="VG50" s="13"/>
-      <c r="VH50" s="13"/>
-      <c r="VI50" s="13"/>
-      <c r="VJ50" s="13"/>
-      <c r="VK50" s="13"/>
-      <c r="VL50" s="13"/>
-      <c r="VM50" s="13"/>
-      <c r="VN50" s="13"/>
-      <c r="VO50" s="13"/>
-      <c r="VP50" s="13"/>
-      <c r="VQ50" s="13"/>
-      <c r="VR50" s="13"/>
-      <c r="VS50" s="13"/>
-      <c r="VT50" s="13"/>
-      <c r="VU50" s="13"/>
-      <c r="VV50" s="13"/>
-      <c r="VW50" s="13"/>
-      <c r="VX50" s="13"/>
-      <c r="VY50" s="13"/>
-      <c r="VZ50" s="13"/>
-      <c r="WA50" s="13"/>
-      <c r="WB50" s="13"/>
-      <c r="WC50" s="13"/>
-      <c r="WD50" s="13"/>
-      <c r="WE50" s="13"/>
-      <c r="WF50" s="13"/>
-      <c r="WG50" s="13"/>
-      <c r="WH50" s="13"/>
-      <c r="WI50" s="13"/>
-      <c r="WJ50" s="13"/>
-      <c r="WK50" s="13"/>
-      <c r="WL50" s="13"/>
-      <c r="WM50" s="13"/>
-      <c r="WN50" s="13"/>
-      <c r="WO50" s="13"/>
-      <c r="WP50" s="13"/>
-      <c r="WQ50" s="13"/>
-      <c r="WR50" s="13"/>
-      <c r="WS50" s="13"/>
-      <c r="WT50" s="13"/>
-      <c r="WU50" s="13"/>
-      <c r="WV50" s="13"/>
-      <c r="WW50" s="13"/>
-      <c r="WX50" s="13"/>
-      <c r="WY50" s="13"/>
-      <c r="WZ50" s="13"/>
-      <c r="XA50" s="13"/>
-      <c r="XB50" s="13"/>
-      <c r="XC50" s="13"/>
-      <c r="XD50" s="13"/>
-      <c r="XE50" s="13"/>
-      <c r="XF50" s="13"/>
-      <c r="XG50" s="13"/>
-      <c r="XH50" s="13"/>
-      <c r="XI50" s="13"/>
-      <c r="XJ50" s="13"/>
-      <c r="XK50" s="13"/>
-      <c r="XL50" s="13"/>
-      <c r="XM50" s="13"/>
-      <c r="XN50" s="13"/>
-      <c r="XO50" s="13"/>
-      <c r="XP50" s="13"/>
-      <c r="XQ50" s="13"/>
-      <c r="XR50" s="13"/>
-      <c r="XS50" s="13"/>
-      <c r="XT50" s="13"/>
-      <c r="XU50" s="13"/>
-      <c r="XV50" s="13"/>
-      <c r="XW50" s="13"/>
-      <c r="XX50" s="13"/>
-      <c r="XY50" s="13"/>
-      <c r="XZ50" s="13"/>
-      <c r="YA50" s="13"/>
-      <c r="YB50" s="13"/>
-      <c r="YC50" s="13"/>
-      <c r="YD50" s="13"/>
-      <c r="YE50" s="13"/>
-      <c r="YF50" s="13"/>
-      <c r="YG50" s="13"/>
-      <c r="YH50" s="13"/>
-      <c r="YI50" s="13"/>
-      <c r="YJ50" s="13"/>
-      <c r="YK50" s="13"/>
-      <c r="YL50" s="13"/>
-      <c r="YM50" s="13"/>
-      <c r="YN50" s="13"/>
-      <c r="YO50" s="13"/>
-      <c r="YP50" s="13"/>
-      <c r="YQ50" s="13"/>
-      <c r="YR50" s="13"/>
-      <c r="YS50" s="13"/>
-      <c r="YT50" s="13"/>
-      <c r="YU50" s="13"/>
-      <c r="YV50" s="13"/>
-      <c r="YW50" s="13"/>
-      <c r="YX50" s="13"/>
-      <c r="YY50" s="13"/>
-      <c r="YZ50" s="13"/>
-      <c r="ZA50" s="13"/>
-      <c r="ZB50" s="13"/>
-      <c r="ZC50" s="13"/>
-      <c r="ZD50" s="13"/>
-      <c r="ZE50" s="13"/>
-      <c r="ZF50" s="13"/>
-      <c r="ZG50" s="13"/>
-      <c r="ZH50" s="13"/>
-      <c r="ZI50" s="13"/>
-      <c r="ZJ50" s="13"/>
-      <c r="ZK50" s="13"/>
-      <c r="ZL50" s="13"/>
-      <c r="ZM50" s="13"/>
-      <c r="ZN50" s="13"/>
-      <c r="ZO50" s="13"/>
-      <c r="ZP50" s="13"/>
-      <c r="ZQ50" s="13"/>
-      <c r="ZR50" s="13"/>
-      <c r="ZS50" s="13"/>
-      <c r="ZT50" s="13"/>
-      <c r="ZU50" s="13"/>
-      <c r="ZV50" s="13"/>
-      <c r="ZW50" s="13"/>
-      <c r="ZX50" s="13"/>
-      <c r="ZY50" s="13"/>
-      <c r="ZZ50" s="13"/>
-      <c r="AAA50" s="13"/>
-      <c r="AAB50" s="13"/>
-      <c r="AAC50" s="13"/>
-      <c r="AAD50" s="13"/>
-      <c r="AAE50" s="13"/>
-      <c r="AAF50" s="13"/>
-      <c r="AAG50" s="13"/>
-      <c r="AAH50" s="13"/>
-      <c r="AAI50" s="13"/>
-      <c r="AAJ50" s="13"/>
-      <c r="AAK50" s="13"/>
-      <c r="AAL50" s="13"/>
-      <c r="AAM50" s="13"/>
-      <c r="AAN50" s="13"/>
-      <c r="AAO50" s="13"/>
-      <c r="AAP50" s="13"/>
-      <c r="AAQ50" s="13"/>
-      <c r="AAR50" s="13"/>
-      <c r="AAS50" s="13"/>
-      <c r="AAT50" s="13"/>
-      <c r="AAU50" s="13"/>
-      <c r="AAV50" s="13"/>
-      <c r="AAW50" s="13"/>
-      <c r="AAX50" s="13"/>
-      <c r="AAY50" s="13"/>
-      <c r="AAZ50" s="13"/>
-      <c r="ABA50" s="13"/>
-      <c r="ABB50" s="13"/>
-      <c r="ABC50" s="13"/>
-      <c r="ABD50" s="13"/>
-      <c r="ABE50" s="13"/>
-      <c r="ABF50" s="13"/>
-      <c r="ABG50" s="13"/>
-      <c r="ABH50" s="13"/>
-      <c r="ABI50" s="13"/>
-      <c r="ABJ50" s="13"/>
-      <c r="ABK50" s="13"/>
-      <c r="ABL50" s="13"/>
-      <c r="ABM50" s="13"/>
-      <c r="ABN50" s="13"/>
-      <c r="ABO50" s="13"/>
-      <c r="ABP50" s="13"/>
-      <c r="ABQ50" s="13"/>
-      <c r="ABR50" s="13"/>
-      <c r="ABS50" s="13"/>
-      <c r="ABT50" s="13"/>
-      <c r="ABU50" s="13"/>
-      <c r="ABV50" s="13"/>
-      <c r="ABW50" s="13"/>
-      <c r="ABX50" s="13"/>
-      <c r="ABY50" s="13"/>
-      <c r="ABZ50" s="13"/>
-      <c r="ACA50" s="13"/>
-      <c r="ACB50" s="13"/>
-      <c r="ACC50" s="13"/>
-      <c r="ACD50" s="13"/>
-      <c r="ACE50" s="13"/>
-      <c r="ACF50" s="13"/>
-      <c r="ACG50" s="13"/>
-      <c r="ACH50" s="13"/>
-      <c r="ACI50" s="13"/>
-      <c r="ACJ50" s="13"/>
-      <c r="ACK50" s="13"/>
-      <c r="ACL50" s="13"/>
-      <c r="ACM50" s="13"/>
-      <c r="ACN50" s="13"/>
-      <c r="ACO50" s="13"/>
-      <c r="ACP50" s="13"/>
-      <c r="ACQ50" s="13"/>
-      <c r="ACR50" s="13"/>
-      <c r="ACS50" s="13"/>
-      <c r="ACT50" s="13"/>
-      <c r="ACU50" s="13"/>
-      <c r="ACV50" s="13"/>
-      <c r="ACW50" s="13"/>
-      <c r="ACX50" s="13"/>
-      <c r="ACY50" s="13"/>
-      <c r="ACZ50" s="13"/>
-      <c r="ADA50" s="13"/>
-      <c r="ADB50" s="13"/>
-      <c r="ADC50" s="13"/>
-      <c r="ADD50" s="13"/>
-      <c r="ADE50" s="13"/>
-      <c r="ADF50" s="13"/>
-      <c r="ADG50" s="13"/>
-      <c r="ADH50" s="13"/>
-      <c r="ADI50" s="13"/>
-      <c r="ADJ50" s="13"/>
-      <c r="ADK50" s="13"/>
-      <c r="ADL50" s="13"/>
-      <c r="ADM50" s="13"/>
-      <c r="ADN50" s="13"/>
-      <c r="ADO50" s="13"/>
-      <c r="ADP50" s="13"/>
-      <c r="ADQ50" s="13"/>
-      <c r="ADR50" s="13"/>
-      <c r="ADS50" s="13"/>
-      <c r="ADT50" s="13"/>
-      <c r="ADU50" s="13"/>
-      <c r="ADV50" s="13"/>
-      <c r="ADW50" s="13"/>
-      <c r="ADX50" s="13"/>
-      <c r="ADY50" s="13"/>
-      <c r="ADZ50" s="13"/>
-      <c r="AEA50" s="13"/>
-      <c r="AEB50" s="13"/>
-      <c r="AEC50" s="13"/>
-      <c r="AED50" s="13"/>
-      <c r="AEE50" s="13"/>
-      <c r="AEF50" s="13"/>
-      <c r="AEG50" s="13"/>
-      <c r="AEH50" s="13"/>
-      <c r="AEI50" s="13"/>
-      <c r="AEJ50" s="13"/>
-      <c r="AEK50" s="13"/>
-      <c r="AEL50" s="13"/>
-      <c r="AEM50" s="13"/>
-      <c r="AEN50" s="13"/>
-      <c r="AEO50" s="13"/>
-      <c r="AEP50" s="13"/>
-      <c r="AEQ50" s="13"/>
-      <c r="AER50" s="13"/>
-      <c r="AES50" s="13"/>
-      <c r="AET50" s="13"/>
-      <c r="AEU50" s="13"/>
-      <c r="AEV50" s="13"/>
-      <c r="AEW50" s="13"/>
-      <c r="AEX50" s="13"/>
-      <c r="AEY50" s="13"/>
-      <c r="AEZ50" s="13"/>
-      <c r="AFA50" s="13"/>
-      <c r="AFB50" s="13"/>
-      <c r="AFC50" s="13"/>
-      <c r="AFD50" s="13"/>
-      <c r="AFE50" s="13"/>
-      <c r="AFF50" s="13"/>
-      <c r="AFG50" s="13"/>
-      <c r="AFH50" s="13"/>
-      <c r="AFI50" s="13"/>
-      <c r="AFJ50" s="13"/>
-      <c r="AFK50" s="13"/>
-      <c r="AFL50" s="13"/>
-      <c r="AFM50" s="13"/>
-      <c r="AFN50" s="13"/>
-      <c r="AFO50" s="13"/>
-      <c r="AFP50" s="13"/>
-      <c r="AFQ50" s="13"/>
-      <c r="AFR50" s="13"/>
-      <c r="AFS50" s="13"/>
-      <c r="AFT50" s="13"/>
-      <c r="AFU50" s="13"/>
-      <c r="AFV50" s="13"/>
-      <c r="AFW50" s="13"/>
-      <c r="AFX50" s="13"/>
-      <c r="AFY50" s="13"/>
-      <c r="AFZ50" s="13"/>
-      <c r="AGA50" s="13"/>
-      <c r="AGB50" s="13"/>
-      <c r="AGC50" s="13"/>
-      <c r="AGD50" s="13"/>
-      <c r="AGE50" s="13"/>
-      <c r="AGF50" s="13"/>
-      <c r="AGG50" s="13"/>
-      <c r="AGH50" s="13"/>
-      <c r="AGI50" s="13"/>
-      <c r="AGJ50" s="13"/>
-      <c r="AGK50" s="13"/>
-      <c r="AGL50" s="13"/>
-      <c r="AGM50" s="13"/>
-      <c r="AGN50" s="13"/>
-      <c r="AGO50" s="13"/>
-      <c r="AGP50" s="13"/>
-      <c r="AGQ50" s="13"/>
-      <c r="AGR50" s="13"/>
-      <c r="AGS50" s="13"/>
-      <c r="AGT50" s="13"/>
-      <c r="AGU50" s="13"/>
-      <c r="AGV50" s="13"/>
-      <c r="AGW50" s="13"/>
-      <c r="AGX50" s="13"/>
-      <c r="AGY50" s="13"/>
-      <c r="AGZ50" s="13"/>
-      <c r="AHA50" s="13"/>
-      <c r="AHB50" s="13"/>
-      <c r="AHC50" s="13"/>
-      <c r="AHD50" s="13"/>
-      <c r="AHE50" s="13"/>
-      <c r="AHF50" s="13"/>
-      <c r="AHG50" s="13"/>
-      <c r="AHH50" s="13"/>
-      <c r="AHI50" s="13"/>
-      <c r="AHJ50" s="13"/>
-      <c r="AHK50" s="13"/>
-      <c r="AHL50" s="13"/>
-      <c r="AHM50" s="13"/>
-      <c r="AHN50" s="13"/>
-      <c r="AHO50" s="13"/>
-      <c r="AHP50" s="13"/>
-      <c r="AHQ50" s="13"/>
-      <c r="AHR50" s="13"/>
-      <c r="AHS50" s="13"/>
-      <c r="AHT50" s="13"/>
-      <c r="AHU50" s="13"/>
-      <c r="AHV50" s="13"/>
-      <c r="AHW50" s="13"/>
-      <c r="AHX50" s="13"/>
-      <c r="AHY50" s="13"/>
-      <c r="AHZ50" s="13"/>
-      <c r="AIA50" s="13"/>
-      <c r="AIB50" s="13"/>
-      <c r="AIC50" s="13"/>
-      <c r="AID50" s="13"/>
-      <c r="AIE50" s="13"/>
-      <c r="AIF50" s="13"/>
-      <c r="AIG50" s="13"/>
-      <c r="AIH50" s="13"/>
-      <c r="AII50" s="13"/>
-      <c r="AIJ50" s="13"/>
-      <c r="AIK50" s="13"/>
-      <c r="AIL50" s="13"/>
-      <c r="AIM50" s="13"/>
-      <c r="AIN50" s="13"/>
-      <c r="AIO50" s="13"/>
-      <c r="AIP50" s="13"/>
-      <c r="AIQ50" s="13"/>
-      <c r="AIR50" s="13"/>
-      <c r="AIS50" s="13"/>
-      <c r="AIT50" s="13"/>
-      <c r="AIU50" s="13"/>
-      <c r="AIV50" s="13"/>
-      <c r="AIW50" s="13"/>
-      <c r="AIX50" s="13"/>
-      <c r="AIY50" s="13"/>
-      <c r="AIZ50" s="13"/>
-      <c r="AJA50" s="13"/>
-      <c r="AJB50" s="13"/>
-      <c r="AJC50" s="13"/>
-      <c r="AJD50" s="13"/>
-      <c r="AJE50" s="13"/>
-      <c r="AJF50" s="13"/>
-      <c r="AJG50" s="13"/>
-      <c r="AJH50" s="13"/>
-      <c r="AJI50" s="13"/>
-      <c r="AJJ50" s="13"/>
-      <c r="AJK50" s="13"/>
-      <c r="AJL50" s="13"/>
-      <c r="AJM50" s="13"/>
-      <c r="AJN50" s="13"/>
-      <c r="AJO50" s="13"/>
-      <c r="AJP50" s="13"/>
-      <c r="AJQ50" s="13"/>
-      <c r="AJR50" s="13"/>
-      <c r="AJS50" s="13"/>
-      <c r="AJT50" s="13"/>
-      <c r="AJU50" s="13"/>
-      <c r="AJV50" s="13"/>
-      <c r="AJW50" s="13"/>
-      <c r="AJX50" s="13"/>
-      <c r="AJY50" s="13"/>
-      <c r="AJZ50" s="13"/>
-      <c r="AKA50" s="13"/>
-      <c r="AKB50" s="13"/>
-      <c r="AKC50" s="13"/>
-      <c r="AKD50" s="13"/>
-      <c r="AKE50" s="13"/>
-      <c r="AKF50" s="13"/>
-      <c r="AKG50" s="13"/>
-      <c r="AKH50" s="13"/>
-      <c r="AKI50" s="13"/>
-      <c r="AKJ50" s="13"/>
-      <c r="AKK50" s="13"/>
-      <c r="AKL50" s="13"/>
-      <c r="AKM50" s="13"/>
-      <c r="AKN50" s="13"/>
-      <c r="AKO50" s="13"/>
-      <c r="AKP50" s="13"/>
-      <c r="AKQ50" s="13"/>
-      <c r="AKR50" s="13"/>
-      <c r="AKS50" s="13"/>
-      <c r="AKT50" s="13"/>
-      <c r="AKU50" s="13"/>
-      <c r="AKV50" s="13"/>
-      <c r="AKW50" s="13"/>
-      <c r="AKX50" s="13"/>
-      <c r="AKY50" s="13"/>
-      <c r="AKZ50" s="13"/>
-      <c r="ALA50" s="13"/>
-      <c r="ALB50" s="13"/>
-      <c r="ALC50" s="13"/>
-      <c r="ALD50" s="13"/>
-      <c r="ALE50" s="13"/>
-      <c r="ALF50" s="13"/>
-      <c r="ALG50" s="13"/>
-      <c r="ALH50" s="13"/>
-      <c r="ALI50" s="13"/>
-      <c r="ALJ50" s="13"/>
-      <c r="ALK50" s="13"/>
-      <c r="ALL50" s="13"/>
-      <c r="ALM50" s="13"/>
-      <c r="ALN50" s="13"/>
-      <c r="ALO50" s="13"/>
-      <c r="ALP50" s="13"/>
-      <c r="ALQ50" s="13"/>
-      <c r="ALR50" s="13"/>
-      <c r="ALS50" s="13"/>
-      <c r="ALT50" s="13"/>
-      <c r="ALU50" s="13"/>
-      <c r="ALV50" s="13"/>
-      <c r="ALW50" s="13"/>
-      <c r="ALX50" s="13"/>
-      <c r="ALY50" s="13"/>
-      <c r="ALZ50" s="13"/>
-      <c r="AMA50" s="13"/>
-      <c r="AMB50" s="13"/>
-      <c r="AMC50" s="13"/>
-      <c r="AMD50" s="13"/>
-      <c r="AME50" s="13"/>
-      <c r="AMF50" s="13"/>
-      <c r="AMG50" s="13"/>
-      <c r="AMH50" s="13"/>
-      <c r="AMI50" s="13"/>
-      <c r="AMJ50" s="13"/>
-      <c r="AMK50" s="13"/>
-      <c r="AML50"/>
-      <c r="AMM50"/>
-    </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15333,37 +15367,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483436F9-6002-417C-8383-B40A85BA2E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B658E-2E24-4CB9-A4CA-750D0979A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="40" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -1282,45 +1282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,8 +1297,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,9 +1377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,34 +1389,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1612,247 +1612,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="71" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="71"/>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="71"/>
-      <c r="BQ1" s="71"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="57" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57" t="s">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57" t="s">
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="74" t="s">
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="65" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="66">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="68">
         <v>45511</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="65" t="s">
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="67">
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="69">
         <v>45548</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1919,213 +1919,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="70"/>
+      <c r="BF6" s="70"/>
+      <c r="BG6" s="70"/>
+      <c r="BH6" s="70"/>
+      <c r="BI6" s="70"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
+      <c r="BN6" s="70"/>
+      <c r="BO6" s="70"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="70"/>
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="70"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
+      <c r="BN7" s="70"/>
+      <c r="BO7" s="70"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="64"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="64"/>
-      <c r="BO8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2178,787 +2178,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="56" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="60" t="s">
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="65"/>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="65"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="65"/>
+      <c r="BO11" s="65"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="66"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="66"/>
+      <c r="BJ12" s="66"/>
+      <c r="BK12" s="66"/>
+      <c r="BL12" s="66"/>
+      <c r="BM12" s="66"/>
+      <c r="BN12" s="66"/>
+      <c r="BO12" s="66"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="66"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="66"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="66"/>
+      <c r="BF13" s="66"/>
+      <c r="BG13" s="66"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="66"/>
+      <c r="BJ13" s="66"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="66"/>
+      <c r="BM13" s="66"/>
+      <c r="BN13" s="66"/>
+      <c r="BO13" s="66"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="71"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="71"/>
+      <c r="BG14" s="71"/>
+      <c r="BH14" s="71"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="71"/>
+      <c r="BK14" s="71"/>
+      <c r="BL14" s="71"/>
+      <c r="BM14" s="71"/>
+      <c r="BN14" s="71"/>
+      <c r="BO14" s="71"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="63"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="63"/>
-      <c r="BN15" s="63"/>
-      <c r="BO15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="72"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="72"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="72"/>
+      <c r="BJ15" s="72"/>
+      <c r="BK15" s="72"/>
+      <c r="BL15" s="72"/>
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="72"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
-      <c r="BO17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="72"/>
+      <c r="BF17" s="72"/>
+      <c r="BG17" s="72"/>
+      <c r="BH17" s="72"/>
+      <c r="BI17" s="72"/>
+      <c r="BJ17" s="72"/>
+      <c r="BK17" s="72"/>
+      <c r="BL17" s="72"/>
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="63"/>
-      <c r="BH18" s="63"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="72"/>
+      <c r="BL18" s="72"/>
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="63"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="63"/>
-      <c r="BO19" s="63"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="72"/>
+      <c r="BH19" s="72"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="72"/>
+      <c r="BK19" s="72"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="72"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="63"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="63"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="63"/>
-      <c r="BO20" s="63"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="72"/>
+      <c r="BF20" s="72"/>
+      <c r="BG20" s="72"/>
+      <c r="BH20" s="72"/>
+      <c r="BI20" s="72"/>
+      <c r="BJ20" s="72"/>
+      <c r="BK20" s="72"/>
+      <c r="BL20" s="72"/>
+      <c r="BM20" s="72"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="72"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="61"/>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="61"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
-      <c r="BO21" s="61"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
+      <c r="BO21" s="74"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2988,85 +2988,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="56" t="s">
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56" t="s">
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="56"/>
-      <c r="BF25" s="56"/>
-      <c r="BG25" s="56"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
-      <c r="BK25" s="56" t="s">
+      <c r="BE25" s="64"/>
+      <c r="BF25" s="64"/>
+      <c r="BG25" s="64"/>
+      <c r="BH25" s="64"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="56"/>
-      <c r="BM25" s="56"/>
-      <c r="BN25" s="56"/>
-      <c r="BO25" s="56"/>
+      <c r="BL25" s="64"/>
+      <c r="BM25" s="64"/>
+      <c r="BN25" s="64"/>
+      <c r="BO25" s="64"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3083,81 +3083,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="57">
+      <c r="C26" s="61">
         <v>1</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60" t="s">
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="56" t="s">
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56" t="s">
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="64"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
+      <c r="BE26" s="64"/>
+      <c r="BF26" s="64"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
+      <c r="BL26" s="64"/>
+      <c r="BM26" s="64"/>
+      <c r="BN26" s="64"/>
+      <c r="BO26" s="64"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3173,73 +3173,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="57">
+      <c r="C27" s="61">
         <v>2</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
-      <c r="BO27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="64"/>
+      <c r="BM27" s="64"/>
+      <c r="BN27" s="64"/>
+      <c r="BO27" s="64"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3255,73 +3255,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="57">
+      <c r="C28" s="61">
         <v>3</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="64"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3338,73 +3338,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="57">
+      <c r="C29" s="61">
         <v>4</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="64"/>
+      <c r="BN29" s="64"/>
+      <c r="BO29" s="64"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3421,73 +3421,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="57">
+      <c r="C30" s="61">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="56"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="56"/>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="56"/>
-      <c r="BJ30" s="56"/>
-      <c r="BK30" s="56"/>
-      <c r="BL30" s="56"/>
-      <c r="BM30" s="56"/>
-      <c r="BN30" s="56"/>
-      <c r="BO30" s="56"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64"/>
+      <c r="AY30" s="64"/>
+      <c r="AZ30" s="64"/>
+      <c r="BA30" s="64"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="64"/>
+      <c r="BD30" s="64"/>
+      <c r="BE30" s="64"/>
+      <c r="BF30" s="64"/>
+      <c r="BG30" s="64"/>
+      <c r="BH30" s="64"/>
+      <c r="BI30" s="64"/>
+      <c r="BJ30" s="64"/>
+      <c r="BK30" s="64"/>
+      <c r="BL30" s="64"/>
+      <c r="BM30" s="64"/>
+      <c r="BN30" s="64"/>
+      <c r="BO30" s="64"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3504,73 +3504,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="57">
+      <c r="C31" s="61">
         <v>6</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
-      <c r="BF31" s="56"/>
-      <c r="BG31" s="56"/>
-      <c r="BH31" s="56"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="56"/>
-      <c r="BK31" s="56"/>
-      <c r="BL31" s="56"/>
-      <c r="BM31" s="56"/>
-      <c r="BN31" s="56"/>
-      <c r="BO31" s="56"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="64"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="64"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3587,73 +3587,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="57">
+      <c r="C32" s="61">
         <v>7</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-      <c r="BK32" s="56"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="64"/>
+      <c r="BO32" s="64"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3670,73 +3670,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="57">
+      <c r="C33" s="61">
         <v>8</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="64"/>
+      <c r="BJ33" s="64"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="64"/>
+      <c r="BO33" s="64"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3753,73 +3753,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="57">
+      <c r="C34" s="61">
         <v>9</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="64"/>
+      <c r="BO34" s="64"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3837,73 +3837,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="57">
+      <c r="C35" s="61">
         <v>10</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="64"/>
+      <c r="BO35" s="64"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4512,51 +4512,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4581,48 +4578,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4693,243 +4693,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="88"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="88"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="65" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="78" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78" t="s">
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78" t="s">
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="80" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="81">
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="91">
         <v>45510</v>
       </c>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="80" t="s">
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4954,96 +4954,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="56" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5074,38 +5074,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="64"/>
+      <c r="BO7" s="64"/>
+      <c r="BP7" s="64"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5119,89 +5119,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="78" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78" t="s">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="85" t="s">
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
-      <c r="BE10" s="86"/>
-      <c r="BF10" s="86"/>
-      <c r="BG10" s="86"/>
-      <c r="BH10" s="86"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="57" t="s">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="17" t="s">
         <v>90</v>
       </c>
@@ -5217,11 +5217,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5275,10 +5275,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5291,9 +5291,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5342,10 +5342,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5359,9 +5359,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5410,10 +5410,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5427,9 +5427,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5478,10 +5478,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5495,9 +5495,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5557,88 +5557,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="78" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="57" t="s">
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57" t="s">
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="57"/>
-      <c r="BL18" s="57"/>
-      <c r="BM18" s="57"/>
-      <c r="BN18" s="57"/>
-      <c r="BO18" s="57"/>
-      <c r="BP18" s="57"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5654,9 +5654,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -15322,37 +15322,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15367,6 +15336,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B658E-2E24-4CB9-A4CA-750D0979A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A6B3D-5EFD-4A12-9E4F-DFA063AB09D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="290" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -1282,6 +1282,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,78 +1336,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,6 +1346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,6 +1361,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:AMW48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I2" sqref="I2:AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1612,247 +1612,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61" t="s">
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="62" t="s">
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="67" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="68">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="66">
         <v>45511</v>
       </c>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="67" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="69">
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="67">
         <v>45548</v>
       </c>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1919,213 +1919,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="70"/>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
-      <c r="BN6" s="70"/>
-      <c r="BO6" s="70"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2178,787 +2178,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="61" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="64" t="s">
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="65" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="65"/>
-      <c r="BE11" s="65"/>
-      <c r="BF11" s="65"/>
-      <c r="BG11" s="65"/>
-      <c r="BH11" s="65"/>
-      <c r="BI11" s="65"/>
-      <c r="BJ11" s="65"/>
-      <c r="BK11" s="65"/>
-      <c r="BL11" s="65"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="65"/>
-      <c r="BO11" s="65"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="66"/>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="66"/>
-      <c r="BN12" s="66"/>
-      <c r="BO12" s="66"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="66"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="66"/>
-      <c r="BJ13" s="66"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="66"/>
-      <c r="BM13" s="66"/>
-      <c r="BN13" s="66"/>
-      <c r="BO13" s="66"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="71" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="71"/>
-      <c r="BG14" s="71"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="71"/>
-      <c r="BN14" s="71"/>
-      <c r="BO14" s="71"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="72"/>
-      <c r="BE15" s="72"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="72"/>
-      <c r="BK15" s="72"/>
-      <c r="BL15" s="72"/>
-      <c r="BM15" s="72"/>
-      <c r="BN15" s="72"/>
-      <c r="BO15" s="72"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="63"/>
+      <c r="BI15" s="63"/>
+      <c r="BJ15" s="63"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="63"/>
+      <c r="BM15" s="63"/>
+      <c r="BN15" s="63"/>
+      <c r="BO15" s="63"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="72"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="72"/>
-      <c r="BN16" s="72"/>
-      <c r="BO16" s="72"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="63"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="63"/>
+      <c r="BO16" s="63"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="72"/>
-      <c r="BA17" s="72"/>
-      <c r="BB17" s="72"/>
-      <c r="BC17" s="72"/>
-      <c r="BD17" s="72"/>
-      <c r="BE17" s="72"/>
-      <c r="BF17" s="72"/>
-      <c r="BG17" s="72"/>
-      <c r="BH17" s="72"/>
-      <c r="BI17" s="72"/>
-      <c r="BJ17" s="72"/>
-      <c r="BK17" s="72"/>
-      <c r="BL17" s="72"/>
-      <c r="BM17" s="72"/>
-      <c r="BN17" s="72"/>
-      <c r="BO17" s="72"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
+      <c r="BO17" s="63"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="72"/>
-      <c r="BG18" s="72"/>
-      <c r="BH18" s="72"/>
-      <c r="BI18" s="72"/>
-      <c r="BJ18" s="72"/>
-      <c r="BK18" s="72"/>
-      <c r="BL18" s="72"/>
-      <c r="BM18" s="72"/>
-      <c r="BN18" s="72"/>
-      <c r="BO18" s="72"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
+      <c r="BG18" s="63"/>
+      <c r="BH18" s="63"/>
+      <c r="BI18" s="63"/>
+      <c r="BJ18" s="63"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="63"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="72"/>
-      <c r="BA19" s="72"/>
-      <c r="BB19" s="72"/>
-      <c r="BC19" s="72"/>
-      <c r="BD19" s="72"/>
-      <c r="BE19" s="72"/>
-      <c r="BF19" s="72"/>
-      <c r="BG19" s="72"/>
-      <c r="BH19" s="72"/>
-      <c r="BI19" s="72"/>
-      <c r="BJ19" s="72"/>
-      <c r="BK19" s="72"/>
-      <c r="BL19" s="72"/>
-      <c r="BM19" s="72"/>
-      <c r="BN19" s="72"/>
-      <c r="BO19" s="72"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="72"/>
-      <c r="BA20" s="72"/>
-      <c r="BB20" s="72"/>
-      <c r="BC20" s="72"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="72"/>
-      <c r="BF20" s="72"/>
-      <c r="BG20" s="72"/>
-      <c r="BH20" s="72"/>
-      <c r="BI20" s="72"/>
-      <c r="BJ20" s="72"/>
-      <c r="BK20" s="72"/>
-      <c r="BL20" s="72"/>
-      <c r="BM20" s="72"/>
-      <c r="BN20" s="72"/>
-      <c r="BO20" s="72"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="74"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="74"/>
-      <c r="AY21" s="74"/>
-      <c r="AZ21" s="74"/>
-      <c r="BA21" s="74"/>
-      <c r="BB21" s="74"/>
-      <c r="BC21" s="74"/>
-      <c r="BD21" s="74"/>
-      <c r="BE21" s="74"/>
-      <c r="BF21" s="74"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="74"/>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="74"/>
-      <c r="BM21" s="74"/>
-      <c r="BN21" s="74"/>
-      <c r="BO21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2988,85 +2988,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="66" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="64" t="s">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="64"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="64"/>
-      <c r="AU25" s="64"/>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64"/>
-      <c r="AY25" s="64"/>
-      <c r="AZ25" s="64"/>
-      <c r="BA25" s="64"/>
-      <c r="BB25" s="64"/>
-      <c r="BC25" s="64"/>
-      <c r="BD25" s="64" t="s">
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="64"/>
-      <c r="BF25" s="64"/>
-      <c r="BG25" s="64"/>
-      <c r="BH25" s="64"/>
-      <c r="BI25" s="64"/>
-      <c r="BJ25" s="64"/>
-      <c r="BK25" s="64" t="s">
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="64"/>
-      <c r="BM25" s="64"/>
-      <c r="BN25" s="64"/>
-      <c r="BO25" s="64"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3083,81 +3083,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="61">
+      <c r="C26" s="57">
         <v>1</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="64" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="65" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="64" t="s">
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-      <c r="AY26" s="64"/>
-      <c r="AZ26" s="64"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="64"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="64" t="s">
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="64"/>
-      <c r="BF26" s="64"/>
-      <c r="BG26" s="64"/>
-      <c r="BH26" s="64"/>
-      <c r="BI26" s="64"/>
-      <c r="BJ26" s="64"/>
-      <c r="BK26" s="64"/>
-      <c r="BL26" s="64"/>
-      <c r="BM26" s="64"/>
-      <c r="BN26" s="64"/>
-      <c r="BO26" s="64"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3173,73 +3173,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="61">
+      <c r="C27" s="57">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="64"/>
-      <c r="BE27" s="64"/>
-      <c r="BF27" s="64"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
-      <c r="BL27" s="64"/>
-      <c r="BM27" s="64"/>
-      <c r="BN27" s="64"/>
-      <c r="BO27" s="64"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="56"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3255,73 +3255,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="61">
+      <c r="C28" s="57">
         <v>3</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
-      <c r="BL28" s="64"/>
-      <c r="BM28" s="64"/>
-      <c r="BN28" s="64"/>
-      <c r="BO28" s="64"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3338,73 +3338,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="61">
+      <c r="C29" s="57">
         <v>4</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="64"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="64"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="64"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3421,73 +3421,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="61">
+      <c r="C30" s="57">
         <v>5</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64"/>
-      <c r="AY30" s="64"/>
-      <c r="AZ30" s="64"/>
-      <c r="BA30" s="64"/>
-      <c r="BB30" s="64"/>
-      <c r="BC30" s="64"/>
-      <c r="BD30" s="64"/>
-      <c r="BE30" s="64"/>
-      <c r="BF30" s="64"/>
-      <c r="BG30" s="64"/>
-      <c r="BH30" s="64"/>
-      <c r="BI30" s="64"/>
-      <c r="BJ30" s="64"/>
-      <c r="BK30" s="64"/>
-      <c r="BL30" s="64"/>
-      <c r="BM30" s="64"/>
-      <c r="BN30" s="64"/>
-      <c r="BO30" s="64"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3504,73 +3504,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="61">
+      <c r="C31" s="57">
         <v>6</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="64"/>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
-      <c r="AX31" s="64"/>
-      <c r="AY31" s="64"/>
-      <c r="AZ31" s="64"/>
-      <c r="BA31" s="64"/>
-      <c r="BB31" s="64"/>
-      <c r="BC31" s="64"/>
-      <c r="BD31" s="64"/>
-      <c r="BE31" s="64"/>
-      <c r="BF31" s="64"/>
-      <c r="BG31" s="64"/>
-      <c r="BH31" s="64"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="64"/>
-      <c r="BK31" s="64"/>
-      <c r="BL31" s="64"/>
-      <c r="BM31" s="64"/>
-      <c r="BN31" s="64"/>
-      <c r="BO31" s="64"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="56"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3587,73 +3587,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="61">
+      <c r="C32" s="57">
         <v>7</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="64"/>
-      <c r="AV32" s="64"/>
-      <c r="AW32" s="64"/>
-      <c r="AX32" s="64"/>
-      <c r="AY32" s="64"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="64"/>
-      <c r="BC32" s="64"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="64"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="64"/>
-      <c r="BO32" s="64"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="56"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3670,73 +3670,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="61">
+      <c r="C33" s="57">
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
-      <c r="BB33" s="64"/>
-      <c r="BC33" s="64"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="64"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="64"/>
-      <c r="BO33" s="64"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3753,73 +3753,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="61">
+      <c r="C34" s="57">
         <v>9</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="64"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="64"/>
-      <c r="BO34" s="64"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3837,73 +3837,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="61">
+      <c r="C35" s="57">
         <v>10</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="64"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="64"/>
-      <c r="BJ35" s="64"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="64"/>
-      <c r="BO35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4512,48 +4512,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4578,51 +4581,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4693,243 +4693,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="88" t="s">
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88"/>
-      <c r="AX1" s="88"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="88"/>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="88"/>
-      <c r="BC1" s="88"/>
-      <c r="BD1" s="88"/>
-      <c r="BE1" s="88"/>
-      <c r="BF1" s="88"/>
-      <c r="BG1" s="88"/>
-      <c r="BH1" s="88"/>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
-      <c r="BK1" s="88"/>
-      <c r="BL1" s="88"/>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="88"/>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
-      <c r="BQ1" s="88"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="76" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76" t="s">
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="76" t="s">
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="89"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="90" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="91">
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="81">
         <v>45510</v>
       </c>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="90" t="s">
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="92"/>
-      <c r="BN3" s="92"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4954,96 +4954,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="85" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="64" t="s">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5074,38 +5074,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="64" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="64"/>
-      <c r="BE7" s="64"/>
-      <c r="BF7" s="64"/>
-      <c r="BG7" s="64"/>
-      <c r="BH7" s="64"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="64"/>
-      <c r="BO7" s="64"/>
-      <c r="BP7" s="64"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5119,89 +5119,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="76" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76" t="s">
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="82" t="s">
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="61" t="s">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="17" t="s">
         <v>90</v>
       </c>
@@ -5217,11 +5217,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="79" t="s">
+      <c r="T11" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5275,10 +5275,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5291,9 +5291,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5342,10 +5342,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5359,9 +5359,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5410,10 +5410,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5427,9 +5427,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5478,10 +5478,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5495,9 +5495,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5557,88 +5557,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="61" t="s">
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61" t="s">
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="57"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
-      <c r="BP18" s="61"/>
+      <c r="BK18" s="57"/>
+      <c r="BL18" s="57"/>
+      <c r="BM18" s="57"/>
+      <c r="BN18" s="57"/>
+      <c r="BO18" s="57"/>
+      <c r="BP18" s="57"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5654,9 +5654,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -15322,6 +15322,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15336,37 +15367,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A6B3D-5EFD-4A12-9E4F-DFA063AB09D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA82337-87E2-4BED-A637-039F120B5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="290" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="260" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -797,7 +797,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -963,30 +963,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1161,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1187,46 +1163,46 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,42 +1210,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1279,46 +1255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1336,8 +1273,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,9 +1341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,41 +1355,13 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:AJ3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1612,247 +1576,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="71" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="71"/>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="71"/>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="71"/>
-      <c r="BQ1" s="71"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="57" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57" t="s">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57" t="s">
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="74" t="s">
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="65" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="66">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="67">
         <v>45511</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="65" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="67">
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="68">
         <v>45548</v>
       </c>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1919,213 +1883,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="70"/>
+      <c r="BF6" s="70"/>
+      <c r="BG6" s="70"/>
+      <c r="BH6" s="70"/>
+      <c r="BI6" s="70"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="70"/>
+      <c r="BN6" s="70"/>
+      <c r="BO6" s="70"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="70"/>
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="70"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
+      <c r="BN7" s="70"/>
+      <c r="BO7" s="70"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="64"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="64"/>
-      <c r="BO8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2178,787 +2142,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="56" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="60" t="s">
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="65"/>
+      <c r="BO12" s="65"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="65"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="65"/>
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="69"/>
+      <c r="BE14" s="69"/>
+      <c r="BF14" s="69"/>
+      <c r="BG14" s="69"/>
+      <c r="BH14" s="69"/>
+      <c r="BI14" s="69"/>
+      <c r="BJ14" s="69"/>
+      <c r="BK14" s="69"/>
+      <c r="BL14" s="69"/>
+      <c r="BM14" s="69"/>
+      <c r="BN14" s="69"/>
+      <c r="BO14" s="69"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="63"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="63"/>
-      <c r="BN15" s="63"/>
-      <c r="BO15" s="63"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="65"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
-      <c r="BO17" s="63"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="63"/>
-      <c r="BH18" s="63"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="63"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="63"/>
-      <c r="BO19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="63"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="63"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="63"/>
-      <c r="BO20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="61"/>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="61"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
-      <c r="BO21" s="61"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="BL21" s="65"/>
+      <c r="BM21" s="65"/>
+      <c r="BN21" s="65"/>
+      <c r="BO21" s="65"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2988,85 +2952,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="56" t="s">
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56" t="s">
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="63"/>
+      <c r="BC25" s="63"/>
+      <c r="BD25" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="56"/>
-      <c r="BF25" s="56"/>
-      <c r="BG25" s="56"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
-      <c r="BK25" s="56" t="s">
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="63"/>
+      <c r="BJ25" s="63"/>
+      <c r="BK25" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="56"/>
-      <c r="BM25" s="56"/>
-      <c r="BN25" s="56"/>
-      <c r="BO25" s="56"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="63"/>
+      <c r="BO25" s="63"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3083,81 +3047,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="57">
+      <c r="C26" s="61">
         <v>1</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="56" t="s">
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56" t="s">
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="63"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63"/>
+      <c r="BO26" s="63"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3173,73 +3137,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="57">
+      <c r="C27" s="61">
         <v>2</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
-      <c r="BO27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63"/>
+      <c r="BC27" s="63"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="63"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="63"/>
+      <c r="BO27" s="63"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3255,73 +3219,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="57">
+      <c r="C28" s="61">
         <v>3</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63"/>
+      <c r="BC28" s="63"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="63"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="63"/>
+      <c r="BO28" s="63"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3338,73 +3302,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="57">
+      <c r="C29" s="61">
         <v>4</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="63"/>
+      <c r="BC29" s="63"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="63"/>
+      <c r="BO29" s="63"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3421,73 +3385,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="57">
+      <c r="C30" s="61">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="56"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="56"/>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="56"/>
-      <c r="BJ30" s="56"/>
-      <c r="BK30" s="56"/>
-      <c r="BL30" s="56"/>
-      <c r="BM30" s="56"/>
-      <c r="BN30" s="56"/>
-      <c r="BO30" s="56"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="63"/>
+      <c r="BC30" s="63"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="63"/>
+      <c r="BJ30" s="63"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="63"/>
+      <c r="BO30" s="63"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3504,73 +3468,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="57">
+      <c r="C31" s="61">
         <v>6</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
-      <c r="BF31" s="56"/>
-      <c r="BG31" s="56"/>
-      <c r="BH31" s="56"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="56"/>
-      <c r="BK31" s="56"/>
-      <c r="BL31" s="56"/>
-      <c r="BM31" s="56"/>
-      <c r="BN31" s="56"/>
-      <c r="BO31" s="56"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="63"/>
+      <c r="BC31" s="63"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="63"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="63"/>
+      <c r="BO31" s="63"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3587,73 +3551,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="57">
+      <c r="C32" s="61">
         <v>7</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-      <c r="BK32" s="56"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="63"/>
+      <c r="BC32" s="63"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="63"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="63"/>
+      <c r="BO32" s="63"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3670,73 +3634,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="57">
+      <c r="C33" s="61">
         <v>8</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="63"/>
+      <c r="BC33" s="63"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="63"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+      <c r="BO33" s="63"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3753,73 +3717,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="57">
+      <c r="C34" s="61">
         <v>9</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BC34" s="63"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BO34" s="63"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3837,73 +3801,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="57">
+      <c r="C35" s="61">
         <v>10</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="63"/>
+      <c r="BC35" s="63"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="63"/>
+      <c r="BO35" s="63"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4512,51 +4476,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4581,48 +4542,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -4677,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C419942-AAEF-47BC-8F8D-550D23926994}">
   <dimension ref="A1:AMM49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4693,243 +4657,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
+      <c r="BQ1" s="84"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="65" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="78" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78" t="s">
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="85"/>
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="85"/>
+      <c r="BQ2" s="85"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="80" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="81">
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="87">
         <v>45510</v>
       </c>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="80" t="s">
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="88"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4954,96 +4918,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="56" t="s">
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
+      <c r="BP6" s="63"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5074,38 +5038,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="63"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5119,89 +5083,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="78" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78" t="s">
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="85" t="s">
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
-      <c r="BE10" s="86"/>
-      <c r="BF10" s="86"/>
-      <c r="BG10" s="86"/>
-      <c r="BH10" s="86"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="57" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="17" t="s">
         <v>90</v>
       </c>
@@ -5217,11 +5181,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="77"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5275,10 +5239,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5291,9 +5255,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5342,10 +5306,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5359,9 +5323,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5410,10 +5374,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5427,9 +5391,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5478,10 +5442,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5495,9 +5459,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5557,88 +5521,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="78" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78" t="s">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="57" t="s">
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57" t="s">
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="57"/>
-      <c r="BL18" s="57"/>
-      <c r="BM18" s="57"/>
-      <c r="BN18" s="57"/>
-      <c r="BO18" s="57"/>
-      <c r="BP18" s="57"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5654,9 +5618,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -15322,37 +15286,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15367,6 +15300,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="1">
@@ -15421,7 +15385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15446,13 +15410,13 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
       <c r="Q3" s="43" t="s">
         <v>71</v>
       </c>
@@ -15841,7 +15805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0572F12D-21E2-44C2-A056-D495315FFBE7}">
   <dimension ref="B2:AW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15854,60 +15818,60 @@
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="93" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="93" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="95"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="91"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
@@ -16140,9 +16104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB27B24-2EA0-45F1-8EBA-B9FA98939D11}">
   <dimension ref="B2:BM13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16173,13 +16135,13 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="95"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="91"/>
       <c r="W3" s="43" t="s">
         <v>71</v>
       </c>
@@ -16723,7 +16685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA82337-87E2-4BED-A637-039F120B5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D8074-5028-4DD6-AF25-04AA2CDCF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="260" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="0" windowWidth="13280" windowHeight="10050" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <rPh sb="0" eb="2">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>抽出条件</t>
@@ -333,37 +333,37 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>交通費請求機能</t>
     <rPh sb="0" eb="7">
       <t>コウツウヒセイキュウキノウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>SQLException</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コードマスタテーブルのマッパークラス</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コードマスタマッパー</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>リスト&lt;コードマスタエンティティ&gt;</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コード 昇順</t>
     <rPh sb="4" eb="6">
       <t>ショウジュン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コードマスターテーブルの"コード分類"が引数と一致したレコードデータを取得する</t>
@@ -376,7 +376,7 @@
     <rPh sb="35" eb="37">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コード分類検索</t>
@@ -386,14 +386,14 @@
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コード分類検索</t>
     <rPh sb="3" eb="7">
       <t>ブンルイケンサク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◯</t>
@@ -403,7 +403,7 @@
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コード検索に利用する文字列、コード分類</t>
@@ -419,46 +419,36 @@
     <rPh sb="17" eb="19">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コードマスタ検索条件ParamObj</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>・</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>承認ステータス分類</t>
@@ -468,11 +458,11 @@
     <rPh sb="7" eb="9">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>承認ステータスのコード分類</t>
@@ -482,14 +472,14 @@
     <rPh sb="11" eb="13">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>申請区分のコード分類</t>
     <rPh sb="0" eb="4">
       <t>シンセイクブン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>表示用コード名クラス　</t>
@@ -499,25 +489,25 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コードマスタから取得したコード</t>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コード名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コードマスタから取得したコード名</t>
@@ -527,7 +517,7 @@
     <rPh sb="15" eb="16">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コードマスタ取得処理結果格納クラス</t>
@@ -540,11 +530,11 @@
     <rPh sb="10" eb="14">
       <t>ケッカカクノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>List</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コードマスタから取得した承認ステータスのコードとコード名</t>
@@ -557,7 +547,7 @@
     <rPh sb="27" eb="28">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>&lt;表示用コード名クラス&gt;</t>
@@ -567,11 +557,11 @@
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Class</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コードマスタから取得した申請区分のコードとコード名</t>
@@ -584,22 +574,22 @@
     <rPh sb="24" eb="25">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>&lt;表示用コード名クラス&gt;</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コード分類検索</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コード分類Param</t>
     <rPh sb="3" eb="5">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コードマスタから取得した利用サービスのコードとコード名</t>
@@ -609,30 +599,30 @@
     <rPh sb="26" eb="27">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>利用サービスのコード分類</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>承認ステータスリスト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>申請区分リスト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>利用サービスリスト</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>利用サービス分類</t>
     <rPh sb="6" eb="8">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>申請区分分類</t>
@@ -642,25 +632,25 @@
     <rPh sb="4" eb="6">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>マッパー設計書_コードマスタ</t>
     <rPh sb="4" eb="7">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コードマスタテーブル AS CodeMTable</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>CodeMTable.全項目</t>
     <rPh sb="11" eb="14">
       <t>ゼンコウモク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>CodeMTable.コード分類=引数.コード分類Param</t>
@@ -673,14 +663,18 @@
     <rPh sb="23" eb="25">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>AND CodeMTable.削除フラグ = "0"</t>
     <rPh sb="15" eb="17">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード分類Param</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -691,13 +685,21 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-1030411]ee&quot;年&quot;mm&quot;月&quot;dd&quot;日（&quot;dddd&quot;）&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1125,244 +1127,247 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="93">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="92">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1564,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1576,247 +1581,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
-        <v>98</v>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
+        <v>97</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61" t="s">
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="62" t="s">
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="66" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="63">
         <v>45511</v>
       </c>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="66" t="s">
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="68">
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="64">
         <v>45548</v>
       </c>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1883,213 +1888,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="70"/>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
-      <c r="BN6" s="70"/>
-      <c r="BO6" s="70"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2142,787 +2147,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="61" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="63" t="s">
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="65"/>
-      <c r="BL12" s="65"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
-      <c r="BO12" s="65"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="65"/>
-      <c r="BE13" s="65"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="69" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="69"/>
-      <c r="BF14" s="69"/>
-      <c r="BG14" s="69"/>
-      <c r="BH14" s="69"/>
-      <c r="BI14" s="69"/>
-      <c r="BJ14" s="69"/>
-      <c r="BK14" s="69"/>
-      <c r="BL14" s="69"/>
-      <c r="BM14" s="69"/>
-      <c r="BN14" s="69"/>
-      <c r="BO14" s="69"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="61"/>
+      <c r="BJ14" s="61"/>
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
+      <c r="BO14" s="61"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="58"/>
+      <c r="AU15" s="58"/>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="58"/>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="58"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="58"/>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="58"/>
+      <c r="BO16" s="58"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="58"/>
+      <c r="BJ18" s="58"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="58"/>
+      <c r="BO18" s="58"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65"/>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
+      <c r="AS21" s="58"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2952,85 +2957,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="65" t="s">
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="63" t="s">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="63"/>
-      <c r="BC25" s="63"/>
-      <c r="BD25" s="63" t="s">
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="63"/>
-      <c r="BK25" s="63" t="s">
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63"/>
-      <c r="BO25" s="63"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3047,81 +3052,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="61">
+      <c r="C26" s="57">
         <v>1</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="63" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="64" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="63" t="s">
-        <v>90</v>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="56" t="s">
+        <v>89</v>
       </c>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
-      <c r="BD26" s="63" t="s">
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63"/>
-      <c r="BH26" s="63"/>
-      <c r="BI26" s="63"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63"/>
-      <c r="BO26" s="63"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3137,73 +3142,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="61">
+      <c r="C27" s="57">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63"/>
-      <c r="BO27" s="63"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="56"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3219,73 +3224,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="61">
+      <c r="C28" s="57">
         <v>3</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3302,73 +3307,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="61">
+      <c r="C29" s="57">
         <v>4</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="63"/>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="63"/>
-      <c r="BN29" s="63"/>
-      <c r="BO29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3385,73 +3390,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="61">
+      <c r="C30" s="57">
         <v>5</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="63"/>
-      <c r="AO30" s="63"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="63"/>
-      <c r="AT30" s="63"/>
-      <c r="AU30" s="63"/>
-      <c r="AV30" s="63"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BB30" s="63"/>
-      <c r="BC30" s="63"/>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
-      <c r="BF30" s="63"/>
-      <c r="BG30" s="63"/>
-      <c r="BH30" s="63"/>
-      <c r="BI30" s="63"/>
-      <c r="BJ30" s="63"/>
-      <c r="BK30" s="63"/>
-      <c r="BL30" s="63"/>
-      <c r="BM30" s="63"/>
-      <c r="BN30" s="63"/>
-      <c r="BO30" s="63"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3468,73 +3473,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="61">
+      <c r="C31" s="57">
         <v>6</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="63"/>
-      <c r="BJ31" s="63"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="63"/>
-      <c r="BO31" s="63"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="56"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3551,73 +3556,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="61">
+      <c r="C32" s="57">
         <v>7</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="63"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="56"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3634,73 +3639,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="61">
+      <c r="C33" s="57">
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="63"/>
-      <c r="BO33" s="63"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3717,73 +3722,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="61">
+      <c r="C34" s="57">
         <v>9</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="63"/>
-      <c r="AQ34" s="63"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
-      <c r="BD34" s="63"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="63"/>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="63"/>
-      <c r="BO34" s="63"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3801,73 +3806,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="61">
+      <c r="C35" s="57">
         <v>10</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="63"/>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="63"/>
-      <c r="AQ35" s="63"/>
-      <c r="AR35" s="63"/>
-      <c r="AS35" s="63"/>
-      <c r="AT35" s="63"/>
-      <c r="AU35" s="63"/>
-      <c r="AV35" s="63"/>
-      <c r="AW35" s="63"/>
-      <c r="AX35" s="63"/>
-      <c r="AY35" s="63"/>
-      <c r="AZ35" s="63"/>
-      <c r="BA35" s="63"/>
-      <c r="BB35" s="63"/>
-      <c r="BC35" s="63"/>
-      <c r="BD35" s="63"/>
-      <c r="BE35" s="63"/>
-      <c r="BF35" s="63"/>
-      <c r="BG35" s="63"/>
-      <c r="BH35" s="63"/>
-      <c r="BI35" s="63"/>
-      <c r="BJ35" s="63"/>
-      <c r="BK35" s="63"/>
-      <c r="BL35" s="63"/>
-      <c r="BM35" s="63"/>
-      <c r="BN35" s="63"/>
-      <c r="BO35" s="63"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4476,48 +4481,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4542,53 +4550,50 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M11" xr:uid="{1A1D8800-C998-4F4D-8F9F-629C097FBDE0}">
       <formula1>"class,static class,abstract class"</formula1>
@@ -4657,243 +4662,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="84" t="s">
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
-      <c r="BQ1" s="84"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="66" t="s">
-        <v>89</v>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="62" t="s">
+        <v>88</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="72" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72" t="s">
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72" t="s">
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
+      <c r="BP2" s="75"/>
+      <c r="BQ2" s="75"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="86" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="87">
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="77">
         <v>45510</v>
       </c>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="86" t="s">
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="88"/>
-      <c r="BP3" s="88"/>
-      <c r="BQ3" s="88"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4918,96 +4923,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="81" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="63" t="s">
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="79"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
-      <c r="BP6" s="63"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5038,38 +5043,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="63"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5083,91 +5088,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="72" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72" t="s">
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="61" t="s">
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="57"/>
+      <c r="BP10" s="57"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5181,11 +5186,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="75" t="s">
+      <c r="T11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="76"/>
-      <c r="V11" s="77"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5239,10 +5244,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5255,9 +5260,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5306,10 +5311,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5323,9 +5328,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5374,10 +5379,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5391,9 +5396,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5442,10 +5447,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5459,9 +5464,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5521,88 +5526,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="72" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72" t="s">
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="61" t="s">
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61" t="s">
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="57"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
-      <c r="BP18" s="61"/>
+      <c r="BK18" s="57"/>
+      <c r="BL18" s="57"/>
+      <c r="BM18" s="57"/>
+      <c r="BN18" s="57"/>
+      <c r="BO18" s="57"/>
+      <c r="BP18" s="57"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5618,9 +5623,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -5907,7 +5912,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5934,7 +5939,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -5961,7 +5966,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -5971,7 +5976,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -15286,6 +15291,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15300,39 +15336,8 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T11:T15 T19" xr:uid="{52DB810B-7F52-4DCF-B085-801D33B57E64}">
       <formula1>"◯,"</formula1>
@@ -15385,7 +15390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15394,12 +15401,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -15411,14 +15418,14 @@
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
       <c r="L3" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="90"/>
       <c r="N3" s="90"/>
       <c r="O3" s="90"/>
       <c r="P3" s="91"/>
       <c r="Q3" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
@@ -15455,10 +15462,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15469,14 +15476,14 @@
       <c r="J4" s="46"/>
       <c r="K4" s="47"/>
       <c r="L4" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
@@ -15563,10 +15570,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -15577,14 +15584,14 @@
       <c r="J6" s="46"/>
       <c r="K6" s="47"/>
       <c r="L6" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
@@ -15671,10 +15678,10 @@
     </row>
     <row r="8" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -15685,14 +15692,14 @@
       <c r="J8" s="46"/>
       <c r="K8" s="47"/>
       <c r="L8" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
@@ -15796,7 +15803,7 @@
   <mergeCells count="1">
     <mergeCell ref="L3:P3"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15814,12 +15821,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
@@ -15831,14 +15838,14 @@
       <c r="J3" s="90"/>
       <c r="K3" s="91"/>
       <c r="L3" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="90"/>
       <c r="N3" s="90"/>
       <c r="O3" s="90"/>
       <c r="P3" s="91"/>
       <c r="Q3" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="90"/>
       <c r="S3" s="90"/>
@@ -15875,10 +15882,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15889,14 +15896,14 @@
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
       <c r="L4" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
@@ -15983,10 +15990,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -15997,14 +16004,14 @@
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
@@ -16095,7 +16102,7 @@
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:AW3"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16113,12 +16120,12 @@
   <sheetData>
     <row r="2" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -16136,14 +16143,14 @@
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
       <c r="R3" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S3" s="90"/>
       <c r="T3" s="90"/>
       <c r="U3" s="90"/>
       <c r="V3" s="91"/>
       <c r="W3" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
@@ -16180,10 +16187,10 @@
     </row>
     <row r="4" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -16200,14 +16207,14 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
       <c r="U4" s="46"/>
       <c r="V4" s="47"/>
       <c r="W4" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
@@ -16245,7 +16252,7 @@
     <row r="5" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
       <c r="C5" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -16262,7 +16269,7 @@
       <c r="P5" s="50"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
@@ -16304,10 +16311,10 @@
     </row>
     <row r="6" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16324,14 +16331,14 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" s="46"/>
       <c r="T6" s="46"/>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
       <c r="W6" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
@@ -16369,7 +16376,7 @@
     <row r="7" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -16386,7 +16393,7 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -16428,10 +16435,10 @@
     </row>
     <row r="8" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -16448,14 +16455,14 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="46"/>
       <c r="V8" s="47"/>
       <c r="W8" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -16493,7 +16500,7 @@
     <row r="9" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -16510,7 +16517,7 @@
       <c r="P9" s="50"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
@@ -16676,7 +16683,7 @@
   <mergeCells count="1">
     <mergeCell ref="R3:V3"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16742,7 +16749,7 @@
       <c r="C5" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D8074-5028-4DD6-AF25-04AA2CDCF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA2B45-8B5F-41DC-B6BA-43BD82BA7B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="0" windowWidth="13280" windowHeight="10050" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
     <sheet name="コード分類検索" sheetId="16" r:id="rId2"/>
     <sheet name="コードマスタ検索条件ParamObj " sheetId="17" r:id="rId3"/>
-    <sheet name="表示用コード名クラス" sheetId="18" r:id="rId4"/>
-    <sheet name="コードマスタ取得処理結果格納クラス" sheetId="20" r:id="rId5"/>
+    <sheet name="表示用コード名DTOクラス" sheetId="18" r:id="rId4"/>
+    <sheet name="コードマスタ取得処理結果格納DTOクラス" sheetId="20" r:id="rId5"/>
     <sheet name="マスタ" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -482,16 +482,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>表示用コード名クラス　</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>コード</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -520,19 +510,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>コードマスタ取得処理結果格納クラス</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ケッカカクノウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>List</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -545,16 +522,6 @@
       <t>ショウニン</t>
     </rPh>
     <rPh sb="27" eb="28">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>&lt;表示用コード名クラス&gt;</t>
-    <rPh sb="1" eb="4">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="13"/>
@@ -574,10 +541,6 @@
     <rPh sb="24" eb="25">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>&lt;表示用コード名クラス&gt;</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -674,6 +637,36 @@
   </si>
   <si>
     <t>コード分類Param</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>表示用コード名DTOクラス</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>コードマスタ取得処理結果格納DTOクラス</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケッカカクノウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>&lt;表示用コード名DTOクラス&gt;</t>
+  </si>
+  <si>
+    <t>&lt;表示用コード名DTOクラス&gt;</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -1254,38 +1247,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,8 +1268,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,9 +1336,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,34 +1350,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,7 +1359,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1581,247 +1574,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69" t="s">
-        <v>97</v>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
+        <v>93</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="57" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57" t="s">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57" t="s">
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="70" t="s">
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="62" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="63">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="67">
         <v>45511</v>
       </c>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="62" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="64">
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="68">
         <v>45548</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1888,213 +1881,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
-      <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
-      <c r="BL7" s="59"/>
-      <c r="BM7" s="59"/>
-      <c r="BN7" s="59"/>
-      <c r="BO7" s="59"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2147,787 +2140,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="56" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="60" t="s">
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="65"/>
+      <c r="BO12" s="65"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="65"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="65"/>
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="61" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
+      <c r="BH14" s="70"/>
+      <c r="BI14" s="70"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
+      <c r="BL14" s="70"/>
+      <c r="BM14" s="70"/>
+      <c r="BN14" s="70"/>
+      <c r="BO14" s="70"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="58"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="58"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
-      <c r="BI15" s="58"/>
-      <c r="BJ15" s="58"/>
-      <c r="BK15" s="58"/>
-      <c r="BL15" s="58"/>
-      <c r="BM15" s="58"/>
-      <c r="BN15" s="58"/>
-      <c r="BO15" s="58"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="65"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="58"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="58"/>
-      <c r="BB16" s="58"/>
-      <c r="BC16" s="58"/>
-      <c r="BD16" s="58"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="58"/>
-      <c r="BI16" s="58"/>
-      <c r="BJ16" s="58"/>
-      <c r="BK16" s="58"/>
-      <c r="BL16" s="58"/>
-      <c r="BM16" s="58"/>
-      <c r="BN16" s="58"/>
-      <c r="BO16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="58"/>
-      <c r="BO21" s="58"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="BL21" s="65"/>
+      <c r="BM21" s="65"/>
+      <c r="BN21" s="65"/>
+      <c r="BO21" s="65"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2957,85 +2950,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="56" t="s">
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56" t="s">
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="63"/>
+      <c r="BC25" s="63"/>
+      <c r="BD25" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="56"/>
-      <c r="BF25" s="56"/>
-      <c r="BG25" s="56"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
-      <c r="BK25" s="56" t="s">
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="63"/>
+      <c r="BJ25" s="63"/>
+      <c r="BK25" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="56"/>
-      <c r="BM25" s="56"/>
-      <c r="BN25" s="56"/>
-      <c r="BO25" s="56"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="63"/>
+      <c r="BO25" s="63"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3052,81 +3045,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="57">
+      <c r="C26" s="61">
         <v>1</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="56" t="s">
-        <v>89</v>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="63" t="s">
+        <v>85</v>
       </c>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56" t="s">
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="63"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63"/>
+      <c r="BO26" s="63"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3142,73 +3135,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="57">
+      <c r="C27" s="61">
         <v>2</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
-      <c r="BO27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63"/>
+      <c r="BC27" s="63"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="63"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="63"/>
+      <c r="BO27" s="63"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3224,73 +3217,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="57">
+      <c r="C28" s="61">
         <v>3</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63"/>
+      <c r="BC28" s="63"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="63"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="63"/>
+      <c r="BO28" s="63"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3307,73 +3300,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="57">
+      <c r="C29" s="61">
         <v>4</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="63"/>
+      <c r="BC29" s="63"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="63"/>
+      <c r="BO29" s="63"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3390,73 +3383,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="57">
+      <c r="C30" s="61">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="56"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="56"/>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="56"/>
-      <c r="BJ30" s="56"/>
-      <c r="BK30" s="56"/>
-      <c r="BL30" s="56"/>
-      <c r="BM30" s="56"/>
-      <c r="BN30" s="56"/>
-      <c r="BO30" s="56"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="63"/>
+      <c r="BC30" s="63"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="63"/>
+      <c r="BJ30" s="63"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="63"/>
+      <c r="BO30" s="63"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3473,73 +3466,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="57">
+      <c r="C31" s="61">
         <v>6</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
-      <c r="BF31" s="56"/>
-      <c r="BG31" s="56"/>
-      <c r="BH31" s="56"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="56"/>
-      <c r="BK31" s="56"/>
-      <c r="BL31" s="56"/>
-      <c r="BM31" s="56"/>
-      <c r="BN31" s="56"/>
-      <c r="BO31" s="56"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="63"/>
+      <c r="BC31" s="63"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="63"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="63"/>
+      <c r="BO31" s="63"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3556,73 +3549,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="57">
+      <c r="C32" s="61">
         <v>7</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-      <c r="BK32" s="56"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="63"/>
+      <c r="BC32" s="63"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="63"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="63"/>
+      <c r="BO32" s="63"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3639,73 +3632,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="57">
+      <c r="C33" s="61">
         <v>8</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="63"/>
+      <c r="BC33" s="63"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="63"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+      <c r="BO33" s="63"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3722,73 +3715,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="57">
+      <c r="C34" s="61">
         <v>9</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BC34" s="63"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BO34" s="63"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3806,73 +3799,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="57">
+      <c r="C35" s="61">
         <v>10</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="63"/>
+      <c r="BC35" s="63"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="63"/>
+      <c r="BO35" s="63"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4481,51 +4474,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4550,48 +4540,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -4662,243 +4655,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="73" t="s">
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
+      <c r="BQ1" s="84"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="62" t="s">
-        <v>88</v>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="66" t="s">
+        <v>84</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="74" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74" t="s">
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="74"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
-      <c r="BP2" s="75"/>
-      <c r="BQ2" s="75"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="85"/>
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="85"/>
+      <c r="BQ2" s="85"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="76" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="77">
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="87">
         <v>45510</v>
       </c>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="76" t="s">
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="88"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4923,96 +4916,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="79" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="56" t="s">
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
+      <c r="BP6" s="63"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5043,38 +5036,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="63"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5088,91 +5081,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="74" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74" t="s">
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="81" t="s">
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
-      <c r="BF10" s="82"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="57" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5186,11 +5179,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="85" t="s">
+      <c r="T11" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="86"/>
-      <c r="V11" s="87"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="77"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5244,10 +5237,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5260,9 +5253,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5311,10 +5304,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5328,9 +5321,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5379,10 +5372,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5396,9 +5389,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5447,10 +5440,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5464,9 +5457,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5526,88 +5519,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="74" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74" t="s">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="57" t="s">
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57" t="s">
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="57"/>
-      <c r="BL18" s="57"/>
-      <c r="BM18" s="57"/>
-      <c r="BN18" s="57"/>
-      <c r="BO18" s="57"/>
-      <c r="BP18" s="57"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5623,9 +5616,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -5912,7 +5905,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5939,7 +5932,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -5966,7 +5959,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -5976,7 +5969,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -15291,37 +15284,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15336,6 +15298,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15390,7 +15383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15401,7 +15394,7 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -15464,7 +15457,7 @@
       <c r="B4" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="46"/>
@@ -15572,8 +15565,8 @@
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>96</v>
+      <c r="C6" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -15680,8 +15673,8 @@
       <c r="B8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>95</v>
+      <c r="C8" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -15699,7 +15692,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
@@ -15821,7 +15814,7 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -15885,7 +15878,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15903,7 +15896,7 @@
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
@@ -15993,7 +15986,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16011,7 +16004,7 @@
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
@@ -16120,7 +16113,7 @@
   <sheetData>
     <row r="2" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -16189,8 +16182,8 @@
       <c r="B4" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>92</v>
+      <c r="C4" s="54" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -16207,14 +16200,14 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
       <c r="U4" s="46"/>
       <c r="V4" s="47"/>
       <c r="W4" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
@@ -16251,8 +16244,8 @@
     </row>
     <row r="5" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
-      <c r="C5" s="54" t="s">
-        <v>84</v>
+      <c r="C5" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -16269,7 +16262,7 @@
       <c r="P5" s="50"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
@@ -16313,8 +16306,8 @@
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>93</v>
+      <c r="C6" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -16331,14 +16324,14 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S6" s="46"/>
       <c r="T6" s="46"/>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
       <c r="W6" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
@@ -16376,7 +16369,7 @@
     <row r="7" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="41" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -16393,7 +16386,7 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -16437,8 +16430,8 @@
       <c r="B8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>94</v>
+      <c r="C8" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -16455,14 +16448,14 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="46"/>
       <c r="V8" s="47"/>
       <c r="W8" s="46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
@@ -16500,7 +16493,7 @@
     <row r="9" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="50" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -16517,7 +16510,7 @@
       <c r="P9" s="50"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA2B45-8B5F-41DC-B6BA-43BD82BA7B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585FFBB4-6667-4A38-9EE4-A6437580EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="13340" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
     <sheet name="コード分類検索" sheetId="16" r:id="rId2"/>
-    <sheet name="コードマスタ検索条件ParamObj " sheetId="17" r:id="rId3"/>
+    <sheet name="コード分類Param" sheetId="17" r:id="rId3"/>
     <sheet name="表示用コード名DTOクラス" sheetId="18" r:id="rId4"/>
     <sheet name="コードマスタ取得処理結果格納DTOクラス" sheetId="20" r:id="rId5"/>
     <sheet name="マスタ" sheetId="6" r:id="rId6"/>
@@ -23,8 +23,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_コードマスターマッパー!$A$1:$BQ$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">コード分類検索!$A$1:$BQ$32</definedName>
+    <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１" localSheetId="2">#REF!</definedName>
-    <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１" localSheetId="3">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>システム名</t>
   </si>
@@ -323,7 +323,7 @@
     <rPh sb="0" eb="2">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>抽出条件</t>
@@ -333,37 +333,37 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>交通費請求機能</t>
     <rPh sb="0" eb="7">
       <t>コウツウヒセイキュウキノウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>SQLException</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コードマスタテーブルのマッパークラス</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コードマスタマッパー</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>リスト&lt;コードマスタエンティティ&gt;</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード 昇順</t>
     <rPh sb="4" eb="6">
       <t>ショウジュン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コードマスターテーブルの"コード分類"が引数と一致したレコードデータを取得する</t>
@@ -376,7 +376,7 @@
     <rPh sb="35" eb="37">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード分類検索</t>
@@ -386,14 +386,14 @@
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード分類検索</t>
     <rPh sb="3" eb="7">
       <t>ブンルイケンサク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>◯</t>
@@ -403,7 +403,7 @@
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード検索に利用する文字列、コード分類</t>
@@ -419,36 +419,36 @@
     <rPh sb="17" eb="19">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>・</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>承認ステータス分類</t>
@@ -458,11 +458,11 @@
     <rPh sb="7" eb="9">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>承認ステータスのコード分類</t>
@@ -472,32 +472,32 @@
     <rPh sb="11" eb="13">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>申請区分のコード分類</t>
     <rPh sb="0" eb="4">
       <t>シンセイクブン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コードマスタから取得したコード</t>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コード名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コードマスタから取得したコード名</t>
@@ -507,11 +507,11 @@
     <rPh sb="15" eb="16">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>List</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コードマスタから取得した承認ステータスのコードとコード名</t>
@@ -524,11 +524,11 @@
     <rPh sb="27" eb="28">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Class</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コードマスタから取得した申請区分のコードとコード名</t>
@@ -541,18 +541,18 @@
     <rPh sb="24" eb="25">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コード分類検索</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード分類Param</t>
     <rPh sb="3" eb="5">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コードマスタから取得した利用サービスのコードとコード名</t>
@@ -562,30 +562,30 @@
     <rPh sb="26" eb="27">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>利用サービスのコード分類</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>承認ステータスリスト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>申請区分リスト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>利用サービスリスト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>利用サービス分類</t>
     <rPh sb="6" eb="8">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>申請区分分類</t>
@@ -595,25 +595,25 @@
     <rPh sb="4" eb="6">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>マッパー設計書_コードマスタ</t>
     <rPh sb="4" eb="7">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コードマスタテーブル AS CodeMTable</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>CodeMTable.全項目</t>
     <rPh sb="11" eb="14">
       <t>ゼンコウモク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>CodeMTable.コード分類=引数.コード分類Param</t>
@@ -626,18 +626,18 @@
     <rPh sb="23" eb="25">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>AND CodeMTable.削除フラグ = "0"</t>
     <rPh sb="15" eb="17">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>コード分類Param</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>表示用コード名DTOクラス</t>
@@ -647,7 +647,7 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>コードマスタ取得処理結果格納DTOクラス</t>
@@ -660,14 +660,53 @@
     <rPh sb="10" eb="14">
       <t>ケッカカクノウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>&lt;表示用コード名DTOクラス&gt;</t>
   </si>
   <si>
     <t>&lt;表示用コード名DTOクラス&gt;</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>コードマスターテーブル.コード分類に対応する値が入る</t>
+  </si>
+  <si>
+    <t>コードマスターテーブル.コード分類に対応する値が入る</t>
+    <rPh sb="15" eb="17">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>本機能に使用しないパラメータも格納されたクラスとする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -678,13 +717,21 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-1030411]ee&quot;年&quot;mm&quot;月&quot;dd&quot;日（&quot;dddd&quot;）&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1120,246 +1167,255 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1574,247 +1630,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61" t="s">
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="62" t="s">
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="66" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="64">
         <v>45511</v>
       </c>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="66" t="s">
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="68">
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="65">
         <v>45548</v>
       </c>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1881,213 +1937,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="69"/>
-      <c r="BM6" s="69"/>
-      <c r="BN6" s="69"/>
-      <c r="BO6" s="69"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="60"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="60"/>
+      <c r="BK6" s="60"/>
+      <c r="BL6" s="60"/>
+      <c r="BM6" s="60"/>
+      <c r="BN6" s="60"/>
+      <c r="BO6" s="60"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="69"/>
-      <c r="BH7" s="69"/>
-      <c r="BI7" s="69"/>
-      <c r="BJ7" s="69"/>
-      <c r="BK7" s="69"/>
-      <c r="BL7" s="69"/>
-      <c r="BM7" s="69"/>
-      <c r="BN7" s="69"/>
-      <c r="BO7" s="69"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
+      <c r="BJ7" s="60"/>
+      <c r="BK7" s="60"/>
+      <c r="BL7" s="60"/>
+      <c r="BM7" s="60"/>
+      <c r="BN7" s="60"/>
+      <c r="BO7" s="60"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2140,787 +2196,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="61" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="63" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64" t="s">
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="61"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="61"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
+      <c r="BO11" s="61"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="65"/>
-      <c r="BL12" s="65"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
-      <c r="BO12" s="65"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="65"/>
-      <c r="BE13" s="65"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="70" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="70"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="70"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="70"/>
-      <c r="BF14" s="70"/>
-      <c r="BG14" s="70"/>
-      <c r="BH14" s="70"/>
-      <c r="BI14" s="70"/>
-      <c r="BJ14" s="70"/>
-      <c r="BK14" s="70"/>
-      <c r="BL14" s="70"/>
-      <c r="BM14" s="70"/>
-      <c r="BN14" s="70"/>
-      <c r="BO14" s="70"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="59"/>
+      <c r="BM15" s="59"/>
+      <c r="BN15" s="59"/>
+      <c r="BO15" s="59"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="59"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="59"/>
+      <c r="BD16" s="59"/>
+      <c r="BE16" s="59"/>
+      <c r="BF16" s="59"/>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="59"/>
+      <c r="BI16" s="59"/>
+      <c r="BJ16" s="59"/>
+      <c r="BK16" s="59"/>
+      <c r="BL16" s="59"/>
+      <c r="BM16" s="59"/>
+      <c r="BN16" s="59"/>
+      <c r="BO16" s="59"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="59"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="59"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="59"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="59"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="59"/>
+      <c r="AU19" s="59"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="59"/>
+      <c r="AX19" s="59"/>
+      <c r="AY19" s="59"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="59"/>
+      <c r="BH19" s="59"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="59"/>
+      <c r="BK19" s="59"/>
+      <c r="BL19" s="59"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="59"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
+      <c r="AU20" s="59"/>
+      <c r="AV20" s="59"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="59"/>
+      <c r="BC20" s="59"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
+      <c r="BI20" s="59"/>
+      <c r="BJ20" s="59"/>
+      <c r="BK20" s="59"/>
+      <c r="BL20" s="59"/>
+      <c r="BM20" s="59"/>
+      <c r="BN20" s="59"/>
+      <c r="BO20" s="59"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65"/>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2950,85 +3006,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="65" t="s">
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="63" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="63"/>
-      <c r="BC25" s="63"/>
-      <c r="BD25" s="63" t="s">
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="63"/>
-      <c r="BK25" s="63" t="s">
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63"/>
-      <c r="BO25" s="63"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3045,81 +3101,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="61">
+      <c r="C26" s="58">
         <v>1</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="63" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="64" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="63" t="s">
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
-      <c r="BD26" s="63" t="s">
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63"/>
-      <c r="BH26" s="63"/>
-      <c r="BI26" s="63"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63"/>
-      <c r="BO26" s="63"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3135,73 +3191,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="61">
+      <c r="C27" s="58">
         <v>2</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63"/>
-      <c r="BO27" s="63"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3217,73 +3273,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="61">
+      <c r="C28" s="58">
         <v>3</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="63"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3300,73 +3356,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="61">
+      <c r="C29" s="58">
         <v>4</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="63"/>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="63"/>
-      <c r="BN29" s="63"/>
-      <c r="BO29" s="63"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3383,73 +3439,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="61">
+      <c r="C30" s="58">
         <v>5</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="63"/>
-      <c r="AO30" s="63"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="63"/>
-      <c r="AT30" s="63"/>
-      <c r="AU30" s="63"/>
-      <c r="AV30" s="63"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BB30" s="63"/>
-      <c r="BC30" s="63"/>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
-      <c r="BF30" s="63"/>
-      <c r="BG30" s="63"/>
-      <c r="BH30" s="63"/>
-      <c r="BI30" s="63"/>
-      <c r="BJ30" s="63"/>
-      <c r="BK30" s="63"/>
-      <c r="BL30" s="63"/>
-      <c r="BM30" s="63"/>
-      <c r="BN30" s="63"/>
-      <c r="BO30" s="63"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3466,73 +3522,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="61">
+      <c r="C31" s="58">
         <v>6</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="63"/>
-      <c r="BJ31" s="63"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="63"/>
-      <c r="BO31" s="63"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3549,73 +3605,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="61">
+      <c r="C32" s="58">
         <v>7</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="63"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3632,73 +3688,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="61">
+      <c r="C33" s="58">
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="63"/>
-      <c r="BO33" s="63"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3715,73 +3771,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="61">
+      <c r="C34" s="58">
         <v>9</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="63"/>
-      <c r="AQ34" s="63"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
-      <c r="BD34" s="63"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="63"/>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="63"/>
-      <c r="BO34" s="63"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3799,73 +3855,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="61">
+      <c r="C35" s="58">
         <v>10</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="63"/>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="63"/>
-      <c r="AQ35" s="63"/>
-      <c r="AR35" s="63"/>
-      <c r="AS35" s="63"/>
-      <c r="AT35" s="63"/>
-      <c r="AU35" s="63"/>
-      <c r="AV35" s="63"/>
-      <c r="AW35" s="63"/>
-      <c r="AX35" s="63"/>
-      <c r="AY35" s="63"/>
-      <c r="AZ35" s="63"/>
-      <c r="BA35" s="63"/>
-      <c r="BB35" s="63"/>
-      <c r="BC35" s="63"/>
-      <c r="BD35" s="63"/>
-      <c r="BE35" s="63"/>
-      <c r="BF35" s="63"/>
-      <c r="BG35" s="63"/>
-      <c r="BH35" s="63"/>
-      <c r="BI35" s="63"/>
-      <c r="BJ35" s="63"/>
-      <c r="BK35" s="63"/>
-      <c r="BL35" s="63"/>
-      <c r="BM35" s="63"/>
-      <c r="BN35" s="63"/>
-      <c r="BO35" s="63"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4474,48 +4530,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4540,53 +4599,50 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M11" xr:uid="{1A1D8800-C998-4F4D-8F9F-629C097FBDE0}">
       <formula1>"class,static class,abstract class"</formula1>
@@ -4639,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C419942-AAEF-47BC-8F8D-550D23926994}">
   <dimension ref="A1:AMM49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4655,243 +4711,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="84" t="s">
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
-      <c r="BQ1" s="84"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="74"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="74"/>
+      <c r="BP1" s="74"/>
+      <c r="BQ1" s="74"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="66" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="72" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72" t="s">
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72" t="s">
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
-      <c r="BM2" s="85"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="86" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="87">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="78">
         <v>45510</v>
       </c>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="86" t="s">
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="88"/>
-      <c r="BP3" s="88"/>
-      <c r="BQ3" s="88"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4916,96 +4972,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="81" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="63" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63" t="s">
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
-      <c r="BP6" s="63"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5036,38 +5092,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="63"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5081,89 +5137,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="72" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="61" t="s">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
+      <c r="BK10" s="58"/>
+      <c r="BL10" s="58"/>
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="58"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="17" t="s">
         <v>85</v>
       </c>
@@ -5179,11 +5235,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="75" t="s">
+      <c r="T11" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="76"/>
-      <c r="V11" s="77"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="88"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5237,10 +5293,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5253,9 +5309,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5304,10 +5360,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5321,9 +5377,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5372,10 +5428,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5389,9 +5445,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5440,10 +5496,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5457,9 +5513,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5519,88 +5575,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="72" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72" t="s">
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="61" t="s">
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61" t="s">
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="58"/>
+      <c r="BJ18" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
-      <c r="BP18" s="61"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="58"/>
+      <c r="BO18" s="58"/>
+      <c r="BP18" s="58"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5616,9 +5672,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -15284,6 +15340,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15298,39 +15385,8 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T11:T15 T19" xr:uid="{52DB810B-7F52-4DCF-B085-801D33B57E64}">
       <formula1>"◯,"</formula1>
@@ -15383,9 +15439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15410,13 +15464,13 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
       <c r="Q3" s="43" t="s">
         <v>70</v>
       </c>
@@ -15475,7 +15529,7 @@
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="94" t="s">
         <v>74</v>
       </c>
       <c r="R4" s="46"/>
@@ -15527,7 +15581,9 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
       <c r="P5" s="51"/>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="95" t="s">
+        <v>105</v>
+      </c>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
@@ -15635,7 +15691,9 @@
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
       <c r="P7" s="51"/>
-      <c r="Q7" s="50"/>
+      <c r="Q7" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -15743,7 +15801,9 @@
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
       <c r="P9" s="51"/>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
@@ -15778,7 +15838,12 @@
       <c r="AW9" s="51"/>
     </row>
     <row r="10" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
+      <c r="B10" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
@@ -15796,7 +15861,7 @@
   <mergeCells count="1">
     <mergeCell ref="L3:P3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15818,60 +15883,60 @@
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="89" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="89" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="92"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
@@ -16095,7 +16160,7 @@
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:AW3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16135,13 +16200,13 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="92"/>
       <c r="W3" s="43" t="s">
         <v>70</v>
       </c>
@@ -16244,7 +16309,7 @@
     </row>
     <row r="5" spans="2:65" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="56" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="50"/>
@@ -16676,7 +16741,7 @@
   <mergeCells count="1">
     <mergeCell ref="R3:V3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16742,7 +16807,7 @@
       <c r="C5" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_コードマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585FFBB4-6667-4A38-9EE4-A6437580EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584033B1-FD34-4259-8672-F917025C29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="13340" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2110" yWindow="370" windowWidth="13340" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_コードマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -1303,32 +1303,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,8 +1327,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,9 +1395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,34 +1409,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,15 +1417,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1630,247 +1630,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="58" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="71" t="s">
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="64">
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="71">
         <v>45511</v>
       </c>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="65">
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="72">
         <v>45548</v>
       </c>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1937,213 +1937,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="60"/>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="60"/>
-      <c r="BO6" s="60"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="60"/>
-      <c r="BH7" s="60"/>
-      <c r="BI7" s="60"/>
-      <c r="BJ7" s="60"/>
-      <c r="BK7" s="60"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="60"/>
-      <c r="BN7" s="60"/>
-      <c r="BO7" s="60"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2196,787 +2196,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="57" t="s">
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="61" t="s">
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
-      <c r="BO11" s="61"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="68"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="68"/>
+      <c r="BO11" s="68"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="69"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
+      <c r="BN12" s="69"/>
+      <c r="BO12" s="69"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="69"/>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="69"/>
+      <c r="BN13" s="69"/>
+      <c r="BO13" s="69"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="74"/>
+      <c r="BL14" s="74"/>
+      <c r="BM14" s="74"/>
+      <c r="BN14" s="74"/>
+      <c r="BO14" s="74"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="59"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="59"/>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BK15" s="59"/>
-      <c r="BL15" s="59"/>
-      <c r="BM15" s="59"/>
-      <c r="BN15" s="59"/>
-      <c r="BO15" s="59"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="69"/>
+      <c r="BF15" s="69"/>
+      <c r="BG15" s="69"/>
+      <c r="BH15" s="69"/>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="69"/>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="69"/>
+      <c r="BN15" s="69"/>
+      <c r="BO15" s="69"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="59"/>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="59"/>
-      <c r="AV16" s="59"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="59"/>
-      <c r="AY16" s="59"/>
-      <c r="AZ16" s="59"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="59"/>
-      <c r="BC16" s="59"/>
-      <c r="BD16" s="59"/>
-      <c r="BE16" s="59"/>
-      <c r="BF16" s="59"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BK16" s="59"/>
-      <c r="BL16" s="59"/>
-      <c r="BM16" s="59"/>
-      <c r="BN16" s="59"/>
-      <c r="BO16" s="59"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="69"/>
+      <c r="BF16" s="69"/>
+      <c r="BG16" s="69"/>
+      <c r="BH16" s="69"/>
+      <c r="BI16" s="69"/>
+      <c r="BJ16" s="69"/>
+      <c r="BK16" s="69"/>
+      <c r="BL16" s="69"/>
+      <c r="BM16" s="69"/>
+      <c r="BN16" s="69"/>
+      <c r="BO16" s="69"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="59"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="59"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="69"/>
+      <c r="BN17" s="69"/>
+      <c r="BO17" s="69"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="59"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="69"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="69"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="69"/>
+      <c r="BN18" s="69"/>
+      <c r="BO18" s="69"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="59"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
+      <c r="BO19" s="69"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="59"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="69"/>
+      <c r="BF20" s="69"/>
+      <c r="BG20" s="69"/>
+      <c r="BH20" s="69"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="69"/>
+      <c r="BK20" s="69"/>
+      <c r="BL20" s="69"/>
+      <c r="BM20" s="69"/>
+      <c r="BN20" s="69"/>
+      <c r="BO20" s="69"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+      <c r="BF21" s="69"/>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
+      <c r="BO21" s="69"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -3006,85 +3006,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59" t="s">
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57" t="s">
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="67"/>
+      <c r="BK25" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BL25" s="67"/>
+      <c r="BM25" s="67"/>
+      <c r="BN25" s="67"/>
+      <c r="BO25" s="67"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3101,81 +3101,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="58">
+      <c r="C26" s="65">
         <v>1</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="61" t="s">
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="57" t="s">
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57" t="s">
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="67"/>
+      <c r="AQ26" s="67"/>
+      <c r="AR26" s="67"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="67"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="67"/>
+      <c r="AW26" s="67"/>
+      <c r="AX26" s="67"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="67"/>
+      <c r="BD26" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
-      <c r="BK26" s="57"/>
-      <c r="BL26" s="57"/>
-      <c r="BM26" s="57"/>
-      <c r="BN26" s="57"/>
-      <c r="BO26" s="57"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="67"/>
+      <c r="BH26" s="67"/>
+      <c r="BI26" s="67"/>
+      <c r="BJ26" s="67"/>
+      <c r="BK26" s="67"/>
+      <c r="BL26" s="67"/>
+      <c r="BM26" s="67"/>
+      <c r="BN26" s="67"/>
+      <c r="BO26" s="67"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -3191,73 +3191,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="58">
+      <c r="C27" s="65">
         <v>2</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="67"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="67"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="67"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="67"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="67"/>
+      <c r="AW27" s="67"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="67"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="67"/>
+      <c r="BD27" s="67"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="67"/>
+      <c r="BL27" s="67"/>
+      <c r="BM27" s="67"/>
+      <c r="BN27" s="67"/>
+      <c r="BO27" s="67"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3273,73 +3273,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="58">
+      <c r="C28" s="65">
         <v>3</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="67"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="67"/>
+      <c r="AV28" s="67"/>
+      <c r="AW28" s="67"/>
+      <c r="AX28" s="67"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="67"/>
+      <c r="BB28" s="67"/>
+      <c r="BC28" s="67"/>
+      <c r="BD28" s="67"/>
+      <c r="BE28" s="67"/>
+      <c r="BF28" s="67"/>
+      <c r="BG28" s="67"/>
+      <c r="BH28" s="67"/>
+      <c r="BI28" s="67"/>
+      <c r="BJ28" s="67"/>
+      <c r="BK28" s="67"/>
+      <c r="BL28" s="67"/>
+      <c r="BM28" s="67"/>
+      <c r="BN28" s="67"/>
+      <c r="BO28" s="67"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3356,73 +3356,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="58">
+      <c r="C29" s="65">
         <v>4</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="67"/>
+      <c r="AW29" s="67"/>
+      <c r="AX29" s="67"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="67"/>
+      <c r="BB29" s="67"/>
+      <c r="BC29" s="67"/>
+      <c r="BD29" s="67"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
+      <c r="BI29" s="67"/>
+      <c r="BJ29" s="67"/>
+      <c r="BK29" s="67"/>
+      <c r="BL29" s="67"/>
+      <c r="BM29" s="67"/>
+      <c r="BN29" s="67"/>
+      <c r="BO29" s="67"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3439,73 +3439,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="58">
+      <c r="C30" s="65">
         <v>5</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="67"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="67"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="67"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="67"/>
+      <c r="AP30" s="67"/>
+      <c r="AQ30" s="67"/>
+      <c r="AR30" s="67"/>
+      <c r="AS30" s="67"/>
+      <c r="AT30" s="67"/>
+      <c r="AU30" s="67"/>
+      <c r="AV30" s="67"/>
+      <c r="AW30" s="67"/>
+      <c r="AX30" s="67"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="67"/>
+      <c r="BB30" s="67"/>
+      <c r="BC30" s="67"/>
+      <c r="BD30" s="67"/>
+      <c r="BE30" s="67"/>
+      <c r="BF30" s="67"/>
+      <c r="BG30" s="67"/>
+      <c r="BH30" s="67"/>
+      <c r="BI30" s="67"/>
+      <c r="BJ30" s="67"/>
+      <c r="BK30" s="67"/>
+      <c r="BL30" s="67"/>
+      <c r="BM30" s="67"/>
+      <c r="BN30" s="67"/>
+      <c r="BO30" s="67"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3522,73 +3522,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="58">
+      <c r="C31" s="65">
         <v>6</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
+      <c r="AJ31" s="67"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="67"/>
+      <c r="AP31" s="67"/>
+      <c r="AQ31" s="67"/>
+      <c r="AR31" s="67"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="67"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="67"/>
+      <c r="AW31" s="67"/>
+      <c r="AX31" s="67"/>
+      <c r="AY31" s="67"/>
+      <c r="AZ31" s="67"/>
+      <c r="BA31" s="67"/>
+      <c r="BB31" s="67"/>
+      <c r="BC31" s="67"/>
+      <c r="BD31" s="67"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="67"/>
+      <c r="BK31" s="67"/>
+      <c r="BL31" s="67"/>
+      <c r="BM31" s="67"/>
+      <c r="BN31" s="67"/>
+      <c r="BO31" s="67"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3605,73 +3605,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="58">
+      <c r="C32" s="65">
         <v>7</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
+      <c r="AR32" s="67"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="67"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="67"/>
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="67"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="67"/>
+      <c r="BJ32" s="67"/>
+      <c r="BK32" s="67"/>
+      <c r="BL32" s="67"/>
+      <c r="BM32" s="67"/>
+      <c r="BN32" s="67"/>
+      <c r="BO32" s="67"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3688,73 +3688,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="58">
+      <c r="C33" s="65">
         <v>8</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="67"/>
+      <c r="AR33" s="67"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="67"/>
+      <c r="AU33" s="67"/>
+      <c r="AV33" s="67"/>
+      <c r="AW33" s="67"/>
+      <c r="AX33" s="67"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="67"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="67"/>
+      <c r="BK33" s="67"/>
+      <c r="BL33" s="67"/>
+      <c r="BM33" s="67"/>
+      <c r="BN33" s="67"/>
+      <c r="BO33" s="67"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3771,73 +3771,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="58">
+      <c r="C34" s="65">
         <v>9</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="67"/>
+      <c r="BK34" s="67"/>
+      <c r="BL34" s="67"/>
+      <c r="BM34" s="67"/>
+      <c r="BN34" s="67"/>
+      <c r="BO34" s="67"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3855,73 +3855,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="58">
+      <c r="C35" s="65">
         <v>10</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
-      <c r="AY35" s="57"/>
-      <c r="AZ35" s="57"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
-      <c r="BD35" s="57"/>
-      <c r="BE35" s="57"/>
-      <c r="BF35" s="57"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AR35" s="67"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="67"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="67"/>
+      <c r="BJ35" s="67"/>
+      <c r="BK35" s="67"/>
+      <c r="BL35" s="67"/>
+      <c r="BM35" s="67"/>
+      <c r="BN35" s="67"/>
+      <c r="BO35" s="67"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4530,51 +4530,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4599,48 +4596,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -4695,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C419942-AAEF-47BC-8F8D-550D23926994}">
   <dimension ref="A1:AMM49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4711,243 +4711,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="74" t="s">
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="74"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="74"/>
-      <c r="BL1" s="74"/>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="74"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="88"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="88"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="75" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75" t="s">
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75" t="s">
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="76"/>
-      <c r="BK2" s="76"/>
-      <c r="BL2" s="76"/>
-      <c r="BM2" s="76"/>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76"/>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="77" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="78">
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="91">
         <v>45510</v>
       </c>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="77" t="s">
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4972,96 +4972,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="80" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
-      <c r="AO6" s="57" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>62</v>
       </c>
@@ -5092,38 +5092,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5137,30 +5137,30 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="75" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75" t="s">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="82" t="s">
         <v>65</v>
       </c>
@@ -5202,24 +5202,24 @@
       <c r="BG10" s="83"/>
       <c r="BH10" s="83"/>
       <c r="BI10" s="84"/>
-      <c r="BJ10" s="58" t="s">
+      <c r="BJ10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="58"/>
-      <c r="BL10" s="58"/>
-      <c r="BM10" s="58"/>
-      <c r="BN10" s="58"/>
-      <c r="BO10" s="58"/>
-      <c r="BP10" s="58"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="65"/>
+      <c r="BP10" s="65"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="17" t="s">
         <v>85</v>
       </c>
@@ -5235,11 +5235,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="86" t="s">
+      <c r="T11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="88"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5293,10 +5293,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5309,9 +5309,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5360,10 +5360,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5377,9 +5377,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5428,10 +5428,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5445,9 +5445,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5496,10 +5496,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5513,9 +5513,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5575,88 +5575,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="75" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="58" t="s">
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58" t="s">
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="58"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
+      <c r="BP18" s="65"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
@@ -5672,9 +5672,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
       <c r="W19" s="21" t="s">
         <v>61</v>
       </c>
@@ -15340,37 +15340,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -15385,6 +15354,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -15439,7 +15439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07824D8A-DC0A-4B5A-80CA-A5E67D2229B8}">
   <dimension ref="B2:AW18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15464,13 +15464,13 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="43" t="s">
         <v>70</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47"/>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="58" t="s">
         <v>74</v>
       </c>
       <c r="R4" s="46"/>
@@ -15581,7 +15581,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
       <c r="P5" s="51"/>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="59" t="s">
         <v>105</v>
       </c>
       <c r="R5" s="50"/>
@@ -15841,7 +15841,7 @@
       <c r="B10" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="57" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15883,60 +15883,60 @@
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="90" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="90" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="92"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="95"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
@@ -16200,13 +16200,13 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="92"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
       <c r="W3" s="43" t="s">
         <v>70</v>
       </c>
